--- a/multiplus_simulator/results/qoe_sim3.xlsx
+++ b/multiplus_simulator/results/qoe_sim3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>User1</t>
   </si>
@@ -164,6 +164,156 @@
   </si>
   <si>
     <t>User50</t>
+  </si>
+  <si>
+    <t>User51</t>
+  </si>
+  <si>
+    <t>User52</t>
+  </si>
+  <si>
+    <t>User53</t>
+  </si>
+  <si>
+    <t>User54</t>
+  </si>
+  <si>
+    <t>User55</t>
+  </si>
+  <si>
+    <t>User56</t>
+  </si>
+  <si>
+    <t>User57</t>
+  </si>
+  <si>
+    <t>User58</t>
+  </si>
+  <si>
+    <t>User59</t>
+  </si>
+  <si>
+    <t>User60</t>
+  </si>
+  <si>
+    <t>User61</t>
+  </si>
+  <si>
+    <t>User62</t>
+  </si>
+  <si>
+    <t>User63</t>
+  </si>
+  <si>
+    <t>User64</t>
+  </si>
+  <si>
+    <t>User65</t>
+  </si>
+  <si>
+    <t>User66</t>
+  </si>
+  <si>
+    <t>User67</t>
+  </si>
+  <si>
+    <t>User68</t>
+  </si>
+  <si>
+    <t>User69</t>
+  </si>
+  <si>
+    <t>User70</t>
+  </si>
+  <si>
+    <t>User71</t>
+  </si>
+  <si>
+    <t>User72</t>
+  </si>
+  <si>
+    <t>User73</t>
+  </si>
+  <si>
+    <t>User74</t>
+  </si>
+  <si>
+    <t>User75</t>
+  </si>
+  <si>
+    <t>User76</t>
+  </si>
+  <si>
+    <t>User77</t>
+  </si>
+  <si>
+    <t>User78</t>
+  </si>
+  <si>
+    <t>User79</t>
+  </si>
+  <si>
+    <t>User80</t>
+  </si>
+  <si>
+    <t>User81</t>
+  </si>
+  <si>
+    <t>User82</t>
+  </si>
+  <si>
+    <t>User83</t>
+  </si>
+  <si>
+    <t>User84</t>
+  </si>
+  <si>
+    <t>User85</t>
+  </si>
+  <si>
+    <t>User86</t>
+  </si>
+  <si>
+    <t>User87</t>
+  </si>
+  <si>
+    <t>User88</t>
+  </si>
+  <si>
+    <t>User89</t>
+  </si>
+  <si>
+    <t>User90</t>
+  </si>
+  <si>
+    <t>User91</t>
+  </si>
+  <si>
+    <t>User92</t>
+  </si>
+  <si>
+    <t>User93</t>
+  </si>
+  <si>
+    <t>User94</t>
+  </si>
+  <si>
+    <t>User95</t>
+  </si>
+  <si>
+    <t>User96</t>
+  </si>
+  <si>
+    <t>User97</t>
+  </si>
+  <si>
+    <t>User98</t>
+  </si>
+  <si>
+    <t>User99</t>
+  </si>
+  <si>
+    <t>User100</t>
   </si>
   <si>
     <t>#Users</t>
@@ -519,2381 +669,7731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:41">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="K1" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="L1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="M1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="P1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="Q1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="R1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="T1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="U1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>105</v>
+      </c>
+      <c r="V1" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C2">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D2">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.89044010278877</v>
       </c>
       <c r="G2">
-        <v>1.063879119723762</v>
+        <v>2.820344307434905</v>
       </c>
       <c r="H2">
-        <v>1.041651917138526</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I2">
-        <v>0.9888607813449256</v>
+        <v>2.097328602958155</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="L2">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M2">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N2">
-        <v>1.025330064300367</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O2">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.82740526083151</v>
       </c>
       <c r="Q2">
-        <v>1.063879119723762</v>
+        <v>2.761278821843222</v>
       </c>
       <c r="R2">
-        <v>1.042314553449994</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S2">
-        <v>1.004862998135761</v>
+        <v>2.004580201097613</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="V2">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W2">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X2">
+        <v>4.305719850526982</v>
+      </c>
+      <c r="Y2">
+        <v>3.677211847513968</v>
+      </c>
+      <c r="Z2">
+        <v>3.231633256297776</v>
+      </c>
+      <c r="AA2">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB2">
+        <v>2.282348166131516</v>
+      </c>
+      <c r="AC2">
+        <v>2.165052559156103</v>
+      </c>
+      <c r="AD2">
+        <v>1.547117074621247</v>
+      </c>
+      <c r="AE2">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AF2">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG2">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH2">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI2">
+        <v>3.527099957212502</v>
+      </c>
+      <c r="AJ2">
+        <v>2.866764855254619</v>
+      </c>
+      <c r="AK2">
+        <v>2.767578379532026</v>
+      </c>
+      <c r="AL2">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM2">
+        <v>1.96537307321954</v>
+      </c>
+      <c r="AN2">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO2">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C3">
-        <v>1.043246929984974</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D3">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.890404266623651</v>
       </c>
       <c r="G3">
-        <v>1.063879119723762</v>
+        <v>2.800182751277467</v>
       </c>
       <c r="H3">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I3">
-        <v>0.9888607813449256</v>
+        <v>2.076661952242545</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="L3">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M3">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N3">
-        <v>1.025193550437113</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O3">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q3">
-        <v>1.063879119723762</v>
+        <v>2.761759565380173</v>
       </c>
       <c r="R3">
-        <v>1.042314553449994</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S3">
-        <v>1.004630242898662</v>
+        <v>2.004095432188537</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="V3">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W3">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X3">
+        <v>4.305719850526982</v>
+      </c>
+      <c r="Y3">
+        <v>3.639425871659649</v>
+      </c>
+      <c r="Z3">
+        <v>3.168120983258719</v>
+      </c>
+      <c r="AA3">
+        <v>2.786911188743249</v>
+      </c>
+      <c r="AB3">
+        <v>2.277348507707557</v>
+      </c>
+      <c r="AC3">
+        <v>2.050351321329527</v>
+      </c>
+      <c r="AD3">
+        <v>1.533938494540497</v>
+      </c>
+      <c r="AE3">
+        <v>1.40818711284878</v>
+      </c>
+      <c r="AF3">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG3">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH3">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI3">
+        <v>3.530182209560345</v>
+      </c>
+      <c r="AJ3">
+        <v>2.865211519113152</v>
+      </c>
+      <c r="AK3">
+        <v>2.772079846311088</v>
+      </c>
+      <c r="AL3">
+        <v>2.093651557234417</v>
+      </c>
+      <c r="AM3">
+        <v>1.948230620160247</v>
+      </c>
+      <c r="AN3">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO3">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.063879119723762</v>
+        <v>4.369040801957648</v>
       </c>
       <c r="C4">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D4">
-        <v>1.007547763174238</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2.890286004771059</v>
       </c>
       <c r="G4">
-        <v>1.063879119723762</v>
+        <v>2.82049898269879</v>
       </c>
       <c r="H4">
-        <v>1.041651917138526</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I4">
-        <v>0.9885020446512783</v>
+        <v>2.097427147898701</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="L4">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M4">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N4">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O4">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q4">
-        <v>1.063879119723762</v>
+        <v>2.757937785934844</v>
       </c>
       <c r="R4">
-        <v>1.042314553449994</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S4">
-        <v>1.004862998135761</v>
+        <v>1.997475342073412</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="V4">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W4">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X4">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y4">
+        <v>3.677142739231684</v>
+      </c>
+      <c r="Z4">
+        <v>3.217138190778237</v>
+      </c>
+      <c r="AA4">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB4">
+        <v>2.28232692025737</v>
+      </c>
+      <c r="AC4">
+        <v>2.164969641223599</v>
+      </c>
+      <c r="AD4">
+        <v>1.546803804177623</v>
+      </c>
+      <c r="AE4">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AF4">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG4">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH4">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI4">
+        <v>3.527109271306216</v>
+      </c>
+      <c r="AJ4">
+        <v>2.864826127778738</v>
+      </c>
+      <c r="AK4">
+        <v>2.767473993970599</v>
+      </c>
+      <c r="AL4">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM4">
+        <v>1.965364851779922</v>
+      </c>
+      <c r="AN4">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO4">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C5">
-        <v>1.04315442543658</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D5">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2.890058328883075</v>
       </c>
       <c r="G5">
-        <v>1.063879119723762</v>
+        <v>2.622715901277199</v>
       </c>
       <c r="H5">
-        <v>1.041651917138526</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I5">
-        <v>0.9885020446512783</v>
+        <v>1.837247761078377</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.369006993938766</v>
       </c>
       <c r="L5">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M5">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N5">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O5">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q5">
-        <v>1.063879119723762</v>
+        <v>2.767920243003509</v>
       </c>
       <c r="R5">
-        <v>1.042314553449994</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S5">
-        <v>1.004862998135761</v>
+        <v>2.001660345740218</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="V5">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W5">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X5">
+        <v>1.315560348432757</v>
+      </c>
+      <c r="Y5">
+        <v>0.6582756291348173</v>
+      </c>
+      <c r="Z5">
+        <v>0.4895219178919143</v>
+      </c>
+      <c r="AA5">
+        <v>0.6730345177091925</v>
+      </c>
+      <c r="AB5">
+        <v>0.1737274625577068</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG5">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH5">
+        <v>2.032355917082398</v>
+      </c>
+      <c r="AI5">
+        <v>0.6211119206492377</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C6">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D6">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>2.890109268398218</v>
       </c>
       <c r="G6">
-        <v>1.063879119723762</v>
+        <v>2.805881806960727</v>
       </c>
       <c r="H6">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I6">
-        <v>0.9888607813449256</v>
+        <v>2.03576298937395</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="L6">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M6">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N6">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O6">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q6">
-        <v>1.063879119723762</v>
+        <v>2.761572575870606</v>
       </c>
       <c r="R6">
-        <v>1.042220403815936</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S6">
-        <v>1.004630242898662</v>
+        <v>1.995532453820564</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="V6">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W6">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X6">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y6">
+        <v>3.658399352283751</v>
+      </c>
+      <c r="Z6">
+        <v>3.159220768447504</v>
+      </c>
+      <c r="AA6">
+        <v>2.779105101244509</v>
+      </c>
+      <c r="AB6">
+        <v>2.251359239715143</v>
+      </c>
+      <c r="AC6">
+        <v>2.01138789564191</v>
+      </c>
+      <c r="AD6">
+        <v>1.504988235276694</v>
+      </c>
+      <c r="AE6">
+        <v>1.345563750675205</v>
+      </c>
+      <c r="AF6">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG6">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH6">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI6">
+        <v>3.53229349781664</v>
+      </c>
+      <c r="AJ6">
+        <v>2.806048714977131</v>
+      </c>
+      <c r="AK6">
+        <v>2.608204544847366</v>
+      </c>
+      <c r="AL6">
+        <v>0.4457573345885131</v>
+      </c>
+      <c r="AM6">
+        <v>1.845810867083151</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>1.502888789871502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C7">
-        <v>1.043061760259288</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D7">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2.890058328883075</v>
       </c>
       <c r="G7">
-        <v>1.063879119723762</v>
+        <v>2.82049898269879</v>
       </c>
       <c r="H7">
-        <v>1.041651917138526</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I7">
-        <v>0.9888607813449256</v>
+        <v>2.097328602958155</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="L7">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M7">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N7">
-        <v>1.025330064300367</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O7">
-        <v>0.9686543630543183</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q7">
-        <v>1.063879119723762</v>
+        <v>2.764026924203299</v>
       </c>
       <c r="R7">
-        <v>1.042220403815936</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S7">
-        <v>1.004630242898662</v>
+        <v>1.999656839135414</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="V7">
+        <v>4.369040801957648</v>
+      </c>
+      <c r="W7">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X7">
+        <v>4.305719850526982</v>
+      </c>
+      <c r="Y7">
+        <v>3.677225817900257</v>
+      </c>
+      <c r="Z7">
+        <v>3.231609037386609</v>
+      </c>
+      <c r="AA7">
+        <v>2.914222235629064</v>
+      </c>
+      <c r="AB7">
+        <v>2.282130735453701</v>
+      </c>
+      <c r="AC7">
+        <v>2.184531565734661</v>
+      </c>
+      <c r="AD7">
+        <v>1.547091563103</v>
+      </c>
+      <c r="AE7">
+        <v>1.525771144753518</v>
+      </c>
+      <c r="AF7">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG7">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH7">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI7">
+        <v>3.527109796713343</v>
+      </c>
+      <c r="AJ7">
+        <v>2.866934678521019</v>
+      </c>
+      <c r="AK7">
+        <v>2.767124401366738</v>
+      </c>
+      <c r="AL7">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM7">
+        <v>1.964905685891071</v>
+      </c>
+      <c r="AN7">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO7">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C8">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D8">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2.890508537649951</v>
       </c>
       <c r="G8">
-        <v>1.063879119723762</v>
+        <v>2.660916732385871</v>
       </c>
       <c r="H8">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I8">
-        <v>0.9888607813449256</v>
+        <v>1.911949539329515</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.517202150743278</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.498676386681453</v>
       </c>
       <c r="L8">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M8">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N8">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O8">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2.827302218656588</v>
       </c>
       <c r="Q8">
-        <v>1.063879119723762</v>
+        <v>2.766178648004785</v>
       </c>
       <c r="R8">
-        <v>1.042220403815936</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S8">
-        <v>1.004630242898662</v>
+        <v>1.993789003251861</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>1.502424445078726</v>
+      </c>
+      <c r="V8">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W8">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X8">
+        <v>4.193431259167405</v>
+      </c>
+      <c r="Y8">
+        <v>1.546154193580179</v>
+      </c>
+      <c r="Z8">
+        <v>1.098681674703752</v>
+      </c>
+      <c r="AA8">
+        <v>0.7749539702960955</v>
+      </c>
+      <c r="AB8">
+        <v>0.3392990363620778</v>
+      </c>
+      <c r="AC8">
+        <v>0.2079244526392001</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG8">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH8">
+        <v>4.189627241675789</v>
+      </c>
+      <c r="AI8">
+        <v>3.487924235242851</v>
+      </c>
+      <c r="AJ8">
+        <v>1.18509100526622</v>
+      </c>
+      <c r="AK8">
+        <v>0.5259359071012775</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>1.452753974613545</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C9">
-        <v>1.043061760259288</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D9">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2.890058328883075</v>
       </c>
       <c r="G9">
-        <v>1.063879119723762</v>
+        <v>2.82049898269879</v>
       </c>
       <c r="H9">
-        <v>1.041651917138526</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I9">
-        <v>0.9885020446512783</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="L9">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M9">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N9">
-        <v>1.025056581907364</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O9">
-        <v>0.9686543630543183</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q9">
-        <v>1.063879119723762</v>
+        <v>2.762764276110758</v>
       </c>
       <c r="R9">
-        <v>1.042314553449994</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S9">
-        <v>1.004862998135761</v>
+        <v>1.997330612170187</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="V9">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W9">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X9">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y9">
+        <v>3.677199024910758</v>
+      </c>
+      <c r="Z9">
+        <v>3.231224190362888</v>
+      </c>
+      <c r="AA9">
+        <v>2.91416675752421</v>
+      </c>
+      <c r="AB9">
+        <v>2.282329007635939</v>
+      </c>
+      <c r="AC9">
+        <v>2.165126860914032</v>
+      </c>
+      <c r="AD9">
+        <v>1.546967357869322</v>
+      </c>
+      <c r="AE9">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AF9">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG9">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH9">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI9">
+        <v>3.527029372597262</v>
+      </c>
+      <c r="AJ9">
+        <v>2.866502569531212</v>
+      </c>
+      <c r="AK9">
+        <v>2.767459285111137</v>
+      </c>
+      <c r="AL9">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM9">
+        <v>1.965571383493028</v>
+      </c>
+      <c r="AN9">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO9">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C10">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D10">
-        <v>1.007331297478957</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.890143043427874</v>
       </c>
       <c r="G10">
-        <v>1.063879119723762</v>
+        <v>2.820447424555885</v>
       </c>
       <c r="H10">
-        <v>1.041651917138526</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I10">
-        <v>0.9888607813449267</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="L10">
-        <v>1.063946860443778</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M10">
-        <v>1.048363358869812</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N10">
-        <v>1.025056581907364</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O10">
-        <v>0.9680497855920074</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>2.827353739882428</v>
       </c>
       <c r="Q10">
-        <v>1.063879119723762</v>
+        <v>2.767438435195928</v>
       </c>
       <c r="R10">
-        <v>1.042220403815936</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S10">
-        <v>1.004862998135761</v>
+        <v>1.995943209714295</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="V10">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W10">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X10">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y10">
+        <v>3.677196244503448</v>
+      </c>
+      <c r="Z10">
+        <v>3.231339594413533</v>
+      </c>
+      <c r="AA10">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB10">
+        <v>2.282308685267795</v>
+      </c>
+      <c r="AC10">
+        <v>2.164958890025016</v>
+      </c>
+      <c r="AD10">
+        <v>1.546998140244499</v>
+      </c>
+      <c r="AE10">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AF10">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG10">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH10">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI10">
+        <v>3.527064367304324</v>
+      </c>
+      <c r="AJ10">
+        <v>2.866427092320811</v>
+      </c>
+      <c r="AK10">
+        <v>2.767534393972781</v>
+      </c>
+      <c r="AL10">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM10">
+        <v>1.972633366497731</v>
+      </c>
+      <c r="AN10">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO10">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="C11">
-        <v>1.043061760259288</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D11">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2.890109268398218</v>
       </c>
       <c r="G11">
-        <v>1.063879119723762</v>
+        <v>2.820447424555885</v>
       </c>
       <c r="H11">
-        <v>1.041651917138526</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I11">
-        <v>0.9888607813449256</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.520529969194051</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="L11">
-        <v>1.063879119723762</v>
+        <v>4.368985886551864</v>
       </c>
       <c r="M11">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N11">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O11">
-        <v>0.9686543630543183</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>2.82740526083151</v>
       </c>
       <c r="Q11">
-        <v>1.063879119723762</v>
+        <v>2.762520417972152</v>
       </c>
       <c r="R11">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S11">
-        <v>1.004630242898662</v>
+        <v>1.997494172472798</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="V11">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="W11">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X11">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y11">
+        <v>3.677182326125023</v>
+      </c>
+      <c r="Z11">
+        <v>3.231427726519166</v>
+      </c>
+      <c r="AA11">
+        <v>2.914148175146449</v>
+      </c>
+      <c r="AB11">
+        <v>2.282239290147855</v>
+      </c>
+      <c r="AC11">
+        <v>2.164637084032538</v>
+      </c>
+      <c r="AD11">
+        <v>1.547081020827955</v>
+      </c>
+      <c r="AE11">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AF11">
+        <v>4.368985886551864</v>
+      </c>
+      <c r="AG11">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH11">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI11">
+        <v>3.527085757098135</v>
+      </c>
+      <c r="AJ11">
+        <v>2.866918189434105</v>
+      </c>
+      <c r="AK11">
+        <v>2.767128605476642</v>
+      </c>
+      <c r="AL11">
+        <v>2.10885245486647</v>
+      </c>
+      <c r="AM11">
+        <v>1.965550286744026</v>
+      </c>
+      <c r="AN11">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO11">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D12">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.902026517658301</v>
+      </c>
+      <c r="G12">
+        <v>2.820395866134594</v>
       </c>
       <c r="H12">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I12">
-        <v>0.9888607813449256</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="M12">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N12">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O12">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q12">
+        <v>2.767394730579742</v>
       </c>
       <c r="R12">
-        <v>1.042220403815936</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S12">
-        <v>1.004630242898662</v>
+        <v>1.999664465107</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="W12">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X12">
+        <v>4.305608802370772</v>
+      </c>
+      <c r="Y12">
+        <v>3.67733741139443</v>
+      </c>
+      <c r="Z12">
+        <v>3.230959537927531</v>
+      </c>
+      <c r="AA12">
+        <v>2.913735509717907</v>
+      </c>
+      <c r="AB12">
+        <v>2.282239058795708</v>
+      </c>
+      <c r="AC12">
+        <v>2.164986180665341</v>
+      </c>
+      <c r="AD12">
+        <v>1.54692355965408</v>
+      </c>
+      <c r="AE12">
+        <v>1.525361022048251</v>
+      </c>
+      <c r="AG12">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH12">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI12">
+        <v>3.527127828138703</v>
+      </c>
+      <c r="AJ12">
+        <v>2.866358722693843</v>
+      </c>
+      <c r="AK12">
+        <v>2.771953754570515</v>
+      </c>
+      <c r="AL12">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM12">
+        <v>1.972290762035722</v>
+      </c>
+      <c r="AN12">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO12">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.04315442543658</v>
+        <v>4.354420475947173</v>
       </c>
       <c r="D13">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2.890455101341304</v>
+      </c>
+      <c r="G13">
+        <v>2.820344307434905</v>
       </c>
       <c r="H13">
-        <v>1.041651917138526</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I13">
-        <v>0.9885020446512783</v>
+        <v>2.097328602958155</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="M13">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N13">
-        <v>1.025193550437113</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O13">
-        <v>0.9692500660458905</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q13">
+        <v>2.764769156080202</v>
       </c>
       <c r="R13">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S13">
-        <v>1.004862998135761</v>
+        <v>1.997259632021477</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="W13">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X13">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y13">
+        <v>3.677217480302733</v>
+      </c>
+      <c r="Z13">
+        <v>3.231554817107327</v>
+      </c>
+      <c r="AA13">
+        <v>2.913329555645531</v>
+      </c>
+      <c r="AB13">
+        <v>2.2821788678037</v>
+      </c>
+      <c r="AC13">
+        <v>2.164594099400293</v>
+      </c>
+      <c r="AD13">
+        <v>1.546987056512969</v>
+      </c>
+      <c r="AE13">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AG13">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH13">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI13">
+        <v>3.527101152428635</v>
+      </c>
+      <c r="AJ13">
+        <v>2.866447792992111</v>
+      </c>
+      <c r="AK13">
+        <v>2.767406191632772</v>
+      </c>
+      <c r="AL13">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM13">
+        <v>1.965449312054472</v>
+      </c>
+      <c r="AN13">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO13">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.04315442543658</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D14">
-        <v>1.007547763174238</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.890025892920551</v>
+      </c>
+      <c r="G14">
+        <v>2.791331233028863</v>
       </c>
       <c r="H14">
-        <v>1.041651917138526</v>
+        <v>2.110427443772115</v>
       </c>
       <c r="I14">
-        <v>0.9888607813449256</v>
+        <v>2.057603888051581</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="M14">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N14">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O14">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q14">
+        <v>2.76741948139969</v>
       </c>
       <c r="R14">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S14">
-        <v>1.004862998135761</v>
+        <v>1.997877883389125</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="W14">
+        <v>4.35750058592973</v>
+      </c>
+      <c r="X14">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y14">
+        <v>3.665849354613424</v>
+      </c>
+      <c r="Z14">
+        <v>3.193987276938655</v>
+      </c>
+      <c r="AA14">
+        <v>2.84426575090546</v>
+      </c>
+      <c r="AB14">
+        <v>2.25557623839486</v>
+      </c>
+      <c r="AC14">
+        <v>2.08505402161869</v>
+      </c>
+      <c r="AD14">
+        <v>1.514659582475297</v>
+      </c>
+      <c r="AE14">
+        <v>1.411798541089573</v>
+      </c>
+      <c r="AG14">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH14">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI14">
+        <v>3.524329099656566</v>
+      </c>
+      <c r="AJ14">
+        <v>2.80824403341056</v>
+      </c>
+      <c r="AK14">
+        <v>2.680622445173215</v>
+      </c>
+      <c r="AL14">
+        <v>0.4703432914361692</v>
+      </c>
+      <c r="AM14">
+        <v>0.3319357146695332</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.043061760259288</v>
+        <v>4.354310450762908</v>
       </c>
       <c r="D15">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.901912512698176</v>
+      </c>
+      <c r="G15">
+        <v>2.820447424555885</v>
       </c>
       <c r="H15">
-        <v>1.041651917138526</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I15">
-        <v>0.9888607813449256</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="M15">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N15">
-        <v>1.025330064300367</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O15">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q15">
+        <v>2.761297058998475</v>
       </c>
       <c r="R15">
-        <v>1.042220403815936</v>
+        <v>2.104470852389523</v>
       </c>
       <c r="S15">
-        <v>1.004630242898662</v>
+        <v>2.004638740816997</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="W15">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X15">
+        <v>4.305608802370772</v>
+      </c>
+      <c r="Y15">
+        <v>3.677204096016933</v>
+      </c>
+      <c r="Z15">
+        <v>3.23089775809055</v>
+      </c>
+      <c r="AA15">
+        <v>2.913881338245316</v>
+      </c>
+      <c r="AB15">
+        <v>2.282291034183948</v>
+      </c>
+      <c r="AC15">
+        <v>2.164701047606664</v>
+      </c>
+      <c r="AD15">
+        <v>1.546947542678335</v>
+      </c>
+      <c r="AE15">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AG15">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH15">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI15">
+        <v>3.527064571862362</v>
+      </c>
+      <c r="AJ15">
+        <v>2.86646576552923</v>
+      </c>
+      <c r="AK15">
+        <v>2.767432998295992</v>
+      </c>
+      <c r="AL15">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM15">
+        <v>1.964972176868555</v>
+      </c>
+      <c r="AN15">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO15">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.042220403815936</v>
+        <v>4.310049540189667</v>
       </c>
       <c r="D16">
-        <v>1.004160297575708</v>
+        <v>4.192809526294117</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>3.502895360619388</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.825457842178732</v>
+      </c>
+      <c r="G16">
+        <v>2.513896093784514</v>
       </c>
       <c r="H16">
-        <v>1.041747096787062</v>
+        <v>2.100432919569535</v>
       </c>
       <c r="I16">
-        <v>0.989216126542858</v>
+        <v>1.706607910161146</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.221525029529051</v>
       </c>
       <c r="M16">
-        <v>1.0425959951379</v>
+        <v>4.353540233383545</v>
       </c>
       <c r="N16">
-        <v>1.016865951760459</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O16">
-        <v>0.9122434990573892</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q16">
+        <v>2.76734313470109</v>
       </c>
       <c r="R16">
-        <v>1.04184210244375</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S16">
-        <v>1.003202119947885</v>
+        <v>2.004422391401147</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>1.514831264290892</v>
       </c>
       <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="W16">
+        <v>4.003599970093256</v>
+      </c>
+      <c r="X16">
+        <v>0.951719776412685</v>
+      </c>
+      <c r="Y16">
+        <v>0.4720806530010984</v>
+      </c>
+      <c r="Z16">
+        <v>0.2397152315185038</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.7733876461959018</v>
+      </c>
+      <c r="AE16">
+        <v>0.6999204053490039</v>
+      </c>
+      <c r="AG16">
+        <v>4.311880635480208</v>
+      </c>
+      <c r="AH16">
+        <v>4.174069201839584</v>
+      </c>
+      <c r="AI16">
+        <v>1.654469258449123</v>
+      </c>
+      <c r="AJ16">
+        <v>0.8287446483247702</v>
+      </c>
+      <c r="AK16">
+        <v>0.5814175575937355</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.042968933607929</v>
+        <v>4.353925351062736</v>
       </c>
       <c r="D17">
-        <v>1.00689454900391</v>
+        <v>4.208363855423071</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3.525120851863695</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.851997127435104</v>
+      </c>
+      <c r="G17">
+        <v>2.816940817105109</v>
       </c>
       <c r="H17">
-        <v>1.041747096787062</v>
+        <v>2.107326473341803</v>
       </c>
       <c r="I17">
-        <v>0.989216126542858</v>
+        <v>2.094273276233185</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1.517794822179061</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.505390116012181</v>
       </c>
       <c r="M17">
-        <v>1.047769675776071</v>
+        <v>4.353540233383545</v>
       </c>
       <c r="N17">
-        <v>1.02422501529636</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O17">
-        <v>0.9642216998946141</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q17">
+        <v>2.763300335030979</v>
       </c>
       <c r="R17">
-        <v>1.042314553449994</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S17">
-        <v>1.004630242898662</v>
+        <v>1.997079646462355</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="W17">
+        <v>4.287495714245133</v>
+      </c>
+      <c r="X17">
+        <v>4.158683565013397</v>
+      </c>
+      <c r="Y17">
+        <v>3.519054127163214</v>
+      </c>
+      <c r="Z17">
+        <v>3.193447161555442</v>
+      </c>
+      <c r="AA17">
+        <v>2.803314657778556</v>
+      </c>
+      <c r="AB17">
+        <v>2.115353560785506</v>
+      </c>
+      <c r="AC17">
+        <v>2.084460965847463</v>
+      </c>
+      <c r="AD17">
+        <v>1.52310439969527</v>
+      </c>
+      <c r="AE17">
+        <v>1.498089087397382</v>
+      </c>
+      <c r="AG17">
+        <v>4.345978491634806</v>
+      </c>
+      <c r="AH17">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI17">
+        <v>3.533069225174075</v>
+      </c>
+      <c r="AJ17">
+        <v>2.902728626209327</v>
+      </c>
+      <c r="AK17">
+        <v>2.76530928399625</v>
+      </c>
+      <c r="AL17">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM17">
+        <v>1.963700527120548</v>
+      </c>
+      <c r="AN17">
+        <v>1.519162448997618</v>
+      </c>
+      <c r="AO17">
+        <v>1.506986805537321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.04184210244375</v>
+        <v>4.270041643175901</v>
       </c>
       <c r="D18">
-        <v>1.002958647398784</v>
+        <v>4.149217522439079</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>3.462319332188629</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.824639649690045</v>
+      </c>
+      <c r="G18">
+        <v>2.449121056852237</v>
       </c>
       <c r="H18">
-        <v>1.041651917138526</v>
+        <v>2.103289002760418</v>
       </c>
       <c r="I18">
-        <v>0.989216126542858</v>
+        <v>1.727589791685001</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1.51396489865146</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.38065484839041</v>
       </c>
       <c r="M18">
-        <v>1.0425959951379</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N18">
-        <v>1.0214731421349</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O18">
-        <v>0.9536370775519365</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q18">
+        <v>2.75971141629394</v>
       </c>
       <c r="R18">
-        <v>1.04184210244375</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S18">
-        <v>1.004862998135761</v>
+        <v>1.994020665631324</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="W18">
+        <v>4.129728006476443</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>4.332812297756345</v>
+      </c>
+      <c r="AH18">
+        <v>4.135792896812471</v>
+      </c>
+      <c r="AI18">
+        <v>1.387532895243196</v>
+      </c>
+      <c r="AJ18">
+        <v>0.6910089462117113</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D19">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3.524904972408138</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>2.860301853693487</v>
+      </c>
+      <c r="G19">
+        <v>2.74494311676285</v>
       </c>
       <c r="H19">
-        <v>1.041651917138526</v>
+        <v>2.10708032782101</v>
       </c>
       <c r="I19">
-        <v>0.989216126542858</v>
+        <v>2.033818021097358</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.512824878369396</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.499275714615436</v>
       </c>
       <c r="M19">
-        <v>1.048278911584301</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N19">
-        <v>1.025193550437113</v>
+        <v>4.205029509095937</v>
       </c>
       <c r="O19">
-        <v>0.9491265277777781</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q19">
+        <v>2.76106699296388</v>
       </c>
       <c r="R19">
-        <v>1.042314553449994</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S19">
-        <v>1.004862998135761</v>
+        <v>1.997671137799568</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>1.502424445078726</v>
+      </c>
+      <c r="W19">
+        <v>4.321220037305512</v>
+      </c>
+      <c r="X19">
+        <v>4.216981830666489</v>
+      </c>
+      <c r="Y19">
+        <v>3.440896246068424</v>
+      </c>
+      <c r="Z19">
+        <v>3.098896510226465</v>
+      </c>
+      <c r="AA19">
+        <v>2.574967282815929</v>
+      </c>
+      <c r="AB19">
+        <v>2.01394573716345</v>
+      </c>
+      <c r="AC19">
+        <v>2.003404475508706</v>
+      </c>
+      <c r="AD19">
+        <v>1.408831591789764</v>
+      </c>
+      <c r="AE19">
+        <v>1.421695570208137</v>
+      </c>
+      <c r="AG19">
+        <v>4.345923379507673</v>
+      </c>
+      <c r="AH19">
+        <v>4.173140941539373</v>
+      </c>
+      <c r="AI19">
+        <v>3.48536542869688</v>
+      </c>
+      <c r="AJ19">
+        <v>2.82518405847256</v>
+      </c>
+      <c r="AK19">
+        <v>2.654225136207911</v>
+      </c>
+      <c r="AL19">
+        <v>2.169535379334969</v>
+      </c>
+      <c r="AM19">
+        <v>2.017448676938707</v>
+      </c>
+      <c r="AN19">
+        <v>1.526330442030348</v>
+      </c>
+      <c r="AO19">
+        <v>1.497313171563195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.04315442543658</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D20">
-        <v>1.007547763174238</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.525822422422836</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G20">
+        <v>2.780876922234219</v>
       </c>
       <c r="H20">
-        <v>1.041651917138526</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I20">
-        <v>0.9888607813449256</v>
+        <v>2.01901322707649</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="M20">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N20">
-        <v>1.025330064300367</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O20">
-        <v>0.9686543630543183</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q20">
+        <v>2.767090102080457</v>
       </c>
       <c r="R20">
-        <v>1.042220403815936</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S20">
-        <v>1.004630242898662</v>
+        <v>1.997568486415192</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="W20">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X20">
+        <v>4.235748238102348</v>
+      </c>
+      <c r="Y20">
+        <v>1.799874942556945</v>
+      </c>
+      <c r="Z20">
+        <v>1.565498324787769</v>
+      </c>
+      <c r="AA20">
+        <v>1.220229415300642</v>
+      </c>
+      <c r="AB20">
+        <v>0.6117167942342974</v>
+      </c>
+      <c r="AC20">
+        <v>0.4975584404050231</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>4.353870335352307</v>
+      </c>
+      <c r="AH20">
+        <v>4.186103945754448</v>
+      </c>
+      <c r="AI20">
+        <v>1.696552111724235</v>
+      </c>
+      <c r="AJ20">
+        <v>1.165113466175903</v>
+      </c>
+      <c r="AK20">
+        <v>0.1084014153365662</v>
+      </c>
+      <c r="AL20">
+        <v>0.4196333319518255</v>
+      </c>
+      <c r="AM20">
+        <v>1.878218668519504</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.043061760259288</v>
+        <v>4.354365463538436</v>
       </c>
       <c r="D21">
-        <v>1.007331297478956</v>
+        <v>4.208872359766458</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2.890531217289582</v>
+      </c>
+      <c r="G21">
+        <v>2.817098957401387</v>
       </c>
       <c r="H21">
-        <v>1.041651917138526</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I21">
-        <v>0.9888607813449256</v>
+        <v>2.094257263418386</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.520712297171943</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="M21">
-        <v>1.048194343718027</v>
+        <v>4.353485215104238</v>
       </c>
       <c r="N21">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O21">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q21">
+        <v>2.760737427482311</v>
       </c>
       <c r="R21">
-        <v>1.042220403815936</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S21">
-        <v>1.004862998135761</v>
+        <v>2.004637821857898</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="W21">
+        <v>4.357555577457716</v>
+      </c>
+      <c r="X21">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y21">
+        <v>3.672670467687783</v>
+      </c>
+      <c r="Z21">
+        <v>3.20669406763262</v>
+      </c>
+      <c r="AA21">
+        <v>2.874210203007468</v>
+      </c>
+      <c r="AB21">
+        <v>2.27802970913821</v>
+      </c>
+      <c r="AC21">
+        <v>2.131489566771874</v>
+      </c>
+      <c r="AD21">
+        <v>1.539304468473303</v>
+      </c>
+      <c r="AE21">
+        <v>1.45833322456107</v>
+      </c>
+      <c r="AG21">
+        <v>4.353815319274944</v>
+      </c>
+      <c r="AH21">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI21">
+        <v>3.514000002484418</v>
+      </c>
+      <c r="AJ21">
+        <v>2.851275205381552</v>
+      </c>
+      <c r="AK21">
+        <v>2.739539441829953</v>
+      </c>
+      <c r="AL21">
+        <v>1.974265485671655</v>
+      </c>
+      <c r="AM21">
+        <v>1.848641345876984</v>
+      </c>
+      <c r="AN21">
+        <v>1.318047105764522</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="D22">
-        <v>0.9906047807445099</v>
+        <v>3.852268932323359</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3.160485058955484</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>2.572905693456056</v>
+      </c>
+      <c r="G22">
+        <v>2.250538523770722</v>
+      </c>
+      <c r="H22">
+        <v>1.937234393568785</v>
       </c>
       <c r="I22">
-        <v>0.9885020446512797</v>
+        <v>1.540144580056266</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.448704760706233</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.215792464094556</v>
       </c>
       <c r="N22">
-        <v>0.9938662007457995</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q22">
+        <v>2.75900456830934</v>
+      </c>
+      <c r="R22">
+        <v>2.104520093411275</v>
       </c>
       <c r="S22">
-        <v>0.9906047807445099</v>
+        <v>2.006735159564628</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="X22">
+        <v>0.7407958747546941</v>
+      </c>
+      <c r="Y22">
+        <v>0.123659205061325</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1.72408513439103</v>
+      </c>
+      <c r="AI22">
+        <v>1.048300944412224</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="D23">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.890007389107182</v>
+      </c>
+      <c r="G23">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H23">
+        <v>2.110575087647683</v>
       </c>
       <c r="I23">
-        <v>0.9888607813449256</v>
+        <v>2.097328602958155</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="N23">
-        <v>1.025330064300367</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O23">
-        <v>0.9680497855920076</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q23">
+        <v>2.757785053253758</v>
+      </c>
+      <c r="R23">
+        <v>2.104470852389523</v>
       </c>
       <c r="S23">
-        <v>1.004862998135761</v>
+        <v>1.993599641515188</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="X23">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y23">
+        <v>3.677171905785213</v>
+      </c>
+      <c r="Z23">
+        <v>3.231512210357734</v>
+      </c>
+      <c r="AA23">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB23">
+        <v>2.282254493992256</v>
+      </c>
+      <c r="AC23">
+        <v>2.165127627922249</v>
+      </c>
+      <c r="AD23">
+        <v>1.547055610698249</v>
+      </c>
+      <c r="AE23">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AH23">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI23">
+        <v>3.527112910094099</v>
+      </c>
+      <c r="AJ23">
+        <v>2.866474773964023</v>
+      </c>
+      <c r="AK23">
+        <v>2.767409566539299</v>
+      </c>
+      <c r="AL23">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM23">
+        <v>1.965813381461644</v>
+      </c>
+      <c r="AN23">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO23">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="D24">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>2.901953780492716</v>
+      </c>
+      <c r="G24">
+        <v>2.766692773215484</v>
+      </c>
+      <c r="H24">
+        <v>2.110575087647683</v>
       </c>
       <c r="I24">
-        <v>0.9888607813449256</v>
+        <v>2.011058224411396</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="N24">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O24">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q24">
+        <v>2.764705841720609</v>
+      </c>
+      <c r="R24">
+        <v>2.104520093411275</v>
       </c>
       <c r="S24">
-        <v>1.004630242898662</v>
+        <v>1.999743481254926</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="X24">
+        <v>4.248229690051305</v>
+      </c>
+      <c r="Y24">
+        <v>1.8576178544589</v>
+      </c>
+      <c r="Z24">
+        <v>1.552668882719124</v>
+      </c>
+      <c r="AA24">
+        <v>1.122436797566568</v>
+      </c>
+      <c r="AB24">
+        <v>0.6151324575503778</v>
+      </c>
+      <c r="AC24">
+        <v>0.5296029647316123</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>4.153456168095641</v>
+      </c>
+      <c r="AI24">
+        <v>2.994368555000456</v>
+      </c>
+      <c r="AJ24">
+        <v>1.017606940383605</v>
+      </c>
+      <c r="AK24">
+        <v>0.8213483985091199</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="D25">
-        <v>0.9906047807445088</v>
+        <v>3.854993629165308</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>3.179307214140015</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2.572851867070444</v>
+      </c>
+      <c r="G25">
+        <v>2.4662796968049</v>
+      </c>
+      <c r="H25">
+        <v>1.961322506075627</v>
       </c>
       <c r="I25">
-        <v>0.9885020446512783</v>
+        <v>1.797756092286613</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.453210378997069</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.347371238043594</v>
       </c>
       <c r="N25">
-        <v>0.9938662007457983</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q25">
+        <v>2.759519218386837</v>
+      </c>
+      <c r="R25">
+        <v>2.104520093411275</v>
       </c>
       <c r="S25">
-        <v>0.9906047807445088</v>
+        <v>2.002449757735662</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>1.502424445078726</v>
+      </c>
+      <c r="X25">
+        <v>3.617210375389097</v>
+      </c>
+      <c r="Y25">
+        <v>2.906586446962443</v>
+      </c>
+      <c r="Z25">
+        <v>2.597602739921027</v>
+      </c>
+      <c r="AA25">
+        <v>2.252612141024613</v>
+      </c>
+      <c r="AB25">
+        <v>1.672621228622607</v>
+      </c>
+      <c r="AC25">
+        <v>1.668708469599962</v>
+      </c>
+      <c r="AD25">
+        <v>1.118055016784594</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>3.909458491548861</v>
+      </c>
+      <c r="AI25">
+        <v>3.246031017990387</v>
+      </c>
+      <c r="AJ25">
+        <v>0.7513480425099426</v>
+      </c>
+      <c r="AK25">
+        <v>0.5225252686570436</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0.04147593124249949</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="D26">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G26">
+        <v>2.809076789153777</v>
+      </c>
+      <c r="H26">
+        <v>2.110476658613093</v>
       </c>
       <c r="I26">
-        <v>0.9888607813449256</v>
+        <v>2.048303931305905</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="N26">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O26">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q26">
+        <v>2.760766561178128</v>
+      </c>
+      <c r="R26">
+        <v>2.104470852389523</v>
       </c>
       <c r="S26">
-        <v>1.004862998135761</v>
+        <v>1.995073892645231</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="X26">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y26">
+        <v>3.662795704763489</v>
+      </c>
+      <c r="Z26">
+        <v>3.189029151637032</v>
+      </c>
+      <c r="AA26">
+        <v>2.84431715952172</v>
+      </c>
+      <c r="AB26">
+        <v>2.277104942257688</v>
+      </c>
+      <c r="AC26">
+        <v>2.084771265684776</v>
+      </c>
+      <c r="AD26">
+        <v>1.554023393453096</v>
+      </c>
+      <c r="AE26">
+        <v>1.454428473770624</v>
+      </c>
+      <c r="AH26">
+        <v>4.204993801499107</v>
+      </c>
+      <c r="AI26">
+        <v>3.527928803798036</v>
+      </c>
+      <c r="AJ26">
+        <v>2.866152994011363</v>
+      </c>
+      <c r="AK26">
+        <v>2.633731116875356</v>
+      </c>
+      <c r="AL26">
+        <v>2.06159981038389</v>
+      </c>
+      <c r="AM26">
+        <v>1.936516582367151</v>
+      </c>
+      <c r="AN26">
+        <v>1.333369333736554</v>
+      </c>
+      <c r="AO26">
+        <v>1.466407508820452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="D27">
-        <v>1.007331297478956</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.890262048057761</v>
+      </c>
+      <c r="G27">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H27">
+        <v>2.110476658613093</v>
       </c>
       <c r="I27">
-        <v>0.9885020446512783</v>
+        <v>2.097328602958155</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="N27">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O27">
-        <v>0.9686543630543183</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q27">
+        <v>2.767337304664955</v>
+      </c>
+      <c r="R27">
+        <v>2.104372369695162</v>
       </c>
       <c r="S27">
-        <v>1.004862998135761</v>
+        <v>1.997162908283868</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="X27">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y27">
+        <v>3.677253955331075</v>
+      </c>
+      <c r="Z27">
+        <v>3.231655125070523</v>
+      </c>
+      <c r="AA27">
+        <v>2.913938362597551</v>
+      </c>
+      <c r="AB27">
+        <v>2.28219599673064</v>
+      </c>
+      <c r="AC27">
+        <v>2.164955848703569</v>
+      </c>
+      <c r="AD27">
+        <v>1.546958876219512</v>
+      </c>
+      <c r="AE27">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AH27">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI27">
+        <v>3.527044459823486</v>
+      </c>
+      <c r="AJ27">
+        <v>2.866404348116453</v>
+      </c>
+      <c r="AK27">
+        <v>2.770249567559459</v>
+      </c>
+      <c r="AL27">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM27">
+        <v>1.965289529984534</v>
+      </c>
+      <c r="AN27">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO27">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="D28">
-        <v>1.007547763174238</v>
+        <v>4.208815860913093</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2.890432844740726</v>
+      </c>
+      <c r="G28">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H28">
+        <v>2.110476658613093</v>
       </c>
       <c r="I28">
-        <v>0.9888607813449256</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="N28">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O28">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q28">
+        <v>2.764529393015717</v>
+      </c>
+      <c r="R28">
+        <v>2.104372369695162</v>
       </c>
       <c r="S28">
-        <v>1.004630242898662</v>
+        <v>1.999940363763299</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="X28">
+        <v>4.305608802370772</v>
+      </c>
+      <c r="Y28">
+        <v>3.677184682939895</v>
+      </c>
+      <c r="Z28">
+        <v>3.227306353212112</v>
+      </c>
+      <c r="AA28">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB28">
+        <v>2.282347178311733</v>
+      </c>
+      <c r="AC28">
+        <v>2.164750615003394</v>
+      </c>
+      <c r="AD28">
+        <v>1.546915522027731</v>
+      </c>
+      <c r="AE28">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AH28">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI28">
+        <v>3.527116889573092</v>
+      </c>
+      <c r="AJ28">
+        <v>2.866455969606075</v>
+      </c>
+      <c r="AK28">
+        <v>2.767490754059715</v>
+      </c>
+      <c r="AL28">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM28">
+        <v>1.965295571083255</v>
+      </c>
+      <c r="AN28">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO28">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="D29">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2.889938681243798</v>
+      </c>
+      <c r="G29">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H29">
+        <v>2.110525873238279</v>
       </c>
       <c r="I29">
-        <v>0.9885020446512783</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>1.508537734741536</v>
       </c>
       <c r="N29">
-        <v>1.025193550437113</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O29">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q29">
+        <v>2.764292188873349</v>
+      </c>
+      <c r="R29">
+        <v>2.104421611150824</v>
       </c>
       <c r="S29">
-        <v>1.004862998135761</v>
+        <v>1.997820778429603</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="X29">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y29">
+        <v>3.677065048319203</v>
+      </c>
+      <c r="Z29">
+        <v>3.231798200813094</v>
+      </c>
+      <c r="AA29">
+        <v>2.913561812190725</v>
+      </c>
+      <c r="AB29">
+        <v>2.282329409007489</v>
+      </c>
+      <c r="AC29">
+        <v>2.164817980420547</v>
+      </c>
+      <c r="AD29">
+        <v>1.546883420284425</v>
+      </c>
+      <c r="AE29">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AH29">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI29">
+        <v>3.527069570932215</v>
+      </c>
+      <c r="AJ29">
+        <v>2.866434604346875</v>
+      </c>
+      <c r="AK29">
+        <v>2.767606796231773</v>
+      </c>
+      <c r="AL29">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM29">
+        <v>1.972612672799218</v>
+      </c>
+      <c r="AN29">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO29">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="D30">
-        <v>1.007331297478956</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>2.902074361279274</v>
+      </c>
+      <c r="G30">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H30">
+        <v>2.110575087647683</v>
       </c>
       <c r="I30">
-        <v>0.9888607813449256</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.50840089361606</v>
       </c>
       <c r="N30">
-        <v>1.025056581907364</v>
+        <v>4.204972982508084</v>
       </c>
       <c r="O30">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q30">
+        <v>2.764651014639461</v>
+      </c>
+      <c r="R30">
+        <v>2.104421611150824</v>
       </c>
       <c r="S30">
-        <v>1.004630242898662</v>
+        <v>1.997140866466206</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="X30">
+        <v>4.305719850526982</v>
+      </c>
+      <c r="Y30">
+        <v>3.677157652448939</v>
+      </c>
+      <c r="Z30">
+        <v>3.231231190016969</v>
+      </c>
+      <c r="AA30">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB30">
+        <v>2.282386646813957</v>
+      </c>
+      <c r="AC30">
+        <v>2.164701282896415</v>
+      </c>
+      <c r="AD30">
+        <v>1.547043757716951</v>
+      </c>
+      <c r="AE30">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AH30">
+        <v>4.208081338751587</v>
+      </c>
+      <c r="AI30">
+        <v>3.527126614594216</v>
+      </c>
+      <c r="AJ30">
+        <v>2.866648128542467</v>
+      </c>
+      <c r="AK30">
+        <v>2.767488912695669</v>
+      </c>
+      <c r="AL30">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM30">
+        <v>1.965487282273917</v>
+      </c>
+      <c r="AN30">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO30">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="D31">
-        <v>1.007113564580006</v>
+        <v>4.208759361652464</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2.890109268398218</v>
+      </c>
+      <c r="G31">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H31">
+        <v>2.110476658613093</v>
       </c>
       <c r="I31">
-        <v>0.9888607813449256</v>
+        <v>2.097377875537593</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1.520940204482798</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="N31">
-        <v>1.025193550437113</v>
+        <v>4.204916455511758</v>
       </c>
       <c r="O31">
-        <v>0.9680497855920076</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q31">
+        <v>2.761887562623478</v>
+      </c>
+      <c r="R31">
+        <v>2.104372369695162</v>
       </c>
       <c r="S31">
-        <v>1.004630242898662</v>
+        <v>1.997727100408713</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="X31">
+        <v>4.305664326639549</v>
+      </c>
+      <c r="Y31">
+        <v>3.677151026712056</v>
+      </c>
+      <c r="Z31">
+        <v>3.23125956446271</v>
+      </c>
+      <c r="AA31">
+        <v>2.91354967846849</v>
+      </c>
+      <c r="AB31">
+        <v>2.282241501386322</v>
+      </c>
+      <c r="AC31">
+        <v>2.164857175689936</v>
+      </c>
+      <c r="AD31">
+        <v>1.546947892667958</v>
+      </c>
+      <c r="AE31">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AH31">
+        <v>4.20813784290081</v>
+      </c>
+      <c r="AI31">
+        <v>3.527100103995877</v>
+      </c>
+      <c r="AJ31">
+        <v>2.866679020259734</v>
+      </c>
+      <c r="AK31">
+        <v>2.770069162194086</v>
+      </c>
+      <c r="AL31">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM31">
+        <v>1.972645225533169</v>
+      </c>
+      <c r="AN31">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO31">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2.889621567839874</v>
+      </c>
+      <c r="G32">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H32">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I32">
+        <v>2.097427147898701</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="O32">
-        <v>0.9674360913562696</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q32">
+        <v>2.767728642992104</v>
+      </c>
+      <c r="R32">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S32">
+        <v>1.997322426213458</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y32">
+        <v>3.680764228743304</v>
+      </c>
+      <c r="Z32">
+        <v>3.231522342706659</v>
+      </c>
+      <c r="AA32">
+        <v>2.913836936667091</v>
+      </c>
+      <c r="AB32">
+        <v>2.28226312323866</v>
+      </c>
+      <c r="AC32">
+        <v>2.197360043641476</v>
+      </c>
+      <c r="AD32">
+        <v>1.546874277962855</v>
+      </c>
+      <c r="AE32">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AI32">
+        <v>3.5271163414182</v>
+      </c>
+      <c r="AJ32">
+        <v>2.866430919038785</v>
+      </c>
+      <c r="AK32">
+        <v>2.767434950997133</v>
+      </c>
+      <c r="AL32">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM32">
+        <v>1.972730975798107</v>
+      </c>
+      <c r="AN32">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO32">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3.525768457501783</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>2.890007389107182</v>
+      </c>
+      <c r="G33">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H33">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I33">
+        <v>2.097476420041489</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="O33">
-        <v>0.9686543630543183</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q33">
+        <v>2.758771404608086</v>
+      </c>
+      <c r="R33">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S33">
+        <v>1.999820965666385</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="Y33">
+        <v>3.677186659131849</v>
+      </c>
+      <c r="Z33">
+        <v>3.231027851107704</v>
+      </c>
+      <c r="AA33">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB33">
+        <v>2.282318540558903</v>
+      </c>
+      <c r="AC33">
+        <v>2.164800719264538</v>
+      </c>
+      <c r="AD33">
+        <v>1.54703126095862</v>
+      </c>
+      <c r="AE33">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AI33">
+        <v>3.527114194581743</v>
+      </c>
+      <c r="AJ33">
+        <v>2.866461768784777</v>
+      </c>
+      <c r="AK33">
+        <v>2.770070400033079</v>
+      </c>
+      <c r="AL33">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM33">
+        <v>1.972730612150141</v>
+      </c>
+      <c r="AN33">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO33">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2.890160207652622</v>
+      </c>
+      <c r="G34">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H34">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I34">
+        <v>2.097328602958155</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="O34">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q34">
+        <v>2.767349055765809</v>
+      </c>
+      <c r="R34">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S34">
+        <v>1.995868299943824</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Y34">
+        <v>3.67569646335849</v>
+      </c>
+      <c r="Z34">
+        <v>3.224865241607676</v>
+      </c>
+      <c r="AA34">
+        <v>2.91387320415829</v>
+      </c>
+      <c r="AB34">
+        <v>2.282213591665219</v>
+      </c>
+      <c r="AC34">
+        <v>2.164745250630582</v>
+      </c>
+      <c r="AD34">
+        <v>1.54470193003007</v>
+      </c>
+      <c r="AE34">
+        <v>1.52508760161246</v>
+      </c>
+      <c r="AI34">
+        <v>3.527051424222742</v>
+      </c>
+      <c r="AJ34">
+        <v>2.866774136957443</v>
+      </c>
+      <c r="AK34">
+        <v>2.769780122424375</v>
+      </c>
+      <c r="AL34">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM34">
+        <v>1.972131536823484</v>
+      </c>
+      <c r="AN34">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO34">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2.890109268398218</v>
+      </c>
+      <c r="G35">
+        <v>2.586433112863178</v>
+      </c>
+      <c r="H35">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I35">
+        <v>1.775519069892044</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1.487274263842334</v>
       </c>
       <c r="O35">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q35">
+        <v>2.767352679622721</v>
+      </c>
+      <c r="R35">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S35">
+        <v>1.995051832583133</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y35">
+        <v>0.2015849627962334</v>
+      </c>
+      <c r="Z35">
+        <v>0.04084277091346511</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>1.356899286453537</v>
+      </c>
+      <c r="AJ35">
+        <v>0.7270286975597224</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3.507766528356675</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>2.821954642408977</v>
+      </c>
+      <c r="G36">
+        <v>2.472417196692299</v>
+      </c>
+      <c r="H36">
+        <v>2.093188925861211</v>
+      </c>
+      <c r="I36">
+        <v>1.838769799736102</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.501374932043137</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1.424659835422897</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q36">
+        <v>2.763126007198419</v>
+      </c>
+      <c r="R36">
+        <v>2.104569334216085</v>
+      </c>
+      <c r="S36">
+        <v>2.002241477172783</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="Y36">
+        <v>0.9924390720057219</v>
+      </c>
+      <c r="Z36">
+        <v>0.8123161476584548</v>
+      </c>
+      <c r="AA36">
+        <v>0.4182264368730557</v>
+      </c>
+      <c r="AB36">
+        <v>0.0008496531488362269</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>1.595982319344845</v>
+      </c>
+      <c r="AJ36">
+        <v>0.9390441260853772</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.525660526637306</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G37">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H37">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I37">
+        <v>2.097328602958155</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1.5206211334196</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="O37">
-        <v>0.9680497855920076</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q37">
+        <v>2.764220574338225</v>
+      </c>
+      <c r="R37">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S37">
+        <v>2.004287568333384</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y37">
+        <v>3.677146000841762</v>
+      </c>
+      <c r="Z37">
+        <v>3.231470718197024</v>
+      </c>
+      <c r="AA37">
+        <v>2.913376686458748</v>
+      </c>
+      <c r="AB37">
+        <v>2.282477294258444</v>
+      </c>
+      <c r="AC37">
+        <v>2.165121989553141</v>
+      </c>
+      <c r="AD37">
+        <v>1.546826229193136</v>
+      </c>
+      <c r="AE37">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AI37">
+        <v>3.527044629934268</v>
+      </c>
+      <c r="AJ37">
+        <v>2.866786953638523</v>
+      </c>
+      <c r="AK37">
+        <v>2.770421059127695</v>
+      </c>
+      <c r="AL37">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM37">
+        <v>1.972523608790535</v>
+      </c>
+      <c r="AN37">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO37">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>2.889336704699189</v>
+      </c>
+      <c r="G38">
+        <v>2.789906831253761</v>
+      </c>
+      <c r="H38">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I38">
+        <v>2.037603679477992</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="O38">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q38">
+        <v>2.76775967505155</v>
+      </c>
+      <c r="R38">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S38">
+        <v>1.997282444020824</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y38">
+        <v>3.614178746453991</v>
+      </c>
+      <c r="Z38">
+        <v>3.18758918872665</v>
+      </c>
+      <c r="AA38">
+        <v>2.844214342018183</v>
+      </c>
+      <c r="AB38">
+        <v>2.187828698156585</v>
+      </c>
+      <c r="AC38">
+        <v>2.084724312426661</v>
+      </c>
+      <c r="AD38">
+        <v>1.482182708273776</v>
+      </c>
+      <c r="AE38">
+        <v>1.411845214066584</v>
+      </c>
+      <c r="AI38">
+        <v>3.50876567827745</v>
+      </c>
+      <c r="AJ38">
+        <v>2.776300722275575</v>
+      </c>
+      <c r="AK38">
+        <v>2.666311600377638</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G39">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H39">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I39">
+        <v>2.097377875537593</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="O39">
-        <v>0.9674360913562696</v>
+        <v>3.521558142529205</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q39">
+        <v>2.764267554923236</v>
+      </c>
+      <c r="R39">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S39">
+        <v>1.997503843318737</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1.514603277498504</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="Y39">
+        <v>2.246764833230508</v>
+      </c>
+      <c r="Z39">
+        <v>1.801463864068574</v>
+      </c>
+      <c r="AA39">
+        <v>1.489795900058944</v>
+      </c>
+      <c r="AB39">
+        <v>0.8606599565282864</v>
+      </c>
+      <c r="AC39">
+        <v>0.7428713875889399</v>
+      </c>
+      <c r="AD39">
+        <v>0.1256775639195034</v>
+      </c>
+      <c r="AE39">
+        <v>0.09951689512239636</v>
+      </c>
+      <c r="AI39">
+        <v>3.508349371148642</v>
+      </c>
+      <c r="AJ39">
+        <v>2.852145567592171</v>
+      </c>
+      <c r="AK39">
+        <v>2.760798278265648</v>
+      </c>
+      <c r="AL39">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM39">
+        <v>1.947125311910303</v>
+      </c>
+      <c r="AN39">
+        <v>1.495875180483953</v>
+      </c>
+      <c r="AO39">
+        <v>1.388265583100641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>3.525714492239945</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2.890069444516787</v>
+      </c>
+      <c r="G40">
+        <v>2.625595815515186</v>
+      </c>
+      <c r="H40">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I40">
+        <v>1.811444622208602</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1.487349813207926</v>
       </c>
       <c r="O40">
-        <v>0.9680497855920076</v>
+        <v>3.521612134076021</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q40">
+        <v>2.764263319900187</v>
+      </c>
+      <c r="R40">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S40">
+        <v>2.002581818010622</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Y40">
+        <v>0.3655123973972407</v>
+      </c>
+      <c r="Z40">
+        <v>0.08648649246019069</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0.3741069510092241</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3.458886039449933</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>2.816229844612927</v>
+      </c>
+      <c r="G41">
+        <v>2.71165442346204</v>
+      </c>
+      <c r="H41">
+        <v>2.098067668729465</v>
+      </c>
+      <c r="I41">
+        <v>2.039751006509714</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1.509085088472034</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>1.496993666644186</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>3.521666125280912</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q41">
+        <v>2.762686750135053</v>
+      </c>
+      <c r="R41">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S41">
+        <v>1.990890448180694</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1.514785667170373</v>
       </c>
       <c r="U41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Y41">
+        <v>3.289049224849748</v>
+      </c>
+      <c r="Z41">
+        <v>2.948213643719761</v>
+      </c>
+      <c r="AA41">
+        <v>2.553422464925546</v>
+      </c>
+      <c r="AB41">
+        <v>1.979618632502471</v>
+      </c>
+      <c r="AC41">
+        <v>1.963017503207169</v>
+      </c>
+      <c r="AD41">
+        <v>1.411282105672593</v>
+      </c>
+      <c r="AE41">
+        <v>1.342935186791912</v>
+      </c>
+      <c r="AI41">
+        <v>3.486018025394656</v>
+      </c>
+      <c r="AJ41">
+        <v>2.805715667780113</v>
+      </c>
+      <c r="AK41">
+        <v>2.581706930640093</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>2.834061185548855</v>
+      </c>
+      <c r="G42">
+        <v>2.72304007470289</v>
+      </c>
+      <c r="H42">
+        <v>2.106883407508411</v>
+      </c>
+      <c r="I42">
+        <v>1.932251182695431</v>
+      </c>
+      <c r="J42">
+        <v>1.517247741565741</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1.472026193146929</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q42">
+        <v>2.760088551947868</v>
+      </c>
+      <c r="R42">
+        <v>2.104569334216085</v>
+      </c>
+      <c r="S42">
+        <v>1.993178819154578</v>
+      </c>
+      <c r="T42">
+        <v>1.514785667170373</v>
       </c>
       <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="Z42">
+        <v>3.101094014768489</v>
+      </c>
+      <c r="AA42">
+        <v>2.623951658674981</v>
+      </c>
+      <c r="AB42">
+        <v>2.130912135906355</v>
+      </c>
+      <c r="AC42">
+        <v>1.951874762080562</v>
+      </c>
+      <c r="AD42">
+        <v>1.555203294528959</v>
+      </c>
+      <c r="AE42">
+        <v>1.300626400309681</v>
+      </c>
+      <c r="AJ42">
+        <v>2.81647275388915</v>
+      </c>
+      <c r="AK42">
+        <v>0.7149914675554987</v>
+      </c>
+      <c r="AL42">
+        <v>0.05256918017247814</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2.890231061967627</v>
+      </c>
+      <c r="G43">
+        <v>2.748776540463146</v>
+      </c>
+      <c r="H43">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I43">
+        <v>1.970214660204424</v>
+      </c>
+      <c r="J43">
+        <v>1.5206211334196</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q43">
+        <v>2.764356169247328</v>
+      </c>
+      <c r="R43">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S43">
+        <v>2.004778820471218</v>
+      </c>
+      <c r="T43">
+        <v>1.514740069930878</v>
       </c>
       <c r="U43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="Z43">
+        <v>1.188378835554053</v>
+      </c>
+      <c r="AA43">
+        <v>0.8547786171191787</v>
+      </c>
+      <c r="AB43">
+        <v>0.2932186793572222</v>
+      </c>
+      <c r="AC43">
+        <v>0.2036882847958228</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0.9045039448007681</v>
+      </c>
+      <c r="AK43">
+        <v>0.7108404584999048</v>
+      </c>
+      <c r="AL43">
+        <v>0.03675868904689139</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2.572935332636885</v>
+      </c>
+      <c r="G44">
+        <v>2.272679863176242</v>
+      </c>
+      <c r="H44">
+        <v>1.963702703730398</v>
+      </c>
+      <c r="I44">
+        <v>1.5903616643726</v>
+      </c>
+      <c r="J44">
+        <v>1.432696020363151</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1.376421808069575</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q44">
+        <v>2.761602905005454</v>
+      </c>
+      <c r="R44">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S44">
+        <v>1.997518366745622</v>
+      </c>
+      <c r="T44">
+        <v>1.514603277498504</v>
       </c>
       <c r="U44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z44">
+        <v>0.09466388748160637</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>0.5831461430456271</v>
+      </c>
+      <c r="AK44">
+        <v>0.3629586780293976</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.890007389107182</v>
+      </c>
+      <c r="G45">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H45">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I45">
+        <v>2.097427147898701</v>
+      </c>
+      <c r="J45">
+        <v>1.520712297171943</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q45">
+        <v>2.767775466380986</v>
+      </c>
+      <c r="R45">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S45">
+        <v>1.995258359692673</v>
+      </c>
+      <c r="T45">
+        <v>1.514603277498504</v>
       </c>
       <c r="U45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z45">
+        <v>3.230997587597325</v>
+      </c>
+      <c r="AA45">
+        <v>2.913509306332526</v>
+      </c>
+      <c r="AB45">
+        <v>2.282151973674006</v>
+      </c>
+      <c r="AC45">
+        <v>2.164930148552271</v>
+      </c>
+      <c r="AD45">
+        <v>1.547252682850622</v>
+      </c>
+      <c r="AE45">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AJ45">
+        <v>2.866428916119317</v>
+      </c>
+      <c r="AK45">
+        <v>2.767565661981635</v>
+      </c>
+      <c r="AL45">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM45">
+        <v>1.965407001914072</v>
+      </c>
+      <c r="AN45">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO45">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2.830627138040562</v>
+      </c>
+      <c r="G46">
+        <v>2.518450660330947</v>
+      </c>
+      <c r="H46">
+        <v>2.096364137861138</v>
+      </c>
+      <c r="I46">
+        <v>1.68889037060617</v>
+      </c>
+      <c r="J46">
+        <v>1.508104888677052</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1.337457512386501</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q46">
+        <v>2.758468135218185</v>
+      </c>
+      <c r="R46">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S46">
+        <v>1.993243939256627</v>
+      </c>
+      <c r="T46">
+        <v>1.514785667170373</v>
       </c>
       <c r="U46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z46">
+        <v>0.1522823735620615</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0.1450580356542279</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2.890486402667618</v>
+      </c>
+      <c r="G47">
+        <v>2.803194610047689</v>
+      </c>
+      <c r="H47">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I47">
+        <v>2.079348857908031</v>
+      </c>
+      <c r="J47">
+        <v>1.520757878870674</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1.507015846716378</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q47">
+        <v>2.767186536388251</v>
+      </c>
+      <c r="R47">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S47">
+        <v>1.996024917878035</v>
+      </c>
+      <c r="T47">
+        <v>1.514603277498504</v>
       </c>
       <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z47">
+        <v>3.194310847944598</v>
+      </c>
+      <c r="AA47">
+        <v>2.851389644989256</v>
+      </c>
+      <c r="AB47">
+        <v>2.205407148748263</v>
+      </c>
+      <c r="AC47">
+        <v>2.123361472711392</v>
+      </c>
+      <c r="AD47">
+        <v>1.472897273110928</v>
+      </c>
+      <c r="AE47">
+        <v>1.422020798603606</v>
+      </c>
+      <c r="AJ47">
+        <v>2.828323982774912</v>
+      </c>
+      <c r="AK47">
+        <v>2.705056381569339</v>
+      </c>
+      <c r="AL47">
+        <v>1.972319504959957</v>
+      </c>
+      <c r="AM47">
+        <v>1.761185098028384</v>
+      </c>
+      <c r="AN47">
+        <v>1.111707079110153</v>
+      </c>
+      <c r="AO47">
+        <v>1.139421378846795</v>
+      </c>
+    </row>
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2.745993819089385</v>
+      </c>
+      <c r="G48">
+        <v>2.639936245332511</v>
+      </c>
+      <c r="H48">
+        <v>2.095061828122697</v>
+      </c>
+      <c r="I48">
+        <v>1.949336419827921</v>
+      </c>
+      <c r="J48">
+        <v>1.506348147362272</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>1.494117855229274</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q48">
+        <v>2.762466629717258</v>
+      </c>
+      <c r="R48">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S48">
+        <v>1.997133480712484</v>
+      </c>
+      <c r="T48">
+        <v>1.514785667170373</v>
       </c>
       <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="Z48">
+        <v>2.825669793976837</v>
+      </c>
+      <c r="AA48">
+        <v>2.429096036572144</v>
+      </c>
+      <c r="AB48">
+        <v>1.916287877870282</v>
+      </c>
+      <c r="AC48">
+        <v>1.833704321440065</v>
+      </c>
+      <c r="AD48">
+        <v>1.348819689998867</v>
+      </c>
+      <c r="AE48">
+        <v>1.180564865694133</v>
+      </c>
+      <c r="AJ48">
+        <v>1.017278061339296</v>
+      </c>
+      <c r="AK48">
+        <v>0.7649012961045878</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2.830990141741013</v>
+      </c>
+      <c r="G49">
+        <v>2.594331807433922</v>
+      </c>
+      <c r="H49">
+        <v>2.103978430238167</v>
+      </c>
+      <c r="I49">
+        <v>1.710194969744592</v>
+      </c>
+      <c r="J49">
+        <v>1.512870480610533</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1.470559397771526</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>2.82740526083151</v>
+      </c>
+      <c r="Q49">
+        <v>2.76121318362158</v>
+      </c>
+      <c r="R49">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S49">
+        <v>1.978157977959749</v>
+      </c>
+      <c r="T49">
+        <v>1.514785667170373</v>
       </c>
       <c r="U49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="Z49">
+        <v>0.3501695709558084</v>
+      </c>
+      <c r="AA49">
+        <v>0.06711747900514298</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0.2465778041705533</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2.890518313620421</v>
+      </c>
+      <c r="G50">
+        <v>2.777671977300662</v>
+      </c>
+      <c r="H50">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I50">
+        <v>2.042978951645822</v>
+      </c>
+      <c r="J50">
+        <v>1.5206211334196</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>1.508583348210625</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>2.827302218656588</v>
+      </c>
+      <c r="Q50">
+        <v>2.764791177987473</v>
+      </c>
+      <c r="R50">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S50">
+        <v>1.999620957439076</v>
+      </c>
+      <c r="T50">
+        <v>1.514740069930878</v>
       </c>
       <c r="U50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="Z50">
+        <v>3.164625420537356</v>
+      </c>
+      <c r="AA50">
+        <v>2.792919337700115</v>
+      </c>
+      <c r="AB50">
+        <v>2.173088535088133</v>
+      </c>
+      <c r="AC50">
+        <v>2.02058935013874</v>
+      </c>
+      <c r="AD50">
+        <v>1.476611738887138</v>
+      </c>
+      <c r="AE50">
+        <v>1.314425380732886</v>
+      </c>
+      <c r="AJ50">
+        <v>0.9731983123241179</v>
+      </c>
+      <c r="AK50">
+        <v>0.8214332461519878</v>
+      </c>
+      <c r="AL50">
+        <v>1.978645541863364</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2.890058328883075</v>
+      </c>
+      <c r="G51">
+        <v>2.820395866134594</v>
+      </c>
+      <c r="H51">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I51">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J51">
+        <v>1.520757878870674</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.50844650744426</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>2.827353739882428</v>
+      </c>
+      <c r="Q51">
+        <v>2.764623427235852</v>
+      </c>
+      <c r="R51">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S51">
+        <v>1.995630959553483</v>
+      </c>
+      <c r="T51">
+        <v>1.514740069930878</v>
       </c>
       <c r="U51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="Z51">
+        <v>3.230161333260436</v>
+      </c>
+      <c r="AA51">
+        <v>2.913684795861267</v>
+      </c>
+      <c r="AB51">
+        <v>2.285850681031235</v>
+      </c>
+      <c r="AC51">
+        <v>2.165058730643766</v>
+      </c>
+      <c r="AD51">
+        <v>1.546836951405552</v>
+      </c>
+      <c r="AE51">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AJ51">
+        <v>2.866450730827672</v>
+      </c>
+      <c r="AK51">
+        <v>2.767394720994764</v>
+      </c>
+      <c r="AL51">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM51">
+        <v>1.965738159957354</v>
+      </c>
+      <c r="AN51">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO51">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="D52">
-        <v>30</v>
-      </c>
-      <c r="E52">
-        <v>40</v>
-      </c>
-      <c r="F52">
-        <v>50</v>
-      </c>
       <c r="G52">
-        <v>10</v>
+        <v>2.820395866134594</v>
       </c>
       <c r="H52">
-        <v>20</v>
+        <v>2.110476658613093</v>
       </c>
       <c r="I52">
-        <v>30</v>
+        <v>2.097476420041489</v>
       </c>
       <c r="J52">
-        <v>40</v>
+        <v>1.52066671535492</v>
       </c>
       <c r="K52">
-        <v>50</v>
-      </c>
-      <c r="L52">
-        <v>10</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52">
-        <v>30</v>
-      </c>
-      <c r="O52">
-        <v>40</v>
-      </c>
-      <c r="P52">
-        <v>50</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>2.764324987753401</v>
       </c>
       <c r="R52">
-        <v>20</v>
+        <v>2.104421611150824</v>
       </c>
       <c r="S52">
-        <v>30</v>
+        <v>1.997417897888681</v>
       </c>
       <c r="T52">
-        <v>40</v>
+        <v>1.514694472572406</v>
       </c>
       <c r="U52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AA52">
+        <v>2.914094803868471</v>
+      </c>
+      <c r="AB52">
+        <v>2.282391803697877</v>
+      </c>
+      <c r="AC52">
+        <v>2.164901771491326</v>
+      </c>
+      <c r="AD52">
+        <v>1.547093760904176</v>
+      </c>
+      <c r="AE52">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AK52">
+        <v>2.767328972139834</v>
+      </c>
+      <c r="AL52">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM52">
+        <v>1.965632263593799</v>
+      </c>
+      <c r="AN52">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO52">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
       <c r="G53">
-        <v>0</v>
+        <v>2.801093685995506</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2.110525873238279</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2.052613760050299</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1.520757878870674</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
+        <v>1.508628961560021</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>2.767452341020104</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>2.104372369695162</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>1.997762348695501</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>1.514740069930878</v>
       </c>
       <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AA53">
+        <v>2.844429100690561</v>
+      </c>
+      <c r="AB53">
+        <v>2.227266334521391</v>
+      </c>
+      <c r="AC53">
+        <v>2.103078966350652</v>
+      </c>
+      <c r="AD53">
+        <v>1.525981732471381</v>
+      </c>
+      <c r="AE53">
+        <v>1.411891886898463</v>
+      </c>
+      <c r="AK53">
+        <v>2.670139730819453</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
       <c r="G54">
-        <v>0</v>
+        <v>2.800934866402483</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2.110575087647683</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2.062975168047947</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>1.520575551365979</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
+        <v>1.50849212115275</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>2.758483761503858</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>2.104520093411275</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>1.997400013582425</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>1.51464887509495</v>
       </c>
       <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AA54">
+        <v>2.844214342018183</v>
+      </c>
+      <c r="AB54">
+        <v>2.271530793300616</v>
+      </c>
+      <c r="AC54">
+        <v>2.084933349137895</v>
+      </c>
+      <c r="AD54">
+        <v>1.550869769282605</v>
+      </c>
+      <c r="AE54">
+        <v>1.411751867967422</v>
+      </c>
+      <c r="AK54">
+        <v>2.666510734744771</v>
+      </c>
+      <c r="AL54">
+        <v>1.87711241824553</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>0</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55">
+      <c r="G55">
+        <v>2.798500622538076</v>
+      </c>
+      <c r="H55">
+        <v>2.106046457530152</v>
+      </c>
+      <c r="I55">
+        <v>2.055970383544805</v>
+      </c>
+      <c r="J55">
+        <v>1.516518274160015</v>
+      </c>
+      <c r="K55">
+        <v>1.504523280119483</v>
+      </c>
+      <c r="Q55">
+        <v>2.762860601433685</v>
+      </c>
+      <c r="R55">
+        <v>2.104569334216085</v>
+      </c>
+      <c r="S55">
+        <v>1.98025486479226</v>
+      </c>
+      <c r="T55">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U55">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AA55">
+        <v>2.546533092737508</v>
+      </c>
+      <c r="AB55">
+        <v>2.078712836274278</v>
+      </c>
+      <c r="AC55">
+        <v>1.868417644069637</v>
+      </c>
+      <c r="AD55">
+        <v>1.487754914068279</v>
+      </c>
+      <c r="AE55">
+        <v>1.257717989403428</v>
+      </c>
+      <c r="AK55">
+        <v>0.798412136745253</v>
+      </c>
+      <c r="AL55">
+        <v>0</v>
+      </c>
+      <c r="AM55">
+        <v>1.790026570216626</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>1.36243511379281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:41">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="G56">
+        <v>2.789811725870186</v>
+      </c>
+      <c r="H56">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I56">
+        <v>2.027286763125797</v>
+      </c>
+      <c r="J56">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K56">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="Q56">
+        <v>2.759521651546519</v>
+      </c>
+      <c r="R56">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S56">
+        <v>2.0022962518615</v>
+      </c>
+      <c r="T56">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U56">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AA56">
+        <v>2.84409752426794</v>
+      </c>
+      <c r="AB56">
+        <v>2.193440283467224</v>
+      </c>
+      <c r="AC56">
+        <v>2.084619571072777</v>
+      </c>
+      <c r="AD56">
+        <v>1.437944525418763</v>
+      </c>
+      <c r="AE56">
+        <v>1.411798541089573</v>
+      </c>
+      <c r="AK56">
+        <v>2.648452274603004</v>
+      </c>
+      <c r="AL56">
+        <v>0</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H57">
+        <v>2.110575087647683</v>
+      </c>
+      <c r="I57">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J57">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K57">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="Q57">
+        <v>2.764326062260406</v>
+      </c>
+      <c r="R57">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S57">
+        <v>1.997434872549148</v>
+      </c>
+      <c r="T57">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U57">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AA57">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB57">
+        <v>2.282384889236855</v>
+      </c>
+      <c r="AC57">
+        <v>2.16473781946322</v>
+      </c>
+      <c r="AD57">
+        <v>1.546821022635458</v>
+      </c>
+      <c r="AE57">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AK57">
+        <v>2.770156182069553</v>
+      </c>
+      <c r="AL57">
+        <v>2.10885245486647</v>
+      </c>
+      <c r="AM57">
+        <v>1.965527711851541</v>
+      </c>
+      <c r="AN57">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO57">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>2.813181929964175</v>
+      </c>
+      <c r="H58">
+        <v>2.106784946053246</v>
+      </c>
+      <c r="I58">
+        <v>2.08307271908636</v>
+      </c>
+      <c r="J58">
+        <v>1.517247741565741</v>
+      </c>
+      <c r="K58">
+        <v>1.504888268938484</v>
+      </c>
+      <c r="Q58">
+        <v>2.762715628200681</v>
+      </c>
+      <c r="R58">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S58">
+        <v>1.99717459078233</v>
+      </c>
+      <c r="T58">
+        <v>1.514831264290892</v>
+      </c>
+      <c r="U58">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AA58">
+        <v>2.715873968153891</v>
+      </c>
+      <c r="AB58">
+        <v>2.092519243601651</v>
+      </c>
+      <c r="AC58">
+        <v>2.057618417979273</v>
+      </c>
+      <c r="AD58">
+        <v>1.531088898379327</v>
+      </c>
+      <c r="AE58">
+        <v>1.492200380030218</v>
+      </c>
+      <c r="AK58">
+        <v>2.765434496086403</v>
+      </c>
+      <c r="AL58">
+        <v>2.109049340575119</v>
+      </c>
+      <c r="AM58">
+        <v>1.969992250932255</v>
+      </c>
+      <c r="AN58">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO58">
+        <v>1.506986805537321</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="G59">
+        <v>2.820344307434905</v>
+      </c>
+      <c r="H59">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I59">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J59">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K59">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="Q59">
+        <v>2.761258247473848</v>
+      </c>
+      <c r="R59">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S59">
+        <v>1.99708193091959</v>
+      </c>
+      <c r="T59">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U59">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AA59">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB59">
+        <v>2.282218525280169</v>
+      </c>
+      <c r="AC59">
+        <v>2.165101218030796</v>
+      </c>
+      <c r="AD59">
+        <v>1.547019601813241</v>
+      </c>
+      <c r="AE59">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AK59">
+        <v>2.770444002935478</v>
+      </c>
+      <c r="AL59">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM59">
+        <v>1.966172283806107</v>
+      </c>
+      <c r="AN59">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO59">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60">
+        <v>2.820447424555885</v>
+      </c>
+      <c r="H60">
+        <v>2.110722729581302</v>
+      </c>
+      <c r="I60">
+        <v>2.097427147898701</v>
+      </c>
+      <c r="J60">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K60">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="Q60">
+        <v>2.757986889574406</v>
+      </c>
+      <c r="R60">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S60">
+        <v>1.997327419469893</v>
+      </c>
+      <c r="T60">
+        <v>1.514603277498504</v>
+      </c>
+      <c r="U60">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AA60">
+        <v>2.913786223319847</v>
+      </c>
+      <c r="AB60">
+        <v>2.28228589561846</v>
+      </c>
+      <c r="AC60">
+        <v>2.165046618821038</v>
+      </c>
+      <c r="AD60">
+        <v>1.547156502714084</v>
+      </c>
+      <c r="AE60">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AK60">
+        <v>2.76747256963123</v>
+      </c>
+      <c r="AL60">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM60">
+        <v>1.965761761269118</v>
+      </c>
+      <c r="AN60">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO60">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61">
+        <v>2.805708111856805</v>
+      </c>
+      <c r="H61">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I61">
+        <v>2.052385487418358</v>
+      </c>
+      <c r="J61">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K61">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="Q61">
+        <v>2.761305358987084</v>
+      </c>
+      <c r="R61">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S61">
+        <v>2.002062810957012</v>
+      </c>
+      <c r="T61">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U61">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AA61">
+        <v>2.830541145820765</v>
+      </c>
+      <c r="AB61">
+        <v>2.232517680042085</v>
+      </c>
+      <c r="AC61">
+        <v>2.08474661830083</v>
+      </c>
+      <c r="AD61">
+        <v>1.516600082955669</v>
+      </c>
+      <c r="AE61">
+        <v>1.411471826186249</v>
+      </c>
+      <c r="AK61">
+        <v>2.713291279456292</v>
+      </c>
+      <c r="AL61">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM61">
+        <v>1.82933104774033</v>
+      </c>
+      <c r="AN61">
+        <v>1.516969249749867</v>
+      </c>
+      <c r="AO61">
+        <v>1.343746670789521</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I62">
+        <v>1.930829039790851</v>
+      </c>
+      <c r="J62">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K62">
+        <v>1.504128614260161</v>
+      </c>
+      <c r="R62">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S62">
+        <v>2.009622770948226</v>
+      </c>
+      <c r="T62">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U62">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AB62">
+        <v>0.3975142546969326</v>
+      </c>
+      <c r="AC62">
+        <v>0.03043221913391103</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I63">
+        <v>2.05780219199828</v>
+      </c>
+      <c r="J63">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K63">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="R63">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S63">
+        <v>1.999654056145388</v>
+      </c>
+      <c r="T63">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U63">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AB63">
+        <v>2.241507723936781</v>
+      </c>
+      <c r="AC63">
+        <v>2.084952124945475</v>
+      </c>
+      <c r="AD63">
+        <v>1.53892572563965</v>
+      </c>
+      <c r="AE63">
+        <v>1.411751867967422</v>
+      </c>
+      <c r="AL63">
+        <v>0.001454163907148809</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AO63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I64">
+        <v>2.097377875537593</v>
+      </c>
+      <c r="J64">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K64">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="R64">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S64">
+        <v>1.999612722988417</v>
+      </c>
+      <c r="T64">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U64">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AB64">
+        <v>2.282267004407296</v>
+      </c>
+      <c r="AC64">
+        <v>2.164614733137075</v>
+      </c>
+      <c r="AD64">
+        <v>1.547028781295407</v>
+      </c>
+      <c r="AE64">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AL64">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM64">
+        <v>1.973037227417356</v>
+      </c>
+      <c r="AN64">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO64">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H65">
+        <v>2.110427443772115</v>
+      </c>
+      <c r="I65">
+        <v>2.013868126578851</v>
+      </c>
+      <c r="J65">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K65">
+        <v>1.495672077183953</v>
+      </c>
+      <c r="R65">
+        <v>2.104372369695162</v>
+      </c>
+      <c r="S65">
+        <v>1.999703714753396</v>
+      </c>
+      <c r="T65">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U65">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AB65">
+        <v>2.226642340610798</v>
+      </c>
+      <c r="AC65">
+        <v>2.084768137217393</v>
+      </c>
+      <c r="AD65">
+        <v>1.522161571938484</v>
+      </c>
+      <c r="AE65">
+        <v>1.411798541089573</v>
+      </c>
+      <c r="AL65">
+        <v>2.034750678765395</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>1.363552273052185</v>
+      </c>
+      <c r="AO65">
+        <v>1.287638671729005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="H66">
+        <v>2.110624301841317</v>
+      </c>
+      <c r="I66">
+        <v>2.097377875537593</v>
+      </c>
+      <c r="J66">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K66">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="R66">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S66">
+        <v>1.999519756735406</v>
+      </c>
+      <c r="T66">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U66">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AB66">
+        <v>2.28222780237921</v>
+      </c>
+      <c r="AC66">
+        <v>2.1838072733721</v>
+      </c>
+      <c r="AD66">
+        <v>1.546798718648826</v>
+      </c>
+      <c r="AE66">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AL66">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM66">
+        <v>1.965350991217715</v>
+      </c>
+      <c r="AN66">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO66">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67">
+        <v>2.110525873238279</v>
+      </c>
+      <c r="I67">
+        <v>2.097377875537593</v>
+      </c>
+      <c r="J67">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K67">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="R67">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S67">
+        <v>1.999761706084014</v>
+      </c>
+      <c r="T67">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U67">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AB67">
+        <v>2.282330263629646</v>
+      </c>
+      <c r="AC67">
+        <v>2.164958890025016</v>
+      </c>
+      <c r="AD67">
+        <v>1.547098405293291</v>
+      </c>
+      <c r="AE67">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AL67">
+        <v>2.108901676617765</v>
+      </c>
+      <c r="AM67">
+        <v>1.972258655664676</v>
+      </c>
+      <c r="AN67">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO67">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I68">
+        <v>2.097427147898701</v>
+      </c>
+      <c r="J68">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K68">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="R68">
+        <v>2.104470852389523</v>
+      </c>
+      <c r="S68">
+        <v>1.998510521459317</v>
+      </c>
+      <c r="T68">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U68">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AB68">
+        <v>2.282356712956446</v>
+      </c>
+      <c r="AC68">
+        <v>2.165107089775544</v>
+      </c>
+      <c r="AD68">
+        <v>1.54705771883989</v>
+      </c>
+      <c r="AE68">
+        <v>1.525361022048251</v>
+      </c>
+      <c r="AL68">
+        <v>2.108950898152964</v>
+      </c>
+      <c r="AM68">
+        <v>1.965168005957044</v>
+      </c>
+      <c r="AN68">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO68">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="H69">
+        <v>2.109443101621856</v>
+      </c>
+      <c r="I69">
+        <v>1.780069644301087</v>
+      </c>
+      <c r="J69">
+        <v>1.517931589662944</v>
+      </c>
+      <c r="K69">
+        <v>1.467481955327516</v>
+      </c>
+      <c r="R69">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S69">
+        <v>2.002182315416963</v>
+      </c>
+      <c r="T69">
+        <v>1.514831264290892</v>
+      </c>
+      <c r="U69">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AB69">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AO69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="H70">
+        <v>2.110476658613093</v>
+      </c>
+      <c r="I70">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J70">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K70">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="R70">
+        <v>2.104421611150824</v>
+      </c>
+      <c r="S70">
+        <v>2.004371369061904</v>
+      </c>
+      <c r="T70">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U70">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AB70">
+        <v>2.282313860002195</v>
+      </c>
+      <c r="AC70">
+        <v>2.184047744363652</v>
+      </c>
+      <c r="AD70">
+        <v>1.546970471836886</v>
+      </c>
+      <c r="AE70">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AL70">
+        <v>2.10900011947208</v>
+      </c>
+      <c r="AM70">
+        <v>1.965605610293088</v>
+      </c>
+      <c r="AN70">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO70">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71">
+        <v>2.094417817234849</v>
+      </c>
+      <c r="I71">
+        <v>1.692946878679316</v>
+      </c>
+      <c r="J71">
+        <v>1.509039476319275</v>
+      </c>
+      <c r="K71">
+        <v>1.341066623809568</v>
+      </c>
+      <c r="R71">
+        <v>2.104520093411275</v>
+      </c>
+      <c r="S71">
+        <v>2.004241375340093</v>
+      </c>
+      <c r="T71">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U71">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AB71">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>1.981368387012337</v>
+      </c>
+      <c r="J72">
+        <v>1.500188449217823</v>
+      </c>
+      <c r="K72">
+        <v>1.485852918056124</v>
+      </c>
+      <c r="S72">
+        <v>2.005282620169106</v>
+      </c>
+      <c r="T72">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U72">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AC72">
+        <v>1.893257052366984</v>
+      </c>
+      <c r="AD72">
+        <v>1.32164705938278</v>
+      </c>
+      <c r="AE72">
+        <v>1.321051070761926</v>
+      </c>
+      <c r="AM72">
+        <v>1.964409969976363</v>
+      </c>
+      <c r="AN72">
+        <v>1.497894325362277</v>
+      </c>
+      <c r="AO72">
+        <v>1.531391723013227</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J73">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K73">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="S73">
+        <v>1.997363792190211</v>
+      </c>
+      <c r="T73">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U73">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AC73">
+        <v>2.184393734570602</v>
+      </c>
+      <c r="AD73">
+        <v>1.546956107126871</v>
+      </c>
+      <c r="AE73">
+        <v>1.525406591708693</v>
+      </c>
+      <c r="AM73">
+        <v>1.965813105444254</v>
+      </c>
+      <c r="AN73">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO73">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="I74">
+        <v>2.097476420041489</v>
+      </c>
+      <c r="J74">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K74">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="S74">
+        <v>1.997282724554472</v>
+      </c>
+      <c r="T74">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U74">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AC74">
+        <v>2.184411290310005</v>
+      </c>
+      <c r="AD74">
+        <v>1.546883605551177</v>
+      </c>
+      <c r="AE74">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AM74">
+        <v>1.972430874783901</v>
+      </c>
+      <c r="AN74">
+        <v>1.519071277195078</v>
+      </c>
+      <c r="AO74">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="I75">
+        <v>1.929058026652742</v>
+      </c>
+      <c r="J75">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K75">
+        <v>1.487391249297514</v>
+      </c>
+      <c r="S75">
+        <v>1.99968061940654</v>
+      </c>
+      <c r="T75">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U75">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AC75">
+        <v>0.0792449575596561</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>0</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I76">
+        <v>1.971322498700843</v>
+      </c>
+      <c r="J76">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K76">
+        <v>1.491729710091325</v>
+      </c>
+      <c r="S76">
+        <v>1.996062878329563</v>
+      </c>
+      <c r="T76">
+        <v>1.514603277498504</v>
+      </c>
+      <c r="U76">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AC76">
+        <v>1.88149271720199</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AM76">
+        <v>0.07997276153402755</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>2.06500907126222</v>
+      </c>
+      <c r="J77">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K77">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="S77">
+        <v>1.99574032552707</v>
+      </c>
+      <c r="T77">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U77">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AC77">
+        <v>2.078179138080392</v>
+      </c>
+      <c r="AD77">
+        <v>1.460279852524802</v>
+      </c>
+      <c r="AE77">
+        <v>1.411705194700126</v>
+      </c>
+      <c r="AM77">
+        <v>0.1717933216692531</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78">
+        <v>1.89513365708338</v>
+      </c>
+      <c r="J78">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K78">
+        <v>1.430166508502815</v>
+      </c>
+      <c r="S78">
+        <v>1.999911518973775</v>
+      </c>
+      <c r="T78">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U78">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AC78">
+        <v>0.06063674545701314</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AM78">
+        <v>0</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I79">
+        <v>1.853854509412582</v>
+      </c>
+      <c r="J79">
+        <v>1.484071551341346</v>
+      </c>
+      <c r="K79">
+        <v>1.470911049067075</v>
+      </c>
+      <c r="S79">
+        <v>2.00201240041718</v>
+      </c>
+      <c r="T79">
+        <v>1.514831264290892</v>
+      </c>
+      <c r="U79">
+        <v>1.502698220609431</v>
+      </c>
+      <c r="AC79">
+        <v>1.745827170975346</v>
+      </c>
+      <c r="AD79">
+        <v>1.182433616123133</v>
+      </c>
+      <c r="AE79">
+        <v>1.141909067837016</v>
+      </c>
+      <c r="AM79">
+        <v>0</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80">
+        <v>2.067292917795719</v>
+      </c>
+      <c r="J80">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K80">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="S80">
+        <v>1.999651824182261</v>
+      </c>
+      <c r="T80">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U80">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AC80">
+        <v>2.084767341917162</v>
+      </c>
+      <c r="AD80">
+        <v>1.550911086393945</v>
+      </c>
+      <c r="AE80">
+        <v>1.411891886898463</v>
+      </c>
+      <c r="AM80">
+        <v>1.931856992894718</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>1.421469681413624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="I81">
+        <v>2.097377875537593</v>
+      </c>
+      <c r="J81">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K81">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="S81">
+        <v>1.997490188183791</v>
+      </c>
+      <c r="T81">
+        <v>1.514603277498504</v>
+      </c>
+      <c r="U81">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AC81">
+        <v>2.184506251422345</v>
+      </c>
+      <c r="AD81">
+        <v>1.54691950389625</v>
+      </c>
+      <c r="AE81">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AM81">
+        <v>1.965409756954004</v>
+      </c>
+      <c r="AN81">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO81">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="J82">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K82">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="T82">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U82">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AD82">
+        <v>1.546960447074996</v>
+      </c>
+      <c r="AE82">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AN82">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO82">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="J83">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K83">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="T83">
+        <v>1.514694472572406</v>
+      </c>
+      <c r="U83">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AD83">
+        <v>1.547038137057019</v>
+      </c>
+      <c r="AE83">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AN83">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO83">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="J84">
+        <v>1.517886000620267</v>
+      </c>
+      <c r="K84">
+        <v>1.504797022454586</v>
+      </c>
+      <c r="T84">
+        <v>1.514785667170373</v>
+      </c>
+      <c r="U84">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AD84">
+        <v>1.442165401323857</v>
+      </c>
+      <c r="AE84">
+        <v>1.292916836800978</v>
+      </c>
+      <c r="AN84">
+        <v>0</v>
+      </c>
+      <c r="AO84">
+        <v>1.244796463605549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="J85">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K85">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="T85">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U85">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AD85">
+        <v>1.546979116624419</v>
+      </c>
+      <c r="AE85">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AN85">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO85">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K86">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="T86">
+        <v>1.514603277498504</v>
+      </c>
+      <c r="U86">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AD86">
+        <v>1.5435965155889</v>
+      </c>
+      <c r="AE86">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AN86">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO86">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87">
+        <v>1.520757878870674</v>
+      </c>
+      <c r="K87">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="T87">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U87">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AD87">
+        <v>1.546903858706185</v>
+      </c>
+      <c r="AE87">
+        <v>1.525588869172975</v>
+      </c>
+      <c r="AN87">
+        <v>1.519116863155586</v>
+      </c>
+      <c r="AO87">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88">
+        <v>1.52066671535492</v>
+      </c>
+      <c r="K88">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="T88">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U88">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AD88">
+        <v>1.546919923417883</v>
+      </c>
+      <c r="AE88">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AN88">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO88">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="J89">
+        <v>1.520575551365979</v>
+      </c>
+      <c r="K89">
+        <v>1.49518187366703</v>
+      </c>
+      <c r="T89">
+        <v>1.514740069930878</v>
+      </c>
+      <c r="U89">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
+        <v>0</v>
+      </c>
+      <c r="AN89">
+        <v>0</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90">
+        <v>1.520712297171943</v>
+      </c>
+      <c r="K90">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="T90">
+        <v>1.514603277498504</v>
+      </c>
+      <c r="U90">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AD90">
+        <v>1.546958497669592</v>
+      </c>
+      <c r="AE90">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AN90">
+        <v>1.518980104918619</v>
+      </c>
+      <c r="AO90">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="J91">
+        <v>1.5206211334196</v>
+      </c>
+      <c r="K91">
+        <v>1.508628961560021</v>
+      </c>
+      <c r="T91">
+        <v>1.51464887509495</v>
+      </c>
+      <c r="U91">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AD91">
+        <v>1.546973141397368</v>
+      </c>
+      <c r="AE91">
+        <v>1.525543299983518</v>
+      </c>
+      <c r="AN91">
+        <v>1.51902569111609</v>
+      </c>
+      <c r="AO91">
+        <v>1.506895570094061</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="K92">
+        <v>1.508537734741536</v>
+      </c>
+      <c r="U92">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AE92">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AO92">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="K93">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="U93">
+        <v>1.502515704070555</v>
+      </c>
+      <c r="AE93">
+        <v>1.50441713941652</v>
+      </c>
+      <c r="AO93">
+        <v>1.5068499521926</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94">
+        <v>1.50840089361606</v>
+      </c>
+      <c r="U94">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AE94">
+        <v>0</v>
+      </c>
+      <c r="AO94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="K95">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="U95">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AE95">
+        <v>1.411891886898463</v>
+      </c>
+      <c r="AO95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="K96">
+        <v>1.496756086487362</v>
+      </c>
+      <c r="U96">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AE96">
+        <v>0</v>
+      </c>
+      <c r="AO96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="K97">
+        <v>1.50844650744426</v>
+      </c>
+      <c r="U97">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AE97">
+        <v>1.525452161251381</v>
+      </c>
+      <c r="AO97">
+        <v>1.506941187875634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="K98">
+        <v>1.467382458892439</v>
+      </c>
+      <c r="U98">
+        <v>1.502561333385865</v>
+      </c>
+      <c r="AE98">
+        <v>0</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="K99">
+        <v>1.49325045252111</v>
+      </c>
+      <c r="U99">
+        <v>1.502652591655297</v>
+      </c>
+      <c r="AE99">
+        <v>1.471871015580754</v>
+      </c>
+      <c r="AO99">
+        <v>1.506758716029984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="K100">
+        <v>1.50849212115275</v>
+      </c>
+      <c r="U100">
+        <v>1.502606962580777</v>
+      </c>
+      <c r="AE100">
+        <v>1.525497730676322</v>
+      </c>
+      <c r="AO100">
+        <v>1.506804334171242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:41">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="K101">
+        <v>1.508583348210625</v>
+      </c>
+      <c r="U101">
+        <v>1.502470074634843</v>
+      </c>
+      <c r="AE101">
+        <v>1.351446524833064</v>
+      </c>
+      <c r="AO101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102">
+        <v>20</v>
+      </c>
+      <c r="D102">
+        <v>30</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
+      </c>
+      <c r="F102">
+        <v>50</v>
+      </c>
+      <c r="G102">
+        <v>60</v>
+      </c>
+      <c r="H102">
+        <v>70</v>
+      </c>
+      <c r="I102">
+        <v>80</v>
+      </c>
+      <c r="J102">
+        <v>90</v>
+      </c>
+      <c r="K102">
+        <v>100</v>
+      </c>
+      <c r="L102">
+        <v>10</v>
+      </c>
+      <c r="M102">
+        <v>20</v>
+      </c>
+      <c r="N102">
+        <v>30</v>
+      </c>
+      <c r="O102">
+        <v>40</v>
+      </c>
+      <c r="P102">
+        <v>50</v>
+      </c>
+      <c r="Q102">
+        <v>60</v>
+      </c>
+      <c r="R102">
+        <v>70</v>
+      </c>
+      <c r="S102">
+        <v>80</v>
+      </c>
+      <c r="T102">
+        <v>90</v>
+      </c>
+      <c r="U102">
+        <v>100</v>
+      </c>
+      <c r="V102">
+        <v>10</v>
+      </c>
+      <c r="W102">
+        <v>20</v>
+      </c>
+      <c r="X102">
+        <v>30</v>
+      </c>
+      <c r="Y102">
+        <v>40</v>
+      </c>
+      <c r="Z102">
+        <v>50</v>
+      </c>
+      <c r="AA102">
+        <v>60</v>
+      </c>
+      <c r="AB102">
+        <v>70</v>
+      </c>
+      <c r="AC102">
+        <v>80</v>
+      </c>
+      <c r="AD102">
+        <v>90</v>
+      </c>
+      <c r="AE102">
+        <v>100</v>
+      </c>
+      <c r="AF102">
+        <v>10</v>
+      </c>
+      <c r="AG102">
+        <v>20</v>
+      </c>
+      <c r="AH102">
+        <v>30</v>
+      </c>
+      <c r="AI102">
+        <v>40</v>
+      </c>
+      <c r="AJ102">
+        <v>50</v>
+      </c>
+      <c r="AK102">
+        <v>60</v>
+      </c>
+      <c r="AL102">
+        <v>70</v>
+      </c>
+      <c r="AM102">
+        <v>80</v>
+      </c>
+      <c r="AN102">
+        <v>90</v>
+      </c>
+      <c r="AO102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="C103">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="D103">
         <v>1</v>
       </c>
-      <c r="E55">
+      <c r="E103">
         <v>1</v>
       </c>
-      <c r="F55">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
         <v>1</v>
       </c>
-      <c r="G55">
+      <c r="M103">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="N103">
         <v>1</v>
       </c>
-      <c r="I55">
+      <c r="O103">
         <v>1</v>
       </c>
-      <c r="J55">
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="W103">
         <v>1</v>
       </c>
-      <c r="L55">
+      <c r="X103">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Y103">
+        <v>0.7</v>
+      </c>
+      <c r="Z103">
+        <v>0.64</v>
+      </c>
+      <c r="AA103">
+        <v>0</v>
+      </c>
+      <c r="AB103">
+        <v>0</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
         <v>1</v>
       </c>
-      <c r="M55">
+      <c r="AG103">
         <v>1</v>
       </c>
-      <c r="N55">
+      <c r="AH103">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="AI103">
+        <v>0.775</v>
+      </c>
+      <c r="AJ103">
+        <v>0</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>0</v>
+      </c>
+      <c r="AO103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104">
         <v>1</v>
       </c>
-      <c r="O55">
+      <c r="C104">
         <v>1</v>
       </c>
-      <c r="P55">
+      <c r="D104">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>1</v>
       </c>
-      <c r="Q55">
+      <c r="M104">
         <v>1</v>
       </c>
-      <c r="R55">
+      <c r="N104">
         <v>1</v>
       </c>
-      <c r="S55">
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
         <v>1</v>
       </c>
-      <c r="T55">
+      <c r="W104">
         <v>1</v>
       </c>
-      <c r="U55">
+      <c r="X104">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="Y104">
+        <v>0</v>
+      </c>
+      <c r="Z104">
+        <v>0</v>
+      </c>
+      <c r="AA104">
+        <v>0</v>
+      </c>
+      <c r="AB104">
+        <v>0</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>0</v>
+      </c>
+      <c r="AF104">
+        <v>1</v>
+      </c>
+      <c r="AG104">
+        <v>1</v>
+      </c>
+      <c r="AH104">
+        <v>0.9</v>
+      </c>
+      <c r="AI104">
+        <v>0</v>
+      </c>
+      <c r="AJ104">
+        <v>0</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>0</v>
+      </c>
+      <c r="AO104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0.04285714285714286</v>
+      </c>
+      <c r="I105">
+        <v>0.2875</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="S105">
+        <v>0.75</v>
+      </c>
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>1</v>
+      </c>
+      <c r="V105">
+        <v>0</v>
+      </c>
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="Y105">
+        <v>0.25</v>
+      </c>
+      <c r="Z105">
+        <v>0.3</v>
+      </c>
+      <c r="AA105">
+        <v>0.25</v>
+      </c>
+      <c r="AB105">
+        <v>0.3</v>
+      </c>
+      <c r="AC105">
+        <v>0.35</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AE105">
+        <v>1</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>0</v>
+      </c>
+      <c r="AH105">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="AI105">
+        <v>0.2</v>
+      </c>
+      <c r="AJ105">
+        <v>0.34</v>
+      </c>
+      <c r="AK105">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="AL105">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="AM105">
+        <v>0.9875</v>
+      </c>
+      <c r="AN105">
+        <v>1</v>
+      </c>
+      <c r="AO105">
         <v>1</v>
       </c>
     </row>

--- a/multiplus_simulator/results/qoe_sim3.xlsx
+++ b/multiplus_simulator/results/qoe_sim3.xlsx
@@ -802,124 +802,124 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C2">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D2">
-        <v>4.208759361652464</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E2">
-        <v>3.525714492239945</v>
+        <v>3.557006557333162</v>
       </c>
       <c r="F2">
-        <v>2.89044010278877</v>
+        <v>2.963235829941163</v>
       </c>
       <c r="G2">
-        <v>2.820344307434905</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H2">
-        <v>2.110525873238279</v>
+        <v>2.209195911579012</v>
       </c>
       <c r="I2">
-        <v>2.097328602958155</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J2">
-        <v>1.5206211334196</v>
+        <v>1.597706690638345</v>
       </c>
       <c r="K2">
-        <v>1.508537734741536</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="L2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M2">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N2">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O2">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P2">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q2">
-        <v>2.761278821843222</v>
+        <v>2.817324953286909</v>
       </c>
       <c r="R2">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S2">
-        <v>2.004580201097613</v>
+        <v>2.081578317314133</v>
       </c>
       <c r="T2">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U2">
-        <v>1.502470074634843</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="V2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W2">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X2">
-        <v>4.305719850526982</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y2">
-        <v>3.677211847513968</v>
+        <v>3.798641852981572</v>
       </c>
       <c r="Z2">
-        <v>3.231633256297776</v>
+        <v>3.523934850060924</v>
       </c>
       <c r="AA2">
-        <v>2.913684795861267</v>
+        <v>2.988500426425368</v>
       </c>
       <c r="AB2">
-        <v>2.282348166131516</v>
+        <v>2.472193185079278</v>
       </c>
       <c r="AC2">
-        <v>2.165052559156103</v>
+        <v>2.287586207623984</v>
       </c>
       <c r="AD2">
-        <v>1.547117074621247</v>
+        <v>1.829454148582933</v>
       </c>
       <c r="AE2">
-        <v>1.525497730676322</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AF2">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG2">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH2">
-        <v>4.208081338751587</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI2">
-        <v>3.527099957212502</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ2">
-        <v>2.866764855254619</v>
+        <v>2.965598063181663</v>
       </c>
       <c r="AK2">
-        <v>2.767578379532026</v>
+        <v>2.69970754371467</v>
       </c>
       <c r="AL2">
-        <v>2.108950898152964</v>
+        <v>2.160080844217025</v>
       </c>
       <c r="AM2">
-        <v>1.96537307321954</v>
+        <v>2.004944995353221</v>
       </c>
       <c r="AN2">
-        <v>1.519116863155586</v>
+        <v>1.554080583489799</v>
       </c>
       <c r="AO2">
-        <v>1.506895570094061</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="3" spans="1:41">
@@ -927,124 +927,124 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C3">
-        <v>4.354365463538436</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D3">
-        <v>4.208759361652464</v>
+        <v>4.234392075499763</v>
       </c>
       <c r="E3">
-        <v>3.525660526637306</v>
+        <v>3.556709979838356</v>
       </c>
       <c r="F3">
-        <v>2.890404266623651</v>
+        <v>2.96590644223206</v>
       </c>
       <c r="G3">
-        <v>2.800182751277467</v>
+        <v>2.828559056255754</v>
       </c>
       <c r="H3">
-        <v>2.110575087647683</v>
+        <v>2.208898212635045</v>
       </c>
       <c r="I3">
-        <v>2.076661952242545</v>
+        <v>2.107742414219108</v>
       </c>
       <c r="J3">
-        <v>1.520575551365979</v>
+        <v>1.597643483419833</v>
       </c>
       <c r="K3">
-        <v>1.50844650744426</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="L3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M3">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N3">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O3">
-        <v>3.521612134076021</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P3">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q3">
-        <v>2.761759565380173</v>
+        <v>2.813846123938031</v>
       </c>
       <c r="R3">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S3">
-        <v>2.004095432188537</v>
+        <v>2.081467608076755</v>
       </c>
       <c r="T3">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U3">
-        <v>1.502515704070555</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="V3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W3">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X3">
-        <v>4.305719850526982</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y3">
-        <v>3.639425871659649</v>
+        <v>1.68905659747552</v>
       </c>
       <c r="Z3">
-        <v>3.168120983258719</v>
+        <v>1.416389618173206</v>
       </c>
       <c r="AA3">
-        <v>2.786911188743249</v>
+        <v>1.038027401551544</v>
       </c>
       <c r="AB3">
-        <v>2.277348507707557</v>
+        <v>0.6065186937955724</v>
       </c>
       <c r="AC3">
-        <v>2.050351321329527</v>
+        <v>0.4063970659888556</v>
       </c>
       <c r="AD3">
-        <v>1.533938494540497</v>
+        <v>0.07094897719155879</v>
       </c>
       <c r="AE3">
-        <v>1.40818711284878</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG3">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH3">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI3">
-        <v>3.530182209560345</v>
+        <v>1.837249388690171</v>
       </c>
       <c r="AJ3">
-        <v>2.865211519113152</v>
+        <v>2.968518337034623</v>
       </c>
       <c r="AK3">
-        <v>2.772079846311088</v>
+        <v>2.709446109189499</v>
       </c>
       <c r="AL3">
-        <v>2.093651557234417</v>
+        <v>2.160125331503573</v>
       </c>
       <c r="AM3">
-        <v>1.948230620160247</v>
+        <v>2.000419166974449</v>
       </c>
       <c r="AN3">
-        <v>1.51902569111609</v>
+        <v>1.554157664585284</v>
       </c>
       <c r="AO3">
-        <v>1.506941187875634</v>
+        <v>1.530558353448127</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -1052,124 +1052,124 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.369040801957648</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C4">
-        <v>4.354365463538436</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D4">
-        <v>4.208815860913093</v>
+        <v>4.234358058291178</v>
       </c>
       <c r="E4">
-        <v>3.525768457501783</v>
+        <v>3.556683861475891</v>
       </c>
       <c r="F4">
-        <v>2.890286004771059</v>
+        <v>2.963644850281305</v>
       </c>
       <c r="G4">
-        <v>2.82049898269879</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H4">
-        <v>2.110525873238279</v>
+        <v>2.186078560080686</v>
       </c>
       <c r="I4">
-        <v>2.097427147898701</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J4">
-        <v>1.520575551365979</v>
+        <v>1.597705859719726</v>
       </c>
       <c r="K4">
-        <v>1.508537734741536</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="L4">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M4">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N4">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O4">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P4">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q4">
-        <v>2.757937785934844</v>
+        <v>2.820560472840559</v>
       </c>
       <c r="R4">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S4">
-        <v>1.997475342073412</v>
+        <v>2.069893606567508</v>
       </c>
       <c r="T4">
-        <v>1.514740069930878</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U4">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="V4">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W4">
-        <v>4.357555577457716</v>
+        <v>4.366404453216329</v>
       </c>
       <c r="X4">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y4">
-        <v>3.677142739231684</v>
+        <v>3.821036367749215</v>
       </c>
       <c r="Z4">
-        <v>3.217138190778237</v>
+        <v>3.524024686012996</v>
       </c>
       <c r="AA4">
-        <v>2.913735509717907</v>
+        <v>2.988525978562926</v>
       </c>
       <c r="AB4">
-        <v>2.28232692025737</v>
+        <v>2.463406386866876</v>
       </c>
       <c r="AC4">
-        <v>2.164969641223599</v>
+        <v>2.287711394311713</v>
       </c>
       <c r="AD4">
-        <v>1.546803804177623</v>
+        <v>1.82976169639513</v>
       </c>
       <c r="AE4">
-        <v>1.525543299983518</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AF4">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG4">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH4">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI4">
-        <v>3.527109271306216</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ4">
-        <v>2.864826127778738</v>
+        <v>2.973188074381985</v>
       </c>
       <c r="AK4">
-        <v>2.767473993970599</v>
+        <v>2.699925563920716</v>
       </c>
       <c r="AL4">
-        <v>2.108950898152964</v>
+        <v>2.160559259563234</v>
       </c>
       <c r="AM4">
-        <v>1.965364851779922</v>
+        <v>2.002896340679788</v>
       </c>
       <c r="AN4">
-        <v>1.51902569111609</v>
+        <v>1.546126409486287</v>
       </c>
       <c r="AO4">
-        <v>1.506895570094061</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="5" spans="1:41">
@@ -1177,85 +1177,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C5">
-        <v>4.354310450762908</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D5">
-        <v>4.208759361652464</v>
+        <v>4.23440793911016</v>
       </c>
       <c r="E5">
-        <v>3.525714492239945</v>
+        <v>3.549530093296827</v>
       </c>
       <c r="F5">
-        <v>2.890058328883075</v>
+        <v>2.961837721457286</v>
       </c>
       <c r="G5">
-        <v>2.622715901277199</v>
+        <v>2.596032805728385</v>
       </c>
       <c r="H5">
-        <v>2.110427443772115</v>
+        <v>2.205408111897162</v>
       </c>
       <c r="I5">
-        <v>1.837247761078377</v>
+        <v>1.837658421051534</v>
       </c>
       <c r="J5">
-        <v>1.520575551365979</v>
+        <v>1.597676983820565</v>
       </c>
       <c r="K5">
-        <v>1.369006993938766</v>
+        <v>1.338224355519715</v>
       </c>
       <c r="L5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M5">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N5">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O5">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P5">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q5">
-        <v>2.767920243003509</v>
+        <v>2.813658442866358</v>
       </c>
       <c r="R5">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S5">
-        <v>2.001660345740218</v>
+        <v>2.080283437911884</v>
       </c>
       <c r="T5">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U5">
-        <v>1.502470074634843</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="V5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W5">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X5">
-        <v>1.315560348432757</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.6582756291348173</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.4895219178919143</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.6730345177091925</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.1737274625577068</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -1267,16 +1267,16 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG5">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH5">
-        <v>2.032355917082398</v>
+        <v>0.06411269641023409</v>
       </c>
       <c r="AI5">
-        <v>0.6211119206492377</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1302,124 +1302,124 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C6">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D6">
-        <v>4.208815860913093</v>
+        <v>4.234329905234914</v>
       </c>
       <c r="E6">
-        <v>3.525714492239945</v>
+        <v>3.557036880055485</v>
       </c>
       <c r="F6">
-        <v>2.890109268398218</v>
+        <v>2.965907853849826</v>
       </c>
       <c r="G6">
-        <v>2.805881806960727</v>
+        <v>2.825696140639192</v>
       </c>
       <c r="H6">
-        <v>2.110575087647683</v>
+        <v>2.176017284782046</v>
       </c>
       <c r="I6">
-        <v>2.03576298937395</v>
+        <v>2.111167792858436</v>
       </c>
       <c r="J6">
-        <v>1.520757878870674</v>
+        <v>1.596264029327667</v>
       </c>
       <c r="K6">
-        <v>1.508628961560021</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="L6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M6">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N6">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O6">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P6">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q6">
-        <v>2.761572575870606</v>
+        <v>2.81697789481376</v>
       </c>
       <c r="R6">
-        <v>2.104421611150824</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S6">
-        <v>1.995532453820564</v>
+        <v>2.069786164042424</v>
       </c>
       <c r="T6">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U6">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="V6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W6">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X6">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y6">
-        <v>3.658399352283751</v>
+        <v>1.711822277283571</v>
       </c>
       <c r="Z6">
-        <v>3.159220768447504</v>
+        <v>1.474393098345184</v>
       </c>
       <c r="AA6">
-        <v>2.779105101244509</v>
+        <v>0.9897260347248622</v>
       </c>
       <c r="AB6">
-        <v>2.251359239715143</v>
+        <v>0.5770741516222084</v>
       </c>
       <c r="AC6">
-        <v>2.01138789564191</v>
+        <v>0.3621116457533073</v>
       </c>
       <c r="AD6">
-        <v>1.504988235276694</v>
+        <v>0.07438966673793157</v>
       </c>
       <c r="AE6">
-        <v>1.345563750675205</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG6">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH6">
-        <v>4.208081338751587</v>
+        <v>2.157874543981943</v>
       </c>
       <c r="AI6">
-        <v>3.53229349781664</v>
+        <v>1.615990138391062</v>
       </c>
       <c r="AJ6">
-        <v>2.806048714977131</v>
+        <v>0.6043901713767197</v>
       </c>
       <c r="AK6">
-        <v>2.608204544847366</v>
+        <v>0.3462599654457184</v>
       </c>
       <c r="AL6">
-        <v>0.4457573345885131</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.845810867083151</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.502888789871502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:41">
@@ -1427,124 +1427,124 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C7">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D7">
-        <v>4.208759361652464</v>
+        <v>4.234016974862806</v>
       </c>
       <c r="E7">
-        <v>3.525768457501783</v>
+        <v>3.557019474172934</v>
       </c>
       <c r="F7">
-        <v>2.890058328883075</v>
+        <v>2.96347939911081</v>
       </c>
       <c r="G7">
-        <v>2.82049898269879</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H7">
-        <v>2.110427443772115</v>
+        <v>2.218468172439765</v>
       </c>
       <c r="I7">
-        <v>2.097328602958155</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J7">
-        <v>1.520575551365979</v>
+        <v>1.597717957162563</v>
       </c>
       <c r="K7">
-        <v>1.508537734741536</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="L7">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M7">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N7">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O7">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P7">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q7">
-        <v>2.764026924203299</v>
+        <v>2.814110065744882</v>
       </c>
       <c r="R7">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S7">
-        <v>1.999656839135414</v>
+        <v>2.070427642863658</v>
       </c>
       <c r="T7">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U7">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="V7">
-        <v>4.369040801957648</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W7">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X7">
-        <v>4.305719850526982</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y7">
-        <v>3.677225817900257</v>
+        <v>3.798615554671861</v>
       </c>
       <c r="Z7">
-        <v>3.231609037386609</v>
+        <v>3.524199159910886</v>
       </c>
       <c r="AA7">
-        <v>2.914222235629064</v>
+        <v>2.988517530812803</v>
       </c>
       <c r="AB7">
-        <v>2.282130735453701</v>
+        <v>2.472127347363601</v>
       </c>
       <c r="AC7">
-        <v>2.184531565734661</v>
+        <v>2.287695329008023</v>
       </c>
       <c r="AD7">
-        <v>1.547091563103</v>
+        <v>1.829866988244026</v>
       </c>
       <c r="AE7">
-        <v>1.525771144753518</v>
+        <v>1.600629570638968</v>
       </c>
       <c r="AF7">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG7">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH7">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI7">
-        <v>3.527109796713343</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ7">
-        <v>2.866934678521019</v>
+        <v>2.971868481845891</v>
       </c>
       <c r="AK7">
-        <v>2.767124401366738</v>
+        <v>2.699481623462699</v>
       </c>
       <c r="AL7">
-        <v>2.108901676617765</v>
+        <v>2.160648842875307</v>
       </c>
       <c r="AM7">
-        <v>1.964905685891071</v>
+        <v>2.003061548814891</v>
       </c>
       <c r="AN7">
-        <v>1.51902569111609</v>
+        <v>1.546429572915183</v>
       </c>
       <c r="AO7">
-        <v>1.506941187875634</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="8" spans="1:41">
@@ -1552,88 +1552,88 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C8">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D8">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E8">
-        <v>3.525714492239945</v>
+        <v>3.544850856005044</v>
       </c>
       <c r="F8">
-        <v>2.890508537649951</v>
+        <v>2.972955548796262</v>
       </c>
       <c r="G8">
-        <v>2.660916732385871</v>
+        <v>2.74260002381911</v>
       </c>
       <c r="H8">
-        <v>2.110575087647683</v>
+        <v>2.208842577616465</v>
       </c>
       <c r="I8">
-        <v>1.911949539329515</v>
+        <v>1.995187753967803</v>
       </c>
       <c r="J8">
-        <v>1.517202150743278</v>
+        <v>1.592867409797304</v>
       </c>
       <c r="K8">
-        <v>1.498676386681453</v>
+        <v>1.544592712910749</v>
       </c>
       <c r="L8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M8">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N8">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O8">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P8">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q8">
-        <v>2.766178648004785</v>
+        <v>2.813806064831258</v>
       </c>
       <c r="R8">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S8">
-        <v>1.993789003251861</v>
+        <v>2.067260611145958</v>
       </c>
       <c r="T8">
-        <v>1.514603277498504</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U8">
-        <v>1.502424445078726</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="V8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W8">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X8">
-        <v>4.193431259167405</v>
+        <v>2.044261506759065</v>
       </c>
       <c r="Y8">
-        <v>1.546154193580179</v>
+        <v>0.5876545624880278</v>
       </c>
       <c r="Z8">
-        <v>1.098681674703752</v>
+        <v>0.2959935813911616</v>
       </c>
       <c r="AA8">
-        <v>0.7749539702960955</v>
+        <v>0.002277337537194501</v>
       </c>
       <c r="AB8">
-        <v>0.3392990363620778</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>0.2079244526392001</v>
+        <v>0</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1642,22 +1642,22 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG8">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH8">
-        <v>4.189627241675789</v>
+        <v>2.130474243523014</v>
       </c>
       <c r="AI8">
-        <v>3.487924235242851</v>
+        <v>0.5534045686816949</v>
       </c>
       <c r="AJ8">
-        <v>1.18509100526622</v>
+        <v>0</v>
       </c>
       <c r="AK8">
-        <v>0.5259359071012775</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>1.452753974613545</v>
+        <v>0</v>
       </c>
       <c r="AO8">
         <v>0</v>
@@ -1677,124 +1677,124 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C9">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D9">
-        <v>4.208759361652464</v>
+        <v>4.234350860310647</v>
       </c>
       <c r="E9">
-        <v>3.525660526637306</v>
+        <v>3.556686021134493</v>
       </c>
       <c r="F9">
-        <v>2.890058328883075</v>
+        <v>2.973004499450673</v>
       </c>
       <c r="G9">
-        <v>2.82049898269879</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H9">
-        <v>2.110476658613093</v>
+        <v>2.209250448602289</v>
       </c>
       <c r="I9">
-        <v>2.097377875537593</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J9">
-        <v>1.52066671535492</v>
+        <v>1.597627530241577</v>
       </c>
       <c r="K9">
-        <v>1.508537734741536</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M9">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N9">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O9">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P9">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q9">
-        <v>2.762764276110758</v>
+        <v>2.8141888248888</v>
       </c>
       <c r="R9">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S9">
-        <v>1.997330612170187</v>
+        <v>2.081294998000448</v>
       </c>
       <c r="T9">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U9">
-        <v>1.502652591655297</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="V9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W9">
-        <v>4.35750058592973</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X9">
-        <v>4.305664326639549</v>
+        <v>4.318868293966383</v>
       </c>
       <c r="Y9">
-        <v>3.677199024910758</v>
+        <v>3.799479362065068</v>
       </c>
       <c r="Z9">
-        <v>3.231224190362888</v>
+        <v>3.523852672914987</v>
       </c>
       <c r="AA9">
-        <v>2.91416675752421</v>
+        <v>2.98845976381281</v>
       </c>
       <c r="AB9">
-        <v>2.282329007635939</v>
+        <v>2.471464227660062</v>
       </c>
       <c r="AC9">
-        <v>2.165126860914032</v>
+        <v>2.287433845668217</v>
       </c>
       <c r="AD9">
-        <v>1.546967357869322</v>
+        <v>1.830691390560508</v>
       </c>
       <c r="AE9">
-        <v>1.525543299983518</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AF9">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG9">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH9">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI9">
-        <v>3.527029372597262</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ9">
-        <v>2.866502569531212</v>
+        <v>2.971627732568609</v>
       </c>
       <c r="AK9">
-        <v>2.767459285111137</v>
+        <v>2.699884285733458</v>
       </c>
       <c r="AL9">
-        <v>2.108950898152964</v>
+        <v>2.160110877736237</v>
       </c>
       <c r="AM9">
-        <v>1.965571383493028</v>
+        <v>2.002888121666249</v>
       </c>
       <c r="AN9">
-        <v>1.518980104918619</v>
+        <v>1.554127676039247</v>
       </c>
       <c r="AO9">
-        <v>1.506895570094061</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="10" spans="1:41">
@@ -1802,124 +1802,124 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C10">
-        <v>4.354365463538436</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D10">
-        <v>4.208759361652464</v>
+        <v>4.23426830287421</v>
       </c>
       <c r="E10">
-        <v>3.525714492239945</v>
+        <v>3.556838680998935</v>
       </c>
       <c r="F10">
-        <v>2.890143043427874</v>
+        <v>2.971330721504837</v>
       </c>
       <c r="G10">
-        <v>2.820447424555885</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H10">
-        <v>2.110427443772115</v>
+        <v>2.209266380031121</v>
       </c>
       <c r="I10">
-        <v>2.097476420041489</v>
+        <v>2.132257747261938</v>
       </c>
       <c r="J10">
-        <v>1.520712297171943</v>
+        <v>1.594565494031626</v>
       </c>
       <c r="K10">
-        <v>1.50849212115275</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="L10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M10">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N10">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O10">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P10">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q10">
-        <v>2.767438435195928</v>
+        <v>2.817039772111492</v>
       </c>
       <c r="R10">
-        <v>2.104372369695162</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S10">
-        <v>1.995943209714295</v>
+        <v>2.075419748370218</v>
       </c>
       <c r="T10">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U10">
-        <v>1.502652591655297</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="V10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W10">
-        <v>4.35750058592973</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X10">
-        <v>4.305664326639549</v>
+        <v>4.318701990909823</v>
       </c>
       <c r="Y10">
-        <v>3.677196244503448</v>
+        <v>3.799931936256824</v>
       </c>
       <c r="Z10">
-        <v>3.231339594413533</v>
+        <v>3.524076751682236</v>
       </c>
       <c r="AA10">
-        <v>2.913786223319847</v>
+        <v>2.988201219861533</v>
       </c>
       <c r="AB10">
-        <v>2.282308685267795</v>
+        <v>2.468479482409412</v>
       </c>
       <c r="AC10">
-        <v>2.164958890025016</v>
+        <v>2.2873374162025</v>
       </c>
       <c r="AD10">
-        <v>1.546998140244499</v>
+        <v>1.837250325211901</v>
       </c>
       <c r="AE10">
-        <v>1.525588869172975</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AF10">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG10">
-        <v>4.353815319274944</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH10">
-        <v>4.20813784290081</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI10">
-        <v>3.527064367304324</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ10">
-        <v>2.866427092320811</v>
+        <v>2.973500199041164</v>
       </c>
       <c r="AK10">
-        <v>2.767534393972781</v>
+        <v>2.699605636240245</v>
       </c>
       <c r="AL10">
-        <v>2.10900011947208</v>
+        <v>2.160273255464135</v>
       </c>
       <c r="AM10">
-        <v>1.972633366497731</v>
+        <v>1.989595503416297</v>
       </c>
       <c r="AN10">
-        <v>1.519071277195078</v>
+        <v>1.554162830216035</v>
       </c>
       <c r="AO10">
-        <v>1.506804334171242</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="11" spans="1:41">
@@ -1927,124 +1927,124 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="C11">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D11">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E11">
-        <v>3.525768457501783</v>
+        <v>3.574783334675335</v>
       </c>
       <c r="F11">
-        <v>2.890109268398218</v>
+        <v>2.963461010851287</v>
       </c>
       <c r="G11">
-        <v>2.820447424555885</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H11">
-        <v>2.110427443772115</v>
+        <v>2.216319443531034</v>
       </c>
       <c r="I11">
-        <v>2.097377875537593</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J11">
-        <v>1.520529969194051</v>
+        <v>1.587666640314173</v>
       </c>
       <c r="K11">
-        <v>1.50840089361606</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="L11">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="M11">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N11">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O11">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P11">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q11">
-        <v>2.762520417972152</v>
+        <v>2.813794503176995</v>
       </c>
       <c r="R11">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S11">
-        <v>1.997494172472798</v>
+        <v>2.078722381934106</v>
       </c>
       <c r="T11">
-        <v>1.514603277498504</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U11">
-        <v>1.502470074634843</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="V11">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="W11">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X11">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y11">
-        <v>3.677182326125023</v>
+        <v>3.798533402127086</v>
       </c>
       <c r="Z11">
-        <v>3.231427726519166</v>
+        <v>3.523776853968787</v>
       </c>
       <c r="AA11">
-        <v>2.914148175146449</v>
+        <v>2.982267354675286</v>
       </c>
       <c r="AB11">
-        <v>2.282239290147855</v>
+        <v>2.46859128081742</v>
       </c>
       <c r="AC11">
-        <v>2.164637084032538</v>
+        <v>2.287840262131115</v>
       </c>
       <c r="AD11">
-        <v>1.547081020827955</v>
+        <v>1.832744541695632</v>
       </c>
       <c r="AE11">
-        <v>1.525452161251381</v>
+        <v>1.600594721772856</v>
       </c>
       <c r="AF11">
-        <v>4.368985886551864</v>
+        <v>4.37387193963919</v>
       </c>
       <c r="AG11">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH11">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI11">
-        <v>3.527085757098135</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ11">
-        <v>2.866918189434105</v>
+        <v>2.97300936569004</v>
       </c>
       <c r="AK11">
-        <v>2.767128605476642</v>
+        <v>2.69996230118461</v>
       </c>
       <c r="AL11">
-        <v>2.10885245486647</v>
+        <v>2.160155993715831</v>
       </c>
       <c r="AM11">
-        <v>1.965550286744026</v>
+        <v>2.00233359439002</v>
       </c>
       <c r="AN11">
-        <v>1.519071277195078</v>
+        <v>1.54610154938797</v>
       </c>
       <c r="AO11">
-        <v>1.506758716029984</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="12" spans="1:41">
@@ -2052,112 +2052,112 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D12">
-        <v>4.208815860913093</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E12">
-        <v>3.525714492239945</v>
+        <v>3.5568442400698</v>
       </c>
       <c r="F12">
-        <v>2.902026517658301</v>
+        <v>2.963563518819184</v>
       </c>
       <c r="G12">
-        <v>2.820395866134594</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H12">
-        <v>2.110575087647683</v>
+        <v>2.216616632646245</v>
       </c>
       <c r="I12">
-        <v>2.097476420041489</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J12">
-        <v>1.520575551365979</v>
+        <v>1.597704957367429</v>
       </c>
       <c r="K12">
-        <v>1.508628961560021</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="M12">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N12">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O12">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P12">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q12">
-        <v>2.767394730579742</v>
+        <v>2.817178909836369</v>
       </c>
       <c r="R12">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S12">
-        <v>1.999664465107</v>
+        <v>2.078758631263455</v>
       </c>
       <c r="T12">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U12">
-        <v>1.502606962580777</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="W12">
-        <v>4.357555577457716</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X12">
-        <v>4.305608802370772</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y12">
-        <v>3.67733741139443</v>
+        <v>3.800092904624593</v>
       </c>
       <c r="Z12">
-        <v>3.230959537927531</v>
+        <v>3.524079756515363</v>
       </c>
       <c r="AA12">
-        <v>2.913735509717907</v>
+        <v>2.988547500772741</v>
       </c>
       <c r="AB12">
-        <v>2.282239058795708</v>
+        <v>2.465094386916684</v>
       </c>
       <c r="AC12">
-        <v>2.164986180665341</v>
+        <v>2.287499936015337</v>
       </c>
       <c r="AD12">
-        <v>1.54692355965408</v>
+        <v>1.829563945305788</v>
       </c>
       <c r="AE12">
-        <v>1.525361022048251</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AG12">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH12">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI12">
-        <v>3.527127828138703</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ12">
-        <v>2.866358722693843</v>
+        <v>2.96579722245758</v>
       </c>
       <c r="AK12">
-        <v>2.771953754570515</v>
+        <v>2.699606760553783</v>
       </c>
       <c r="AL12">
-        <v>2.10900011947208</v>
+        <v>2.160353157029342</v>
       </c>
       <c r="AM12">
-        <v>1.972290762035722</v>
+        <v>2.002427428756202</v>
       </c>
       <c r="AN12">
-        <v>1.519071277195078</v>
+        <v>1.554197067221304</v>
       </c>
       <c r="AO12">
-        <v>1.506804334171242</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="13" spans="1:41">
@@ -2165,112 +2165,112 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>4.354420475947173</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D13">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E13">
-        <v>3.525714492239945</v>
+        <v>3.556705841454188</v>
       </c>
       <c r="F13">
-        <v>2.890455101341304</v>
+        <v>2.963422014313664</v>
       </c>
       <c r="G13">
-        <v>2.820344307434905</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H13">
-        <v>2.110525873238279</v>
+        <v>2.209355512097217</v>
       </c>
       <c r="I13">
-        <v>2.097328602958155</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J13">
-        <v>1.520712297171943</v>
+        <v>1.587603962196768</v>
       </c>
       <c r="K13">
-        <v>1.508537734741536</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="M13">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N13">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O13">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P13">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q13">
-        <v>2.764769156080202</v>
+        <v>2.813681836820213</v>
       </c>
       <c r="R13">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S13">
-        <v>1.997259632021477</v>
+        <v>2.078369057979547</v>
       </c>
       <c r="T13">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U13">
-        <v>1.502652591655297</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="W13">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X13">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y13">
-        <v>3.677217480302733</v>
+        <v>3.79984852100305</v>
       </c>
       <c r="Z13">
-        <v>3.231554817107327</v>
+        <v>3.524033782827543</v>
       </c>
       <c r="AA13">
-        <v>2.913329555645531</v>
+        <v>2.988467555923701</v>
       </c>
       <c r="AB13">
-        <v>2.2821788678037</v>
+        <v>2.468559336554321</v>
       </c>
       <c r="AC13">
-        <v>2.164594099400293</v>
+        <v>2.287796629587398</v>
       </c>
       <c r="AD13">
-        <v>1.546987056512969</v>
+        <v>1.829418340547562</v>
       </c>
       <c r="AE13">
-        <v>1.525406591708693</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AG13">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH13">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI13">
-        <v>3.527101152428635</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ13">
-        <v>2.866447792992111</v>
+        <v>2.971543462986234</v>
       </c>
       <c r="AK13">
-        <v>2.767406191632772</v>
+        <v>2.699862751296128</v>
       </c>
       <c r="AL13">
-        <v>2.10900011947208</v>
+        <v>2.160626768400115</v>
       </c>
       <c r="AM13">
-        <v>1.965449312054472</v>
+        <v>2.004582708546268</v>
       </c>
       <c r="AN13">
-        <v>1.519071277195078</v>
+        <v>1.54611839478973</v>
       </c>
       <c r="AO13">
-        <v>1.5068499521926</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="14" spans="1:41">
@@ -2278,106 +2278,106 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>4.354310450762908</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D14">
-        <v>4.208759361652464</v>
+        <v>4.234198700747069</v>
       </c>
       <c r="E14">
-        <v>3.525714492239945</v>
+        <v>3.556992201999555</v>
       </c>
       <c r="F14">
-        <v>2.890025892920551</v>
+        <v>2.963345635901506</v>
       </c>
       <c r="G14">
-        <v>2.791331233028863</v>
+        <v>2.808211969304232</v>
       </c>
       <c r="H14">
-        <v>2.110427443772115</v>
+        <v>2.209167590110316</v>
       </c>
       <c r="I14">
-        <v>2.057603888051581</v>
+        <v>2.091834645673579</v>
       </c>
       <c r="J14">
-        <v>1.5206211334196</v>
+        <v>1.597767503951333</v>
       </c>
       <c r="K14">
-        <v>1.508628961560021</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="M14">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N14">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O14">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P14">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q14">
-        <v>2.76741948139969</v>
+        <v>2.820506895618409</v>
       </c>
       <c r="R14">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S14">
-        <v>1.997877883389125</v>
+        <v>2.070030514459069</v>
       </c>
       <c r="T14">
-        <v>1.514694472572406</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U14">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="W14">
-        <v>4.35750058592973</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X14">
-        <v>4.305664326639549</v>
+        <v>2.178268117732246</v>
       </c>
       <c r="Y14">
-        <v>3.665849354613424</v>
+        <v>1.665641267855876</v>
       </c>
       <c r="Z14">
-        <v>3.193987276938655</v>
+        <v>1.440258255810242</v>
       </c>
       <c r="AA14">
-        <v>2.84426575090546</v>
+        <v>1.040821890703956</v>
       </c>
       <c r="AB14">
-        <v>2.25557623839486</v>
+        <v>0.5967102714413033</v>
       </c>
       <c r="AC14">
-        <v>2.08505402161869</v>
+        <v>0.4530807629838935</v>
       </c>
       <c r="AD14">
-        <v>1.514659582475297</v>
+        <v>0.08540458202810264</v>
       </c>
       <c r="AE14">
-        <v>1.411798541089573</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH14">
-        <v>4.208081338751587</v>
+        <v>2.102138040169929</v>
       </c>
       <c r="AI14">
-        <v>3.524329099656566</v>
+        <v>1.571814907100371</v>
       </c>
       <c r="AJ14">
-        <v>2.80824403341056</v>
+        <v>1.073187006580384</v>
       </c>
       <c r="AK14">
-        <v>2.680622445173215</v>
+        <v>0.8326574675073533</v>
       </c>
       <c r="AL14">
-        <v>0.4703432914361692</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.3319357146695332</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
@@ -2391,112 +2391,112 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>4.354310450762908</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D15">
-        <v>4.208759361652464</v>
+        <v>4.234113732194927</v>
       </c>
       <c r="E15">
-        <v>3.525660526637306</v>
+        <v>3.55701496240102</v>
       </c>
       <c r="F15">
-        <v>2.901912512698176</v>
+        <v>2.963585030741839</v>
       </c>
       <c r="G15">
-        <v>2.820447424555885</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H15">
-        <v>2.110525873238279</v>
+        <v>2.209128448760641</v>
       </c>
       <c r="I15">
-        <v>2.097377875537593</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J15">
-        <v>1.520575551365979</v>
+        <v>1.59754847141761</v>
       </c>
       <c r="K15">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="M15">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N15">
-        <v>4.204916455511758</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O15">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P15">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q15">
-        <v>2.761297058998475</v>
+        <v>2.817146548451928</v>
       </c>
       <c r="R15">
-        <v>2.104470852389523</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S15">
-        <v>2.004638740816997</v>
+        <v>2.069726285875097</v>
       </c>
       <c r="T15">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U15">
-        <v>1.502470074634843</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="W15">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X15">
-        <v>4.305608802370772</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y15">
-        <v>3.677204096016933</v>
+        <v>3.798847710825367</v>
       </c>
       <c r="Z15">
-        <v>3.23089775809055</v>
+        <v>3.523947320009993</v>
       </c>
       <c r="AA15">
-        <v>2.913881338245316</v>
+        <v>2.988486303538261</v>
       </c>
       <c r="AB15">
-        <v>2.282291034183948</v>
+        <v>2.468277963980711</v>
       </c>
       <c r="AC15">
-        <v>2.164701047606664</v>
+        <v>2.287554924317916</v>
       </c>
       <c r="AD15">
-        <v>1.546947542678335</v>
+        <v>1.829663418856867</v>
       </c>
       <c r="AE15">
-        <v>1.525406591708693</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AG15">
-        <v>4.353870335352307</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH15">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI15">
-        <v>3.527064571862362</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ15">
-        <v>2.86646576552923</v>
+        <v>2.971663704617567</v>
       </c>
       <c r="AK15">
-        <v>2.767432998295992</v>
+        <v>2.699983651932115</v>
       </c>
       <c r="AL15">
-        <v>2.108950898152964</v>
+        <v>2.160263244098909</v>
       </c>
       <c r="AM15">
-        <v>1.964972176868555</v>
+        <v>2.002580563563492</v>
       </c>
       <c r="AN15">
-        <v>1.51902569111609</v>
+        <v>1.554182612246712</v>
       </c>
       <c r="AO15">
-        <v>1.506895570094061</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="16" spans="1:41">
@@ -2504,70 +2504,70 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>4.310049540189667</v>
+        <v>4.340488660629308</v>
       </c>
       <c r="D16">
-        <v>4.192809526294117</v>
+        <v>4.220041580016418</v>
       </c>
       <c r="E16">
-        <v>3.502895360619388</v>
+        <v>3.55166875939876</v>
       </c>
       <c r="F16">
-        <v>2.825457842178732</v>
+        <v>2.920176198762407</v>
       </c>
       <c r="G16">
-        <v>2.513896093784514</v>
+        <v>2.621975522213817</v>
       </c>
       <c r="H16">
-        <v>2.100432919569535</v>
+        <v>0.3226521746906597</v>
       </c>
       <c r="I16">
-        <v>1.706607910161146</v>
+        <v>0.1429107523326705</v>
       </c>
       <c r="J16">
-        <v>1.51464887509495</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.221525029529051</v>
+        <v>1.424706260866064</v>
       </c>
       <c r="M16">
-        <v>4.353540233383545</v>
+        <v>4.363437560210583</v>
       </c>
       <c r="N16">
-        <v>4.205029509095937</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O16">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P16">
-        <v>2.82740526083151</v>
+        <v>2.851949420564865</v>
       </c>
       <c r="Q16">
-        <v>2.76734313470109</v>
+        <v>2.808009603852818</v>
       </c>
       <c r="R16">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S16">
-        <v>2.004422391401147</v>
+        <v>2.069616299010371</v>
       </c>
       <c r="T16">
-        <v>1.514831264290892</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U16">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="W16">
-        <v>4.003599970093256</v>
+        <v>4.298390499006611</v>
       </c>
       <c r="X16">
-        <v>0.951719776412685</v>
+        <v>0.0331668002408243</v>
       </c>
       <c r="Y16">
-        <v>0.4720806530010984</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.2397152315185038</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2579,25 +2579,25 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <v>0.7733876461959018</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.6999204053490039</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>4.311880635480208</v>
+        <v>4.340212657042962</v>
       </c>
       <c r="AH16">
-        <v>4.174069201839584</v>
+        <v>2.087756236801347</v>
       </c>
       <c r="AI16">
-        <v>1.654469258449123</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>0.8287446483247702</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>0.5814175575937355</v>
+        <v>0</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2617,112 +2617,112 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>4.353925351062736</v>
+        <v>4.363657366449546</v>
       </c>
       <c r="D17">
-        <v>4.208363855423071</v>
+        <v>4.223379113305247</v>
       </c>
       <c r="E17">
-        <v>3.525120851863695</v>
+        <v>3.544420082257752</v>
       </c>
       <c r="F17">
-        <v>2.851997127435104</v>
+        <v>2.949222462471678</v>
       </c>
       <c r="G17">
-        <v>2.816940817105109</v>
+        <v>2.847168961505927</v>
       </c>
       <c r="H17">
-        <v>2.107326473341803</v>
+        <v>2.229724768379872</v>
       </c>
       <c r="I17">
-        <v>2.094273276233185</v>
+        <v>2.129457559813322</v>
       </c>
       <c r="J17">
-        <v>1.517794822179061</v>
+        <v>1.560981217338902</v>
       </c>
       <c r="K17">
-        <v>1.505390116012181</v>
+        <v>1.546037619024557</v>
       </c>
       <c r="M17">
-        <v>4.353540233383545</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N17">
-        <v>4.205029509095937</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O17">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P17">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q17">
-        <v>2.763300335030979</v>
+        <v>2.814229945030592</v>
       </c>
       <c r="R17">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S17">
-        <v>1.997079646462355</v>
+        <v>2.078482231605735</v>
       </c>
       <c r="T17">
-        <v>1.514785667170373</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U17">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="W17">
-        <v>4.287495714245133</v>
+        <v>4.341702966222478</v>
       </c>
       <c r="X17">
-        <v>4.158683565013397</v>
+        <v>4.277862076756742</v>
       </c>
       <c r="Y17">
-        <v>3.519054127163214</v>
+        <v>3.794002053132239</v>
       </c>
       <c r="Z17">
-        <v>3.193447161555442</v>
+        <v>3.512176843031052</v>
       </c>
       <c r="AA17">
-        <v>2.803314657778556</v>
+        <v>2.905616157736118</v>
       </c>
       <c r="AB17">
-        <v>2.115353560785506</v>
+        <v>0.4534711603674264</v>
       </c>
       <c r="AC17">
-        <v>2.084460965847463</v>
+        <v>0.15545836945475</v>
       </c>
       <c r="AD17">
-        <v>1.52310439969527</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>1.498089087397382</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>4.345978491634806</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH17">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI17">
-        <v>3.533069225174075</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ17">
-        <v>2.902728626209327</v>
+        <v>2.949900396845873</v>
       </c>
       <c r="AK17">
-        <v>2.76530928399625</v>
+        <v>0</v>
       </c>
       <c r="AL17">
-        <v>2.10900011947208</v>
+        <v>0</v>
       </c>
       <c r="AM17">
-        <v>1.963700527120548</v>
+        <v>1.984269633963599</v>
       </c>
       <c r="AN17">
-        <v>1.519162448997618</v>
+        <v>1.553178372204804</v>
       </c>
       <c r="AO17">
-        <v>1.506986805537321</v>
+        <v>1.547630635902873</v>
       </c>
     </row>
     <row r="18" spans="1:41">
@@ -2730,61 +2730,61 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>4.270041643175901</v>
+        <v>4.315281707020137</v>
       </c>
       <c r="D18">
-        <v>4.149217522439079</v>
+        <v>4.182858702753354</v>
       </c>
       <c r="E18">
-        <v>3.462319332188629</v>
+        <v>3.53198453265531</v>
       </c>
       <c r="F18">
-        <v>2.824639649690045</v>
+        <v>2.925188933720875</v>
       </c>
       <c r="G18">
-        <v>2.449121056852237</v>
+        <v>0.6802171658406237</v>
       </c>
       <c r="H18">
-        <v>2.103289002760418</v>
+        <v>0.3424799746014655</v>
       </c>
       <c r="I18">
-        <v>1.727589791685001</v>
+        <v>1.82506116495005</v>
       </c>
       <c r="J18">
-        <v>1.51396489865146</v>
+        <v>1.557087274677732</v>
       </c>
       <c r="K18">
-        <v>1.38065484839041</v>
+        <v>1.514498692306001</v>
       </c>
       <c r="M18">
-        <v>4.353485215104238</v>
+        <v>4.363437560210583</v>
       </c>
       <c r="N18">
-        <v>4.205029509095937</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O18">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P18">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q18">
-        <v>2.75971141629394</v>
+        <v>2.813814160141381</v>
       </c>
       <c r="R18">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S18">
-        <v>1.994020665631324</v>
+        <v>2.083337370132384</v>
       </c>
       <c r="T18">
-        <v>1.514603277498504</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U18">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="W18">
-        <v>4.129728006476443</v>
+        <v>4.298390499006611</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -2811,16 +2811,16 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>4.332812297756345</v>
+        <v>4.340157455212246</v>
       </c>
       <c r="AH18">
-        <v>4.135792896812471</v>
+        <v>2.028226359024595</v>
       </c>
       <c r="AI18">
-        <v>1.387532895243196</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>0.6910089462117113</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -2843,112 +2843,112 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D19">
-        <v>4.208759361652464</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E19">
-        <v>3.524904972408138</v>
+        <v>3.544904701213137</v>
       </c>
       <c r="F19">
-        <v>2.860301853693487</v>
+        <v>2.963284542015924</v>
       </c>
       <c r="G19">
-        <v>2.74494311676285</v>
+        <v>2.84696329763263</v>
       </c>
       <c r="H19">
-        <v>2.10708032782101</v>
+        <v>2.229743892187397</v>
       </c>
       <c r="I19">
-        <v>2.033818021097358</v>
+        <v>2.130489287933325</v>
       </c>
       <c r="J19">
-        <v>1.512824878369396</v>
+        <v>1.561295928222928</v>
       </c>
       <c r="K19">
-        <v>1.499275714615436</v>
+        <v>1.546083135753841</v>
       </c>
       <c r="M19">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N19">
-        <v>4.205029509095937</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O19">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P19">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q19">
-        <v>2.76106699296388</v>
+        <v>2.814054027710291</v>
       </c>
       <c r="R19">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S19">
-        <v>1.997671137799568</v>
+        <v>2.080081069090776</v>
       </c>
       <c r="T19">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U19">
-        <v>1.502424445078726</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="W19">
-        <v>4.321220037305512</v>
+        <v>4.366294587198146</v>
       </c>
       <c r="X19">
-        <v>4.216981830666489</v>
+        <v>4.318812859991644</v>
       </c>
       <c r="Y19">
-        <v>3.440896246068424</v>
+        <v>3.799048146877103</v>
       </c>
       <c r="Z19">
-        <v>3.098896510226465</v>
+        <v>3.52395966704088</v>
       </c>
       <c r="AA19">
-        <v>2.574967282815929</v>
+        <v>0.8780035937157882</v>
       </c>
       <c r="AB19">
-        <v>2.01394573716345</v>
+        <v>0.4825936631250032</v>
       </c>
       <c r="AC19">
-        <v>2.003404475508706</v>
+        <v>0.1400715428709391</v>
       </c>
       <c r="AD19">
-        <v>1.408831591789764</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>1.421695570208137</v>
+        <v>1.5477739296936</v>
       </c>
       <c r="AG19">
-        <v>4.345923379507673</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH19">
-        <v>4.173140941539373</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI19">
-        <v>3.48536542869688</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ19">
-        <v>2.82518405847256</v>
+        <v>2.964660197965607</v>
       </c>
       <c r="AK19">
-        <v>2.654225136207911</v>
+        <v>1.156731983952258</v>
       </c>
       <c r="AL19">
-        <v>2.169535379334969</v>
+        <v>2.208666359780425</v>
       </c>
       <c r="AM19">
-        <v>2.017448676938707</v>
+        <v>1.977392631492681</v>
       </c>
       <c r="AN19">
-        <v>1.526330442030348</v>
+        <v>1.542719029070173</v>
       </c>
       <c r="AO19">
-        <v>1.497313171563195</v>
+        <v>1.533625911898626</v>
       </c>
     </row>
     <row r="20" spans="1:41">
@@ -2956,79 +2956,79 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.354365463538436</v>
+        <v>4.364151909188386</v>
       </c>
       <c r="D20">
-        <v>4.208815860913093</v>
+        <v>4.234021130383714</v>
       </c>
       <c r="E20">
-        <v>3.525822422422836</v>
+        <v>3.556742492318198</v>
       </c>
       <c r="F20">
-        <v>2.890058328883075</v>
+        <v>2.963494671833124</v>
       </c>
       <c r="G20">
-        <v>2.780876922234219</v>
+        <v>2.761394987052148</v>
       </c>
       <c r="H20">
-        <v>2.110525873238279</v>
+        <v>2.208837200828973</v>
       </c>
       <c r="I20">
-        <v>2.01901322707649</v>
+        <v>2.018432669341619</v>
       </c>
       <c r="J20">
-        <v>1.520712297171943</v>
+        <v>1.597526446896363</v>
       </c>
       <c r="K20">
-        <v>1.50844650744426</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="M20">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N20">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O20">
-        <v>3.521558142529205</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P20">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q20">
-        <v>2.767090102080457</v>
+        <v>2.816947536764687</v>
       </c>
       <c r="R20">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S20">
-        <v>1.997568486415192</v>
+        <v>2.075841800267144</v>
       </c>
       <c r="T20">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U20">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="W20">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X20">
-        <v>4.235748238102348</v>
+        <v>1.031556703082754</v>
       </c>
       <c r="Y20">
-        <v>1.799874942556945</v>
+        <v>0.1108913384856853</v>
       </c>
       <c r="Z20">
-        <v>1.565498324787769</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>1.220229415300642</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0.6117167942342974</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.4975584404050231</v>
+        <v>0</v>
       </c>
       <c r="AD20">
         <v>0</v>
@@ -3037,25 +3037,25 @@
         <v>0</v>
       </c>
       <c r="AG20">
-        <v>4.353870335352307</v>
+        <v>4.363987064885042</v>
       </c>
       <c r="AH20">
-        <v>4.186103945754448</v>
+        <v>1.292578819548279</v>
       </c>
       <c r="AI20">
-        <v>1.696552111724235</v>
+        <v>0.1015133996582103</v>
       </c>
       <c r="AJ20">
-        <v>1.165113466175903</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>0.1084014153365662</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>0.4196333319518255</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>1.878218668519504</v>
+        <v>0</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -3069,109 +3069,109 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>4.354365463538436</v>
+        <v>4.364096961451256</v>
       </c>
       <c r="D21">
-        <v>4.208872359766458</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E21">
-        <v>3.525660526637306</v>
+        <v>3.556686927768046</v>
       </c>
       <c r="F21">
-        <v>2.890531217289582</v>
+        <v>2.963641621969613</v>
       </c>
       <c r="G21">
-        <v>2.817098957401387</v>
+        <v>2.820970453102598</v>
       </c>
       <c r="H21">
-        <v>2.110575087647683</v>
+        <v>2.208930868384889</v>
       </c>
       <c r="I21">
-        <v>2.094257263418386</v>
+        <v>2.109195114872928</v>
       </c>
       <c r="J21">
-        <v>1.520712297171943</v>
+        <v>1.597581531564213</v>
       </c>
       <c r="K21">
-        <v>1.50844650744426</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="M21">
-        <v>4.353485215104238</v>
+        <v>4.363382607740455</v>
       </c>
       <c r="N21">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O21">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P21">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q21">
-        <v>2.760737427482311</v>
+        <v>2.817356491068979</v>
       </c>
       <c r="R21">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S21">
-        <v>2.004637821857898</v>
+        <v>2.078919196493035</v>
       </c>
       <c r="T21">
-        <v>1.51464887509495</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U21">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="W21">
-        <v>4.357555577457716</v>
+        <v>4.366349520388908</v>
       </c>
       <c r="X21">
-        <v>4.305664326639549</v>
+        <v>1.698643009434498</v>
       </c>
       <c r="Y21">
-        <v>3.672670467687783</v>
+        <v>1.765432050375809</v>
       </c>
       <c r="Z21">
-        <v>3.20669406763262</v>
+        <v>1.58596196910126</v>
       </c>
       <c r="AA21">
-        <v>2.874210203007468</v>
+        <v>1.167697515332538</v>
       </c>
       <c r="AB21">
-        <v>2.27802970913821</v>
+        <v>0.2430641242016571</v>
       </c>
       <c r="AC21">
-        <v>2.131489566771874</v>
+        <v>0.5594969695521972</v>
       </c>
       <c r="AD21">
-        <v>1.539304468473303</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>1.45833322456107</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>4.353815319274944</v>
+        <v>4.36393211605592</v>
       </c>
       <c r="AH21">
-        <v>4.208081338751587</v>
+        <v>2.14980468035741</v>
       </c>
       <c r="AI21">
-        <v>3.514000002484418</v>
+        <v>1.106601037869828</v>
       </c>
       <c r="AJ21">
-        <v>2.851275205381552</v>
+        <v>0.6659607140373562</v>
       </c>
       <c r="AK21">
-        <v>2.739539441829953</v>
+        <v>0.4233335608270383</v>
       </c>
       <c r="AL21">
-        <v>1.974265485671655</v>
+        <v>0.01843497613383449</v>
       </c>
       <c r="AM21">
-        <v>1.848641345876984</v>
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>1.318047105764522</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <v>0</v>
@@ -3182,58 +3182,58 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>3.852268932323359</v>
+        <v>4.135343174818435</v>
       </c>
       <c r="E22">
-        <v>3.160485058955484</v>
+        <v>1.418123830276258</v>
       </c>
       <c r="F22">
-        <v>2.572905693456056</v>
+        <v>0.7588014354706307</v>
       </c>
       <c r="G22">
-        <v>2.250538523770722</v>
+        <v>0.582858434675076</v>
       </c>
       <c r="H22">
-        <v>1.937234393568785</v>
+        <v>0.09128627073622497</v>
       </c>
       <c r="I22">
-        <v>1.540144580056266</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1.448704760706233</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.215792464094556</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4.204916455511758</v>
+        <v>4.220897362258416</v>
       </c>
       <c r="O22">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P22">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q22">
-        <v>2.75900456830934</v>
+        <v>2.807957996240944</v>
       </c>
       <c r="R22">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S22">
-        <v>2.006735159564628</v>
+        <v>2.072628335901685</v>
       </c>
       <c r="T22">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U22">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="X22">
-        <v>0.7407958747546941</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>0.123659205061325</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3254,10 +3254,10 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>1.72408513439103</v>
+        <v>0.09001554014093838</v>
       </c>
       <c r="AI22">
-        <v>1.048300944412224</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
         <v>0</v>
@@ -3283,100 +3283,100 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>4.208815860913093</v>
+        <v>4.23401822681235</v>
       </c>
       <c r="E23">
-        <v>3.525768457501783</v>
+        <v>3.556685373254791</v>
       </c>
       <c r="F23">
-        <v>2.890007389107182</v>
+        <v>2.965965248143254</v>
       </c>
       <c r="G23">
-        <v>2.820447424555885</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H23">
-        <v>2.110575087647683</v>
+        <v>2.209107932192259</v>
       </c>
       <c r="I23">
-        <v>2.097328602958155</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J23">
-        <v>1.52066671535492</v>
+        <v>1.587558364862778</v>
       </c>
       <c r="K23">
-        <v>1.50840089361606</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="N23">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O23">
-        <v>3.521666125280912</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P23">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q23">
-        <v>2.757785053253758</v>
+        <v>2.817544000717433</v>
       </c>
       <c r="R23">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S23">
-        <v>1.993599641515188</v>
+        <v>2.075391039467008</v>
       </c>
       <c r="T23">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U23">
-        <v>1.502561333385865</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="X23">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y23">
-        <v>3.677171905785213</v>
+        <v>3.793768918228408</v>
       </c>
       <c r="Z23">
-        <v>3.231512210357734</v>
+        <v>3.523906507471282</v>
       </c>
       <c r="AA23">
-        <v>2.913684795861267</v>
+        <v>2.988229569383162</v>
       </c>
       <c r="AB23">
-        <v>2.282254493992256</v>
+        <v>2.471992383494205</v>
       </c>
       <c r="AC23">
-        <v>2.165127627922249</v>
+        <v>2.288591922393149</v>
       </c>
       <c r="AD23">
-        <v>1.547055610698249</v>
+        <v>1.812507967145194</v>
       </c>
       <c r="AE23">
-        <v>1.525452161251381</v>
+        <v>1.600824161532401</v>
       </c>
       <c r="AH23">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI23">
-        <v>3.527112910094099</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ23">
-        <v>2.866474773964023</v>
+        <v>2.964004504826025</v>
       </c>
       <c r="AK23">
-        <v>2.767409566539299</v>
+        <v>2.699663265044935</v>
       </c>
       <c r="AL23">
-        <v>2.10900011947208</v>
+        <v>2.139762517483587</v>
       </c>
       <c r="AM23">
-        <v>1.965813381461644</v>
+        <v>1.998142830516124</v>
       </c>
       <c r="AN23">
-        <v>1.51902569111609</v>
+        <v>1.554195662079398</v>
       </c>
       <c r="AO23">
-        <v>1.506895570094061</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="24" spans="1:41">
@@ -3384,70 +3384,70 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>4.208815860913093</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E24">
-        <v>3.525660526637306</v>
+        <v>3.556899575927475</v>
       </c>
       <c r="F24">
-        <v>2.901953780492716</v>
+        <v>2.963504906049863</v>
       </c>
       <c r="G24">
-        <v>2.766692773215484</v>
+        <v>2.759174264664692</v>
       </c>
       <c r="H24">
-        <v>2.110575087647683</v>
+        <v>2.209105021476474</v>
       </c>
       <c r="I24">
-        <v>2.011058224411396</v>
+        <v>2.015008099560691</v>
       </c>
       <c r="J24">
-        <v>1.520757878870674</v>
+        <v>1.597626391629467</v>
       </c>
       <c r="K24">
-        <v>1.508583348210625</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="N24">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O24">
-        <v>3.521612134076021</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P24">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q24">
-        <v>2.764705841720609</v>
+        <v>2.814005455566152</v>
       </c>
       <c r="R24">
-        <v>2.104520093411275</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S24">
-        <v>1.999743481254926</v>
+        <v>2.081734110199723</v>
       </c>
       <c r="T24">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U24">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="X24">
-        <v>4.248229690051305</v>
+        <v>1.017252317968198</v>
       </c>
       <c r="Y24">
-        <v>1.8576178544589</v>
+        <v>0.765182608325127</v>
       </c>
       <c r="Z24">
-        <v>1.552668882719124</v>
+        <v>0.5164249646694794</v>
       </c>
       <c r="AA24">
-        <v>1.122436797566568</v>
+        <v>0.2113213343540736</v>
       </c>
       <c r="AB24">
-        <v>0.6151324575503778</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.5296029647316123</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -3456,16 +3456,16 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>4.153456168095641</v>
+        <v>2.057553884658901</v>
       </c>
       <c r="AI24">
-        <v>2.994368555000456</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>1.017606940383605</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>0.8213483985091199</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3485,94 +3485,94 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>3.854993629165308</v>
+        <v>4.143185369430272</v>
       </c>
       <c r="E25">
-        <v>3.179307214140015</v>
+        <v>1.40585217480383</v>
       </c>
       <c r="F25">
-        <v>2.572851867070444</v>
+        <v>0.8172878875073548</v>
       </c>
       <c r="G25">
-        <v>2.4662796968049</v>
+        <v>0.7577127381428435</v>
       </c>
       <c r="H25">
-        <v>1.961322506075627</v>
+        <v>0.1241009666014066</v>
       </c>
       <c r="I25">
-        <v>1.797756092286613</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1.453210378997069</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.347371238043594</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>4.204916455511758</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O25">
-        <v>3.521558142529205</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P25">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q25">
-        <v>2.759519218386837</v>
+        <v>2.807432913636767</v>
       </c>
       <c r="R25">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S25">
-        <v>2.002449757735662</v>
+        <v>2.090491551020616</v>
       </c>
       <c r="T25">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U25">
-        <v>1.502424445078726</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="X25">
-        <v>3.617210375389097</v>
+        <v>0.7967504291214613</v>
       </c>
       <c r="Y25">
-        <v>2.906586446962443</v>
+        <v>0.4491362599530335</v>
       </c>
       <c r="Z25">
-        <v>2.597602739921027</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>2.252612141024613</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>1.672621228622607</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>1.668708469599962</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1.118055016784594</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>3.909458491548861</v>
+        <v>2.11180697844113</v>
       </c>
       <c r="AI25">
-        <v>3.246031017990387</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>0.7513480425099426</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>0.5225252686570436</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>0.04147593124249949</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <v>0</v>
@@ -3586,100 +3586,100 @@
         <v>24</v>
       </c>
       <c r="D26">
-        <v>4.208759361652464</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E26">
-        <v>3.525714492239945</v>
+        <v>3.557068939766367</v>
       </c>
       <c r="F26">
-        <v>2.890058328883075</v>
+        <v>2.96422686621906</v>
       </c>
       <c r="G26">
-        <v>2.809076789153777</v>
+        <v>2.841518996818134</v>
       </c>
       <c r="H26">
-        <v>2.110476658613093</v>
+        <v>2.208793813956159</v>
       </c>
       <c r="I26">
-        <v>2.048303931305905</v>
+        <v>2.128905370151751</v>
       </c>
       <c r="J26">
-        <v>1.52066671535492</v>
+        <v>1.596624818435861</v>
       </c>
       <c r="K26">
-        <v>1.50844650744426</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="N26">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O26">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P26">
-        <v>2.827353739882428</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q26">
-        <v>2.760766561178128</v>
+        <v>2.810625773325501</v>
       </c>
       <c r="R26">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S26">
-        <v>1.995073892645231</v>
+        <v>2.078428457604863</v>
       </c>
       <c r="T26">
-        <v>1.514740069930878</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U26">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="X26">
-        <v>4.305664326639549</v>
+        <v>3.620031308487663</v>
       </c>
       <c r="Y26">
-        <v>3.662795704763489</v>
+        <v>1.742249538834167</v>
       </c>
       <c r="Z26">
-        <v>3.189029151637032</v>
+        <v>1.44434260606223</v>
       </c>
       <c r="AA26">
-        <v>2.84431715952172</v>
+        <v>0.9790175221183866</v>
       </c>
       <c r="AB26">
-        <v>2.277104942257688</v>
+        <v>0.6147214393352536</v>
       </c>
       <c r="AC26">
-        <v>2.084771265684776</v>
+        <v>0.4297991824612228</v>
       </c>
       <c r="AD26">
-        <v>1.554023393453096</v>
+        <v>0.0717912081808938</v>
       </c>
       <c r="AE26">
-        <v>1.454428473770624</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>4.204993801499107</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI26">
-        <v>3.527928803798036</v>
+        <v>3.546644886073344</v>
       </c>
       <c r="AJ26">
-        <v>2.866152994011363</v>
+        <v>2.979115771986082</v>
       </c>
       <c r="AK26">
-        <v>2.633731116875356</v>
+        <v>1.162488223151717</v>
       </c>
       <c r="AL26">
-        <v>2.06159981038389</v>
+        <v>2.150223202748313</v>
       </c>
       <c r="AM26">
-        <v>1.936516582367151</v>
+        <v>2.009653771203864</v>
       </c>
       <c r="AN26">
-        <v>1.333369333736554</v>
+        <v>1.556744823480682</v>
       </c>
       <c r="AO26">
-        <v>1.466407508820452</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="27" spans="1:41">
@@ -3687,100 +3687,100 @@
         <v>25</v>
       </c>
       <c r="D27">
-        <v>4.208815860913093</v>
+        <v>4.223773865407136</v>
       </c>
       <c r="E27">
-        <v>3.525768457501783</v>
+        <v>3.556791489065525</v>
       </c>
       <c r="F27">
-        <v>2.890262048057761</v>
+        <v>2.963479318973974</v>
       </c>
       <c r="G27">
-        <v>2.820447424555885</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H27">
-        <v>2.110476658613093</v>
+        <v>2.209298388999724</v>
       </c>
       <c r="I27">
-        <v>2.097328602958155</v>
+        <v>2.132257747261938</v>
       </c>
       <c r="J27">
-        <v>1.5206211334196</v>
+        <v>1.597631666983871</v>
       </c>
       <c r="K27">
-        <v>1.508537734741536</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="N27">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O27">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P27">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q27">
-        <v>2.767337304664955</v>
+        <v>2.814111498424655</v>
       </c>
       <c r="R27">
-        <v>2.104372369695162</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S27">
-        <v>1.997162908283868</v>
+        <v>2.078739026314601</v>
       </c>
       <c r="T27">
-        <v>1.51464887509495</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U27">
-        <v>1.502561333385865</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="X27">
-        <v>4.305664326639549</v>
+        <v>4.318701990909823</v>
       </c>
       <c r="Y27">
-        <v>3.677253955331075</v>
+        <v>3.79865026201671</v>
       </c>
       <c r="Z27">
-        <v>3.231655125070523</v>
+        <v>3.524107158284307</v>
       </c>
       <c r="AA27">
-        <v>2.913938362597551</v>
+        <v>2.988296084034874</v>
       </c>
       <c r="AB27">
-        <v>2.28219599673064</v>
+        <v>2.472278077833099</v>
       </c>
       <c r="AC27">
-        <v>2.164955848703569</v>
+        <v>2.287421529010207</v>
       </c>
       <c r="AD27">
-        <v>1.546958876219512</v>
+        <v>1.829394910037233</v>
       </c>
       <c r="AE27">
-        <v>1.525452161251381</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AH27">
-        <v>4.208081338751587</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI27">
-        <v>3.527044459823486</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ27">
-        <v>2.866404348116453</v>
+        <v>2.97334232734594</v>
       </c>
       <c r="AK27">
-        <v>2.770249567559459</v>
+        <v>2.699706707298228</v>
       </c>
       <c r="AL27">
-        <v>2.10900011947208</v>
+        <v>2.160134129618439</v>
       </c>
       <c r="AM27">
-        <v>1.965289529984534</v>
+        <v>2.002014861871862</v>
       </c>
       <c r="AN27">
-        <v>1.51902569111609</v>
+        <v>1.554048061538072</v>
       </c>
       <c r="AO27">
-        <v>1.5068499521926</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="28" spans="1:41">
@@ -3788,100 +3788,100 @@
         <v>26</v>
       </c>
       <c r="D28">
-        <v>4.208815860913093</v>
+        <v>4.234327206253202</v>
       </c>
       <c r="E28">
-        <v>3.525714492239945</v>
+        <v>3.556769344817003</v>
       </c>
       <c r="F28">
-        <v>2.890432844740726</v>
+        <v>2.96385375242367</v>
       </c>
       <c r="G28">
-        <v>2.820344307434905</v>
+        <v>2.908216172900207</v>
       </c>
       <c r="H28">
-        <v>2.110476658613093</v>
+        <v>2.216431787686562</v>
       </c>
       <c r="I28">
-        <v>2.097377875537593</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J28">
-        <v>1.5206211334196</v>
+        <v>1.594617195096208</v>
       </c>
       <c r="K28">
-        <v>1.508537734741536</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="N28">
-        <v>4.204972982508084</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O28">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P28">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q28">
-        <v>2.764529393015717</v>
+        <v>2.813853127954465</v>
       </c>
       <c r="R28">
-        <v>2.104372369695162</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S28">
-        <v>1.999940363763299</v>
+        <v>2.081532555851471</v>
       </c>
       <c r="T28">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U28">
-        <v>1.502470074634843</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="X28">
-        <v>4.305608802370772</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y28">
-        <v>3.677184682939895</v>
+        <v>3.799823165613914</v>
       </c>
       <c r="Z28">
-        <v>3.227306353212112</v>
+        <v>3.523999146242438</v>
       </c>
       <c r="AA28">
-        <v>2.913786223319847</v>
+        <v>2.988528501489003</v>
       </c>
       <c r="AB28">
-        <v>2.282347178311733</v>
+        <v>2.465286099788756</v>
       </c>
       <c r="AC28">
-        <v>2.164750615003394</v>
+        <v>2.287773288498288</v>
       </c>
       <c r="AD28">
-        <v>1.546915522027731</v>
+        <v>1.829603650255782</v>
       </c>
       <c r="AE28">
-        <v>1.525497730676322</v>
+        <v>1.604251915909347</v>
       </c>
       <c r="AH28">
-        <v>4.20813784290081</v>
+        <v>4.223266323365979</v>
       </c>
       <c r="AI28">
-        <v>3.527116889573092</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ28">
-        <v>2.866455969606075</v>
+        <v>2.973057181983826</v>
       </c>
       <c r="AK28">
-        <v>2.767490754059715</v>
+        <v>2.699606910196329</v>
       </c>
       <c r="AL28">
-        <v>2.10900011947208</v>
+        <v>2.160559691036895</v>
       </c>
       <c r="AM28">
-        <v>1.965295571083255</v>
+        <v>2.00259640348487</v>
       </c>
       <c r="AN28">
-        <v>1.519071277195078</v>
+        <v>1.554155670763872</v>
       </c>
       <c r="AO28">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="29" spans="1:41">
@@ -3889,100 +3889,100 @@
         <v>27</v>
       </c>
       <c r="D29">
-        <v>4.208759361652464</v>
+        <v>4.23412446582928</v>
       </c>
       <c r="E29">
-        <v>3.525660526637306</v>
+        <v>3.55686554497347</v>
       </c>
       <c r="F29">
-        <v>2.889938681243798</v>
+        <v>2.963630846230472</v>
       </c>
       <c r="G29">
-        <v>2.820447424555885</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H29">
-        <v>2.110525873238279</v>
+        <v>2.209092206213657</v>
       </c>
       <c r="I29">
-        <v>2.097476420041489</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J29">
-        <v>1.520575551365979</v>
+        <v>1.597703698048132</v>
       </c>
       <c r="K29">
-        <v>1.508537734741536</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="N29">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O29">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P29">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q29">
-        <v>2.764292188873349</v>
+        <v>2.81426974839296</v>
       </c>
       <c r="R29">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S29">
-        <v>1.997820778429603</v>
+        <v>2.081274552455233</v>
       </c>
       <c r="T29">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U29">
-        <v>1.502652591655297</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="X29">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y29">
-        <v>3.677065048319203</v>
+        <v>3.79860551049588</v>
       </c>
       <c r="Z29">
-        <v>3.231798200813094</v>
+        <v>3.52394922709446</v>
       </c>
       <c r="AA29">
-        <v>2.913561812190725</v>
+        <v>2.988476390451032</v>
       </c>
       <c r="AB29">
-        <v>2.282329409007489</v>
+        <v>2.472172687870159</v>
       </c>
       <c r="AC29">
-        <v>2.164817980420547</v>
+        <v>2.287410252358405</v>
       </c>
       <c r="AD29">
-        <v>1.546883420284425</v>
+        <v>1.828976510486425</v>
       </c>
       <c r="AE29">
-        <v>1.525452161251381</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AH29">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI29">
-        <v>3.527069570932215</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ29">
-        <v>2.866434604346875</v>
+        <v>2.971784087986589</v>
       </c>
       <c r="AK29">
-        <v>2.767606796231773</v>
+        <v>2.699878520521659</v>
       </c>
       <c r="AL29">
-        <v>2.108950898152964</v>
+        <v>2.160545618941625</v>
       </c>
       <c r="AM29">
-        <v>1.972612672799218</v>
+        <v>2.003125230366837</v>
       </c>
       <c r="AN29">
-        <v>1.51902569111609</v>
+        <v>1.554089449387577</v>
       </c>
       <c r="AO29">
-        <v>1.506758716029984</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="30" spans="1:41">
@@ -3990,100 +3990,100 @@
         <v>28</v>
       </c>
       <c r="D30">
-        <v>4.208759361652464</v>
+        <v>4.234017103747573</v>
       </c>
       <c r="E30">
-        <v>3.525768457501783</v>
+        <v>3.556757706456366</v>
       </c>
       <c r="F30">
-        <v>2.902074361279274</v>
+        <v>2.973075040566084</v>
       </c>
       <c r="G30">
-        <v>2.820395866134594</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H30">
-        <v>2.110575087647683</v>
+        <v>2.1863388715112</v>
       </c>
       <c r="I30">
-        <v>2.097476420041489</v>
+        <v>2.171785739145265</v>
       </c>
       <c r="J30">
-        <v>1.520575551365979</v>
+        <v>1.597568606323056</v>
       </c>
       <c r="K30">
-        <v>1.50840089361606</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="N30">
-        <v>4.204972982508084</v>
+        <v>4.22095377436117</v>
       </c>
       <c r="O30">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P30">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q30">
-        <v>2.764651014639461</v>
+        <v>2.817012482960652</v>
       </c>
       <c r="R30">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S30">
-        <v>1.997140866466206</v>
+        <v>2.075736581357356</v>
       </c>
       <c r="T30">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U30">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="X30">
-        <v>4.305719850526982</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y30">
-        <v>3.677157652448939</v>
+        <v>3.798707510667002</v>
       </c>
       <c r="Z30">
-        <v>3.231231190016969</v>
+        <v>3.524149481491392</v>
       </c>
       <c r="AA30">
-        <v>2.913684795861267</v>
+        <v>2.988206540664223</v>
       </c>
       <c r="AB30">
-        <v>2.282386646813957</v>
+        <v>2.472264217403921</v>
       </c>
       <c r="AC30">
-        <v>2.164701282896415</v>
+        <v>2.287377327935471</v>
       </c>
       <c r="AD30">
-        <v>1.547043757716951</v>
+        <v>1.829390472030787</v>
       </c>
       <c r="AE30">
-        <v>1.525452161251381</v>
+        <v>1.600646615773157</v>
       </c>
       <c r="AH30">
-        <v>4.208081338751587</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI30">
-        <v>3.527126614594216</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ30">
-        <v>2.866648128542467</v>
+        <v>2.96704805828661</v>
       </c>
       <c r="AK30">
-        <v>2.767488912695669</v>
+        <v>2.699692310837427</v>
       </c>
       <c r="AL30">
-        <v>2.108901676617765</v>
+        <v>2.160184573643987</v>
       </c>
       <c r="AM30">
-        <v>1.965487282273917</v>
+        <v>2.002932457041987</v>
       </c>
       <c r="AN30">
-        <v>1.519071277195078</v>
+        <v>1.554146749039265</v>
       </c>
       <c r="AO30">
-        <v>1.506804334171242</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="31" spans="1:41">
@@ -4091,100 +4091,100 @@
         <v>29</v>
       </c>
       <c r="D31">
-        <v>4.208759361652464</v>
+        <v>4.223830256953916</v>
       </c>
       <c r="E31">
-        <v>3.525714492239945</v>
+        <v>3.55700543549267</v>
       </c>
       <c r="F31">
-        <v>2.890109268398218</v>
+        <v>2.972883611267587</v>
       </c>
       <c r="G31">
-        <v>2.820395866134594</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H31">
-        <v>2.110476658613093</v>
+        <v>2.209309634456128</v>
       </c>
       <c r="I31">
-        <v>2.097377875537593</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J31">
-        <v>1.520940204482798</v>
+        <v>1.597710265781712</v>
       </c>
       <c r="K31">
-        <v>1.50844650744426</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="N31">
-        <v>4.204916455511758</v>
+        <v>4.221010186060432</v>
       </c>
       <c r="O31">
-        <v>3.521666125280912</v>
+        <v>3.541834988320643</v>
       </c>
       <c r="P31">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q31">
-        <v>2.761887562623478</v>
+        <v>2.813883781710061</v>
       </c>
       <c r="R31">
-        <v>2.104372369695162</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S31">
-        <v>1.997727100408713</v>
+        <v>2.081502109707742</v>
       </c>
       <c r="T31">
-        <v>1.514694472572406</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U31">
-        <v>1.502606962580777</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="X31">
-        <v>4.305664326639549</v>
+        <v>4.318757425639461</v>
       </c>
       <c r="Y31">
-        <v>3.677151026712056</v>
+        <v>3.798670869429757</v>
       </c>
       <c r="Z31">
-        <v>3.23125956446271</v>
+        <v>3.523943450731165</v>
       </c>
       <c r="AA31">
-        <v>2.91354967846849</v>
+        <v>2.988308149179285</v>
       </c>
       <c r="AB31">
-        <v>2.282241501386322</v>
+        <v>2.472461177625447</v>
       </c>
       <c r="AC31">
-        <v>2.164857175689936</v>
+        <v>2.287358970411335</v>
       </c>
       <c r="AD31">
-        <v>1.546947892667958</v>
+        <v>1.829352411012079</v>
       </c>
       <c r="AE31">
-        <v>1.525406591708693</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AH31">
-        <v>4.20813784290081</v>
+        <v>4.223209927792182</v>
       </c>
       <c r="AI31">
-        <v>3.527100103995877</v>
+        <v>3.544258536563716</v>
       </c>
       <c r="AJ31">
-        <v>2.866679020259734</v>
+        <v>2.973119996948929</v>
       </c>
       <c r="AK31">
-        <v>2.770069162194086</v>
+        <v>2.699696001137585</v>
       </c>
       <c r="AL31">
-        <v>2.108950898152964</v>
+        <v>2.160327779864586</v>
       </c>
       <c r="AM31">
-        <v>1.972645225533169</v>
+        <v>2.002823496793086</v>
       </c>
       <c r="AN31">
-        <v>1.51902569111609</v>
+        <v>1.54623201845932</v>
       </c>
       <c r="AO31">
-        <v>1.5068499521926</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="32" spans="1:41">
@@ -4192,88 +4192,88 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <v>3.525660526637306</v>
+        <v>3.557101173075413</v>
       </c>
       <c r="F32">
-        <v>2.889621567839874</v>
+        <v>2.963773460717184</v>
       </c>
       <c r="G32">
-        <v>2.820395866134594</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H32">
-        <v>2.110525873238279</v>
+        <v>2.208867110764345</v>
       </c>
       <c r="I32">
-        <v>2.097427147898701</v>
+        <v>2.132503344909028</v>
       </c>
       <c r="J32">
-        <v>1.5206211334196</v>
+        <v>1.597700343492446</v>
       </c>
       <c r="K32">
-        <v>1.508583348210625</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="O32">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P32">
-        <v>2.82740526083151</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q32">
-        <v>2.767728642992104</v>
+        <v>2.817459887811974</v>
       </c>
       <c r="R32">
-        <v>2.104470852389523</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S32">
-        <v>1.997322426213458</v>
+        <v>2.07543439155301</v>
       </c>
       <c r="T32">
-        <v>1.514694472572406</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U32">
-        <v>1.502515704070555</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="Y32">
-        <v>3.680764228743304</v>
+        <v>3.798503730588062</v>
       </c>
       <c r="Z32">
-        <v>3.231522342706659</v>
+        <v>3.524005954852814</v>
       </c>
       <c r="AA32">
-        <v>2.913836936667091</v>
+        <v>2.988563245908267</v>
       </c>
       <c r="AB32">
-        <v>2.28226312323866</v>
+        <v>2.47204629163591</v>
       </c>
       <c r="AC32">
-        <v>2.197360043641476</v>
+        <v>2.287758049970737</v>
       </c>
       <c r="AD32">
-        <v>1.546874277962855</v>
+        <v>1.829465360823987</v>
       </c>
       <c r="AE32">
-        <v>1.525406591708693</v>
+        <v>1.600619451599119</v>
       </c>
       <c r="AI32">
-        <v>3.5271163414182</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ32">
-        <v>2.866430919038785</v>
+        <v>2.964085041146541</v>
       </c>
       <c r="AK32">
-        <v>2.767434950997133</v>
+        <v>2.705153861194349</v>
       </c>
       <c r="AL32">
-        <v>2.108901676617765</v>
+        <v>2.160650090950419</v>
       </c>
       <c r="AM32">
-        <v>1.972730975798107</v>
+        <v>2.005020901352913</v>
       </c>
       <c r="AN32">
-        <v>1.519071277195078</v>
+        <v>1.546144925167486</v>
       </c>
       <c r="AO32">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="33" spans="1:41">
@@ -4281,88 +4281,88 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>3.525768457501783</v>
+        <v>3.574818808473235</v>
       </c>
       <c r="F33">
-        <v>2.890007389107182</v>
+        <v>2.963634897783391</v>
       </c>
       <c r="G33">
-        <v>2.820447424555885</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H33">
-        <v>2.110427443772115</v>
+        <v>2.208913209941996</v>
       </c>
       <c r="I33">
-        <v>2.097476420041489</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J33">
-        <v>1.520757878870674</v>
+        <v>1.597636732957027</v>
       </c>
       <c r="K33">
-        <v>1.50849212115275</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="O33">
-        <v>3.521666125280912</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P33">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q33">
-        <v>2.758771404608086</v>
+        <v>2.817206330032358</v>
       </c>
       <c r="R33">
-        <v>2.104372369695162</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S33">
-        <v>1.999820965666385</v>
+        <v>2.07843708266918</v>
       </c>
       <c r="T33">
-        <v>1.514694472572406</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U33">
-        <v>1.502470074634843</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="Y33">
-        <v>3.677186659131849</v>
+        <v>3.798614903541229</v>
       </c>
       <c r="Z33">
-        <v>3.231027851107704</v>
+        <v>3.524088097018877</v>
       </c>
       <c r="AA33">
-        <v>2.913786223319847</v>
+        <v>2.98826844572236</v>
       </c>
       <c r="AB33">
-        <v>2.282318540558903</v>
+        <v>2.47214453565842</v>
       </c>
       <c r="AC33">
-        <v>2.164800719264538</v>
+        <v>2.289343223938741</v>
       </c>
       <c r="AD33">
-        <v>1.54703126095862</v>
+        <v>1.829393927657036</v>
       </c>
       <c r="AE33">
-        <v>1.525588869172975</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AI33">
-        <v>3.527114194581743</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ33">
-        <v>2.866461768784777</v>
+        <v>2.973465845196772</v>
       </c>
       <c r="AK33">
-        <v>2.770070400033079</v>
+        <v>2.699633030146353</v>
       </c>
       <c r="AL33">
-        <v>2.108950898152964</v>
+        <v>2.160489464226675</v>
       </c>
       <c r="AM33">
-        <v>1.972730612150141</v>
+        <v>2.003025278112259</v>
       </c>
       <c r="AN33">
-        <v>1.519116863155586</v>
+        <v>1.554113124730359</v>
       </c>
       <c r="AO33">
-        <v>1.506941187875634</v>
+        <v>1.547858198211943</v>
       </c>
     </row>
     <row r="34" spans="1:41">
@@ -4370,88 +4370,88 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>3.525660526637306</v>
+        <v>3.556741538982136</v>
       </c>
       <c r="F34">
-        <v>2.890160207652622</v>
+        <v>2.965945383150409</v>
       </c>
       <c r="G34">
-        <v>2.820344307434905</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H34">
-        <v>2.110525873238279</v>
+        <v>2.209033869753419</v>
       </c>
       <c r="I34">
-        <v>2.097328602958155</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J34">
-        <v>1.520575551365979</v>
+        <v>1.597592206897691</v>
       </c>
       <c r="K34">
-        <v>1.50849212115275</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="O34">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P34">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q34">
-        <v>2.767349055765809</v>
+        <v>2.814517552523697</v>
       </c>
       <c r="R34">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S34">
-        <v>1.995868299943824</v>
+        <v>2.075969667573707</v>
       </c>
       <c r="T34">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U34">
-        <v>1.502652591655297</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="Y34">
-        <v>3.67569646335849</v>
+        <v>3.798661482637682</v>
       </c>
       <c r="Z34">
-        <v>3.224865241607676</v>
+        <v>3.524048878130839</v>
       </c>
       <c r="AA34">
-        <v>2.91387320415829</v>
+        <v>2.988527797724688</v>
       </c>
       <c r="AB34">
-        <v>2.282213591665219</v>
+        <v>2.467144004981329</v>
       </c>
       <c r="AC34">
-        <v>2.164745250630582</v>
+        <v>2.287350915978681</v>
       </c>
       <c r="AD34">
-        <v>1.54470193003007</v>
+        <v>1.826382071561022</v>
       </c>
       <c r="AE34">
-        <v>1.52508760161246</v>
+        <v>1.604302978774685</v>
       </c>
       <c r="AI34">
-        <v>3.527051424222742</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ34">
-        <v>2.866774136957443</v>
+        <v>2.965540414740783</v>
       </c>
       <c r="AK34">
-        <v>2.769780122424375</v>
+        <v>2.699867920181319</v>
       </c>
       <c r="AL34">
-        <v>2.10900011947208</v>
+        <v>2.160504538467145</v>
       </c>
       <c r="AM34">
-        <v>1.972131536823484</v>
+        <v>2.002758873948176</v>
       </c>
       <c r="AN34">
-        <v>1.519116863155586</v>
+        <v>1.546149738782234</v>
       </c>
       <c r="AO34">
-        <v>1.506758716029984</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="35" spans="1:41">
@@ -4459,52 +4459,52 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>3.525660526637306</v>
+        <v>3.556720328149361</v>
       </c>
       <c r="F35">
-        <v>2.890109268398218</v>
+        <v>2.961212536472166</v>
       </c>
       <c r="G35">
-        <v>2.586433112863178</v>
+        <v>2.621971640806883</v>
       </c>
       <c r="H35">
-        <v>2.110525873238279</v>
+        <v>2.209294838683048</v>
       </c>
       <c r="I35">
-        <v>1.775519069892044</v>
+        <v>1.865888428990236</v>
       </c>
       <c r="J35">
-        <v>1.5206211334196</v>
+        <v>1.596853665222644</v>
       </c>
       <c r="K35">
-        <v>1.487274263842334</v>
+        <v>1.527998460421784</v>
       </c>
       <c r="O35">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P35">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q35">
-        <v>2.767352679622721</v>
+        <v>2.814188520408794</v>
       </c>
       <c r="R35">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S35">
-        <v>1.995051832583133</v>
+        <v>2.069953247660652</v>
       </c>
       <c r="T35">
-        <v>1.514694472572406</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U35">
-        <v>1.502515704070555</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Y35">
-        <v>0.2015849627962334</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>0.04084277091346511</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -4522,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1.356899286453537</v>
+        <v>0.5411573542193413</v>
       </c>
       <c r="AJ35">
-        <v>0.7270286975597224</v>
+        <v>0</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -4548,58 +4548,58 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <v>3.507766528356675</v>
+        <v>3.583387242570528</v>
       </c>
       <c r="F36">
-        <v>2.821954642408977</v>
+        <v>1.001889806293149</v>
       </c>
       <c r="G36">
-        <v>2.472417196692299</v>
+        <v>0.7586909958964523</v>
       </c>
       <c r="H36">
-        <v>2.093188925861211</v>
+        <v>0.3117026310623225</v>
       </c>
       <c r="I36">
-        <v>1.838769799736102</v>
+        <v>0.1708109192244098</v>
       </c>
       <c r="J36">
-        <v>1.501374932043137</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1.424659835422897</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>3.521666125280912</v>
+        <v>3.541942716031585</v>
       </c>
       <c r="P36">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q36">
-        <v>2.763126007198419</v>
+        <v>2.807617684038534</v>
       </c>
       <c r="R36">
-        <v>2.104569334216085</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S36">
-        <v>2.002241477172783</v>
+        <v>2.083292665250722</v>
       </c>
       <c r="T36">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U36">
-        <v>1.502698220609431</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="Y36">
-        <v>0.9924390720057219</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.8123161476584548</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>0.4182264368730557</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>0.0008496531488362269</v>
+        <v>0</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4611,10 +4611,10 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1.595982319344845</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0.9390441260853772</v>
+        <v>0</v>
       </c>
       <c r="AK36">
         <v>0</v>
@@ -4637,88 +4637,88 @@
         <v>35</v>
       </c>
       <c r="E37">
-        <v>3.525660526637306</v>
+        <v>3.557078553186926</v>
       </c>
       <c r="F37">
-        <v>2.890058328883075</v>
+        <v>2.963189081241963</v>
       </c>
       <c r="G37">
-        <v>2.820344307434905</v>
+        <v>2.847785927001569</v>
       </c>
       <c r="H37">
-        <v>2.110575087647683</v>
+        <v>2.209087129773536</v>
       </c>
       <c r="I37">
-        <v>2.097328602958155</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J37">
-        <v>1.5206211334196</v>
+        <v>1.597670274596262</v>
       </c>
       <c r="K37">
-        <v>1.50849212115275</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="O37">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P37">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q37">
-        <v>2.764220574338225</v>
+        <v>2.817107061767927</v>
       </c>
       <c r="R37">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S37">
-        <v>2.004287568333384</v>
+        <v>2.081245473954826</v>
       </c>
       <c r="T37">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U37">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="Y37">
-        <v>3.677146000841762</v>
+        <v>3.798477044282023</v>
       </c>
       <c r="Z37">
-        <v>3.231470718197024</v>
+        <v>3.524001700554113</v>
       </c>
       <c r="AA37">
-        <v>2.913376686458748</v>
+        <v>2.98852229251893</v>
       </c>
       <c r="AB37">
-        <v>2.282477294258444</v>
+        <v>2.468625661622023</v>
       </c>
       <c r="AC37">
-        <v>2.165121989553141</v>
+        <v>2.287854909667296</v>
       </c>
       <c r="AD37">
-        <v>1.546826229193136</v>
+        <v>1.829429794012717</v>
       </c>
       <c r="AE37">
-        <v>1.525543299983518</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AI37">
-        <v>3.527044629934268</v>
+        <v>3.54431238546413</v>
       </c>
       <c r="AJ37">
-        <v>2.866786953638523</v>
+        <v>2.973263459737382</v>
       </c>
       <c r="AK37">
-        <v>2.770421059127695</v>
+        <v>2.699729506753018</v>
       </c>
       <c r="AL37">
-        <v>2.10900011947208</v>
+        <v>2.160733717629299</v>
       </c>
       <c r="AM37">
-        <v>1.972523608790535</v>
+        <v>2.003000721584536</v>
       </c>
       <c r="AN37">
-        <v>1.519116863155586</v>
+        <v>1.554221868678465</v>
       </c>
       <c r="AO37">
-        <v>1.506804334171242</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="38" spans="1:41">
@@ -4726,76 +4726,76 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>3.525714492239945</v>
+        <v>3.556692675111157</v>
       </c>
       <c r="F38">
-        <v>2.889336704699189</v>
+        <v>2.965972618859058</v>
       </c>
       <c r="G38">
-        <v>2.789906831253761</v>
+        <v>2.808312655241254</v>
       </c>
       <c r="H38">
-        <v>2.110575087647683</v>
+        <v>2.208932471055063</v>
       </c>
       <c r="I38">
-        <v>2.037603679477992</v>
+        <v>2.06780164611163</v>
       </c>
       <c r="J38">
-        <v>1.52066671535492</v>
+        <v>1.597613457207467</v>
       </c>
       <c r="K38">
-        <v>1.508583348210625</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="O38">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P38">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q38">
-        <v>2.76775967505155</v>
+        <v>2.816956428201395</v>
       </c>
       <c r="R38">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S38">
-        <v>1.997282444020824</v>
+        <v>2.072524868004097</v>
       </c>
       <c r="T38">
-        <v>1.51464887509495</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U38">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="Y38">
-        <v>3.614178746453991</v>
+        <v>1.672805487839134</v>
       </c>
       <c r="Z38">
-        <v>3.18758918872665</v>
+        <v>1.360744963716477</v>
       </c>
       <c r="AA38">
-        <v>2.844214342018183</v>
+        <v>0.9072561593835127</v>
       </c>
       <c r="AB38">
-        <v>2.187828698156585</v>
+        <v>0.5690304294527959</v>
       </c>
       <c r="AC38">
-        <v>2.084724312426661</v>
+        <v>0.3352369787640885</v>
       </c>
       <c r="AD38">
-        <v>1.482182708273776</v>
+        <v>0.03808969315406441</v>
       </c>
       <c r="AE38">
-        <v>1.411845214066584</v>
+        <v>0</v>
       </c>
       <c r="AI38">
-        <v>3.50876567827745</v>
+        <v>0.2360807436633126</v>
       </c>
       <c r="AJ38">
-        <v>2.776300722275575</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>2.666311600377638</v>
+        <v>0</v>
       </c>
       <c r="AL38">
         <v>0</v>
@@ -4815,88 +4815,88 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <v>3.525714492239945</v>
+        <v>3.556985278577234</v>
       </c>
       <c r="F39">
-        <v>2.890058328883075</v>
+        <v>2.963476364454245</v>
       </c>
       <c r="G39">
-        <v>2.820447424555885</v>
+        <v>2.809547083324616</v>
       </c>
       <c r="H39">
-        <v>2.110476658613093</v>
+        <v>2.209009717952105</v>
       </c>
       <c r="I39">
-        <v>2.097377875537593</v>
+        <v>2.092097863337036</v>
       </c>
       <c r="J39">
-        <v>1.520757878870674</v>
+        <v>1.597661386670649</v>
       </c>
       <c r="K39">
-        <v>1.50849212115275</v>
+        <v>1.543578568635242</v>
       </c>
       <c r="O39">
-        <v>3.521558142529205</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P39">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q39">
-        <v>2.764267554923236</v>
+        <v>2.814143816562631</v>
       </c>
       <c r="R39">
-        <v>2.104421611150824</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S39">
-        <v>1.997503843318737</v>
+        <v>2.078395754209355</v>
       </c>
       <c r="T39">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U39">
-        <v>1.502470074634843</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="Y39">
-        <v>2.246764833230508</v>
+        <v>2.187209489338305</v>
       </c>
       <c r="Z39">
-        <v>1.801463864068574</v>
+        <v>1.927457593118366</v>
       </c>
       <c r="AA39">
-        <v>1.489795900058944</v>
+        <v>1.409097983621104</v>
       </c>
       <c r="AB39">
-        <v>0.8606599565282864</v>
+        <v>0.8870815336403004</v>
       </c>
       <c r="AC39">
-        <v>0.7428713875889399</v>
+        <v>0.7191023988645429</v>
       </c>
       <c r="AD39">
-        <v>0.1256775639195034</v>
+        <v>0.2549538970809992</v>
       </c>
       <c r="AE39">
-        <v>0.09951689512239636</v>
+        <v>0.04626291942387328</v>
       </c>
       <c r="AI39">
-        <v>3.508349371148642</v>
+        <v>1.967054388901865</v>
       </c>
       <c r="AJ39">
-        <v>2.852145567592171</v>
+        <v>1.394107363011566</v>
       </c>
       <c r="AK39">
-        <v>2.760798278265648</v>
+        <v>1.115323473925713</v>
       </c>
       <c r="AL39">
-        <v>2.108901676617765</v>
+        <v>0.5814050831088309</v>
       </c>
       <c r="AM39">
-        <v>1.947125311910303</v>
+        <v>0.4329151107731088</v>
       </c>
       <c r="AN39">
-        <v>1.495875180483953</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>1.388265583100641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:41">
@@ -4904,52 +4904,52 @@
         <v>38</v>
       </c>
       <c r="E40">
-        <v>3.525714492239945</v>
+        <v>3.556852028903175</v>
       </c>
       <c r="F40">
-        <v>2.890069444516787</v>
+        <v>2.960320923983982</v>
       </c>
       <c r="G40">
-        <v>2.625595815515186</v>
+        <v>2.638071603010846</v>
       </c>
       <c r="H40">
-        <v>2.110427443772115</v>
+        <v>2.209115664828286</v>
       </c>
       <c r="I40">
-        <v>1.811444622208602</v>
+        <v>1.891079771406612</v>
       </c>
       <c r="J40">
-        <v>1.52066671535492</v>
+        <v>1.59680858789745</v>
       </c>
       <c r="K40">
-        <v>1.487349813207926</v>
+        <v>1.524002230567654</v>
       </c>
       <c r="O40">
-        <v>3.521612134076021</v>
+        <v>3.54188885234431</v>
       </c>
       <c r="P40">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q40">
-        <v>2.764263319900187</v>
+        <v>2.810837124689417</v>
       </c>
       <c r="R40">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S40">
-        <v>2.002581818010622</v>
+        <v>2.069633416850459</v>
       </c>
       <c r="T40">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U40">
-        <v>1.502515704070555</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Y40">
-        <v>0.3655123973972407</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.08648649246019069</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -4967,7 +4967,7 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0.3741069510092241</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
         <v>0</v>
@@ -4993,76 +4993,76 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>3.458886039449933</v>
+        <v>1.46741439334612</v>
       </c>
       <c r="F41">
-        <v>2.816229844612927</v>
+        <v>0.9850867804873324</v>
       </c>
       <c r="G41">
-        <v>2.71165442346204</v>
+        <v>0.7760702811801334</v>
       </c>
       <c r="H41">
-        <v>2.098067668729465</v>
+        <v>0.2989145718427633</v>
       </c>
       <c r="I41">
-        <v>2.039751006509714</v>
+        <v>0.2369089084209206</v>
       </c>
       <c r="J41">
-        <v>1.509085088472034</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>1.496993666644186</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>3.521666125280912</v>
+        <v>3.541781123960568</v>
       </c>
       <c r="P41">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q41">
-        <v>2.762686750135053</v>
+        <v>2.811059716399038</v>
       </c>
       <c r="R41">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S41">
-        <v>1.990890448180694</v>
+        <v>2.079995856591814</v>
       </c>
       <c r="T41">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U41">
-        <v>1.502652591655297</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="Y41">
-        <v>3.289049224849748</v>
+        <v>1.51126117542475</v>
       </c>
       <c r="Z41">
-        <v>2.948213643719761</v>
+        <v>0.3415391093181852</v>
       </c>
       <c r="AA41">
-        <v>2.553422464925546</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>1.979618632502471</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>1.963017503207169</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>1.411282105672593</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>1.342935186791912</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>3.486018025394656</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>2.805715667780113</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>2.581706930640093</v>
+        <v>0</v>
       </c>
       <c r="AL41">
         <v>0</v>
@@ -5082,67 +5082,67 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>2.834061185548855</v>
+        <v>2.921816307969009</v>
       </c>
       <c r="G42">
-        <v>2.72304007470289</v>
+        <v>2.770133145525147</v>
       </c>
       <c r="H42">
-        <v>2.106883407508411</v>
+        <v>2.219454858292017</v>
       </c>
       <c r="I42">
-        <v>1.932251182695431</v>
+        <v>2.05799148277186</v>
       </c>
       <c r="J42">
-        <v>1.517247741565741</v>
+        <v>1.558912593669845</v>
       </c>
       <c r="K42">
-        <v>1.472026193146929</v>
+        <v>1.545582445382057</v>
       </c>
       <c r="P42">
-        <v>2.82740526083151</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q42">
-        <v>2.760088551947868</v>
+        <v>2.814239656796155</v>
       </c>
       <c r="R42">
-        <v>2.104569334216085</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S42">
-        <v>1.993178819154578</v>
+        <v>2.080396637671287</v>
       </c>
       <c r="T42">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U42">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Z42">
-        <v>3.101094014768489</v>
+        <v>0.3567897452623487</v>
       </c>
       <c r="AA42">
-        <v>2.623951658674981</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>2.130912135906355</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>1.951874762080562</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>1.555203294528959</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>1.300626400309681</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>2.81647275388915</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>0.7149914675554987</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>0.05256918017247814</v>
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -5159,52 +5159,52 @@
         <v>41</v>
       </c>
       <c r="F43">
-        <v>2.890231061967627</v>
+        <v>2.96466398782287</v>
       </c>
       <c r="G43">
-        <v>2.748776540463146</v>
+        <v>2.797288112786434</v>
       </c>
       <c r="H43">
-        <v>2.110476658613093</v>
+        <v>2.209064165653387</v>
       </c>
       <c r="I43">
-        <v>1.970214660204424</v>
+        <v>2.062955804518858</v>
       </c>
       <c r="J43">
-        <v>1.5206211334196</v>
+        <v>1.597807360964801</v>
       </c>
       <c r="K43">
-        <v>1.508583348210625</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="P43">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q43">
-        <v>2.764356169247328</v>
+        <v>2.814173269893202</v>
       </c>
       <c r="R43">
-        <v>2.104372369695162</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S43">
-        <v>2.004778820471218</v>
+        <v>2.069921522930428</v>
       </c>
       <c r="T43">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U43">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Z43">
-        <v>1.188378835554053</v>
+        <v>0.2964215733164148</v>
       </c>
       <c r="AA43">
-        <v>0.8547786171191787</v>
+        <v>0</v>
       </c>
       <c r="AB43">
-        <v>0.2932186793572222</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>0.2036882847958228</v>
+        <v>0</v>
       </c>
       <c r="AD43">
         <v>0</v>
@@ -5213,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0.9045039448007681</v>
+        <v>0</v>
       </c>
       <c r="AK43">
-        <v>0.7108404584999048</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>0.03675868904689139</v>
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -5236,43 +5236,43 @@
         <v>42</v>
       </c>
       <c r="F44">
-        <v>2.572935332636885</v>
+        <v>0.8672725535078312</v>
       </c>
       <c r="G44">
-        <v>2.272679863176242</v>
+        <v>0.5704645616284074</v>
       </c>
       <c r="H44">
-        <v>1.963702703730398</v>
+        <v>0.1230121118615353</v>
       </c>
       <c r="I44">
-        <v>1.5903616643726</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>1.432696020363151</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>1.376421808069575</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>2.827302218656588</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q44">
-        <v>2.761602905005454</v>
+        <v>2.817372746344617</v>
       </c>
       <c r="R44">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S44">
-        <v>1.997518366745622</v>
+        <v>2.081485348695427</v>
       </c>
       <c r="T44">
-        <v>1.514603277498504</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U44">
-        <v>1.502652591655297</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Z44">
-        <v>0.09466388748160637</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>0</v>
@@ -5290,10 +5290,10 @@
         <v>0</v>
       </c>
       <c r="AJ44">
-        <v>0.5831461430456271</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>0.3629586780293976</v>
+        <v>0</v>
       </c>
       <c r="AL44">
         <v>0</v>
@@ -5313,76 +5313,76 @@
         <v>43</v>
       </c>
       <c r="F45">
-        <v>2.890007389107182</v>
+        <v>2.963411446742991</v>
       </c>
       <c r="G45">
-        <v>2.820395866134594</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H45">
-        <v>2.110575087647683</v>
+        <v>2.209237223528069</v>
       </c>
       <c r="I45">
-        <v>2.097427147898701</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J45">
-        <v>1.520712297171943</v>
+        <v>1.587746224487828</v>
       </c>
       <c r="K45">
-        <v>1.50844650744426</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="P45">
-        <v>2.827353739882428</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q45">
-        <v>2.767775466380986</v>
+        <v>2.820341868724625</v>
       </c>
       <c r="R45">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S45">
-        <v>1.995258359692673</v>
+        <v>2.069737717295295</v>
       </c>
       <c r="T45">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U45">
-        <v>1.502652591655297</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="Z45">
-        <v>3.230997587597325</v>
+        <v>3.524010555321037</v>
       </c>
       <c r="AA45">
-        <v>2.913509306332526</v>
+        <v>2.988200986418909</v>
       </c>
       <c r="AB45">
-        <v>2.282151973674006</v>
+        <v>2.468943548823342</v>
       </c>
       <c r="AC45">
-        <v>2.164930148552271</v>
+        <v>2.287434442153313</v>
       </c>
       <c r="AD45">
-        <v>1.547252682850622</v>
+        <v>1.827504906772532</v>
       </c>
       <c r="AE45">
-        <v>1.525452161251381</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AJ45">
-        <v>2.866428916119317</v>
+        <v>2.973195321073304</v>
       </c>
       <c r="AK45">
-        <v>2.767565661981635</v>
+        <v>2.699790194342074</v>
       </c>
       <c r="AL45">
-        <v>2.108901676617765</v>
+        <v>2.139780099563265</v>
       </c>
       <c r="AM45">
-        <v>1.965407001914072</v>
+        <v>2.002675407683169</v>
       </c>
       <c r="AN45">
-        <v>1.519071277195078</v>
+        <v>1.55418843615828</v>
       </c>
       <c r="AO45">
-        <v>1.506758716029984</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="46" spans="1:41">
@@ -5390,43 +5390,43 @@
         <v>44</v>
       </c>
       <c r="F46">
-        <v>2.830627138040562</v>
+        <v>2.928172280461864</v>
       </c>
       <c r="G46">
-        <v>2.518450660330947</v>
+        <v>2.66018668148423</v>
       </c>
       <c r="H46">
-        <v>2.096364137861138</v>
+        <v>2.218481521164423</v>
       </c>
       <c r="I46">
-        <v>1.68889037060617</v>
+        <v>1.910965765269844</v>
       </c>
       <c r="J46">
-        <v>1.508104888677052</v>
+        <v>1.556466407361183</v>
       </c>
       <c r="K46">
-        <v>1.337457512386501</v>
+        <v>1.539651849747946</v>
       </c>
       <c r="P46">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q46">
-        <v>2.758468135218185</v>
+        <v>2.81412600677786</v>
       </c>
       <c r="R46">
-        <v>2.104372369695162</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S46">
-        <v>1.993243939256627</v>
+        <v>2.075585259273862</v>
       </c>
       <c r="T46">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U46">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="Z46">
-        <v>0.1522823735620615</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="AJ46">
-        <v>0.1450580356542279</v>
+        <v>0</v>
       </c>
       <c r="AK46">
         <v>0</v>
@@ -5467,76 +5467,76 @@
         <v>45</v>
       </c>
       <c r="F47">
-        <v>2.890486402667618</v>
+        <v>2.966341483730577</v>
       </c>
       <c r="G47">
-        <v>2.803194610047689</v>
+        <v>2.779513871668834</v>
       </c>
       <c r="H47">
-        <v>2.110476658613093</v>
+        <v>2.209296066680013</v>
       </c>
       <c r="I47">
-        <v>2.079348857908031</v>
+        <v>2.063988883695541</v>
       </c>
       <c r="J47">
-        <v>1.520757878870674</v>
+        <v>1.597664536813954</v>
       </c>
       <c r="K47">
-        <v>1.507015846716378</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="P47">
-        <v>2.827353739882428</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q47">
-        <v>2.767186536388251</v>
+        <v>2.817453090717327</v>
       </c>
       <c r="R47">
-        <v>2.104421611150824</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S47">
-        <v>1.996024917878035</v>
+        <v>2.072940327527721</v>
       </c>
       <c r="T47">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U47">
-        <v>1.502652591655297</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="Z47">
-        <v>3.194310847944598</v>
+        <v>1.600357227453711</v>
       </c>
       <c r="AA47">
-        <v>2.851389644989256</v>
+        <v>1.191662071211219</v>
       </c>
       <c r="AB47">
-        <v>2.205407148748263</v>
+        <v>0.7545200178389648</v>
       </c>
       <c r="AC47">
-        <v>2.123361472711392</v>
+        <v>0.5354146682901133</v>
       </c>
       <c r="AD47">
-        <v>1.472897273110928</v>
+        <v>0.1396747763917205</v>
       </c>
       <c r="AE47">
-        <v>1.422020798603606</v>
+        <v>0</v>
       </c>
       <c r="AJ47">
-        <v>2.828323982774912</v>
+        <v>1.106946636124609</v>
       </c>
       <c r="AK47">
-        <v>2.705056381569339</v>
+        <v>0.8874984827163188</v>
       </c>
       <c r="AL47">
-        <v>1.972319504959957</v>
+        <v>0.3987744161287563</v>
       </c>
       <c r="AM47">
-        <v>1.761185098028384</v>
+        <v>0.2732926177478505</v>
       </c>
       <c r="AN47">
-        <v>1.111707079110153</v>
+        <v>0</v>
       </c>
       <c r="AO47">
-        <v>1.139421378846795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:41">
@@ -5544,64 +5544,64 @@
         <v>46</v>
       </c>
       <c r="F48">
-        <v>2.745993819089385</v>
+        <v>0.8648386609447576</v>
       </c>
       <c r="G48">
-        <v>2.639936245332511</v>
+        <v>0.7723425665712111</v>
       </c>
       <c r="H48">
-        <v>2.095061828122697</v>
+        <v>0.257476064445191</v>
       </c>
       <c r="I48">
-        <v>1.949336419827921</v>
+        <v>0.1440409299862375</v>
       </c>
       <c r="J48">
-        <v>1.506348147362272</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>1.494117855229274</v>
+        <v>0</v>
       </c>
       <c r="P48">
-        <v>2.827302218656588</v>
+        <v>2.851898030265164</v>
       </c>
       <c r="Q48">
-        <v>2.762466629717258</v>
+        <v>2.814103479286108</v>
       </c>
       <c r="R48">
-        <v>2.104520093411275</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S48">
-        <v>1.997133480712484</v>
+        <v>2.090791537858215</v>
       </c>
       <c r="T48">
-        <v>1.514785667170373</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U48">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="Z48">
-        <v>2.825669793976837</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>2.429096036572144</v>
+        <v>0</v>
       </c>
       <c r="AB48">
-        <v>1.916287877870282</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>1.833704321440065</v>
+        <v>0</v>
       </c>
       <c r="AD48">
-        <v>1.348819689998867</v>
+        <v>0</v>
       </c>
       <c r="AE48">
-        <v>1.180564865694133</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>1.017278061339296</v>
+        <v>0</v>
       </c>
       <c r="AK48">
-        <v>0.7649012961045878</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <v>0</v>
@@ -5621,46 +5621,46 @@
         <v>47</v>
       </c>
       <c r="F49">
-        <v>2.830990141741013</v>
+        <v>2.924878330837235</v>
       </c>
       <c r="G49">
-        <v>2.594331807433922</v>
+        <v>2.656489587914107</v>
       </c>
       <c r="H49">
-        <v>2.103978430238167</v>
+        <v>2.214333180598451</v>
       </c>
       <c r="I49">
-        <v>1.710194969744592</v>
+        <v>1.900058962446279</v>
       </c>
       <c r="J49">
-        <v>1.512870480610533</v>
+        <v>1.558718546211048</v>
       </c>
       <c r="K49">
-        <v>1.470559397771526</v>
+        <v>1.561380348019499</v>
       </c>
       <c r="P49">
-        <v>2.82740526083151</v>
+        <v>2.851795248852528</v>
       </c>
       <c r="Q49">
-        <v>2.76121318362158</v>
+        <v>2.820743302766946</v>
       </c>
       <c r="R49">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S49">
-        <v>1.978157977959749</v>
+        <v>2.078631851077997</v>
       </c>
       <c r="T49">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U49">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="Z49">
-        <v>0.3501695709558084</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.06711747900514298</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>0.2465778041705533</v>
+        <v>0</v>
       </c>
       <c r="AK49">
         <v>0</v>
@@ -5698,67 +5698,67 @@
         <v>48</v>
       </c>
       <c r="F50">
-        <v>2.890518313620421</v>
+        <v>2.963354192631842</v>
       </c>
       <c r="G50">
-        <v>2.777671977300662</v>
+        <v>2.799243146126623</v>
       </c>
       <c r="H50">
-        <v>2.110476658613093</v>
+        <v>2.208944217801876</v>
       </c>
       <c r="I50">
-        <v>2.042978951645822</v>
+        <v>2.093821542241123</v>
       </c>
       <c r="J50">
-        <v>1.5206211334196</v>
+        <v>1.597578697911076</v>
       </c>
       <c r="K50">
-        <v>1.508583348210625</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="P50">
-        <v>2.827302218656588</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q50">
-        <v>2.764791177987473</v>
+        <v>2.810785844003862</v>
       </c>
       <c r="R50">
-        <v>2.104470852389523</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S50">
-        <v>1.999620957439076</v>
+        <v>2.078822490202675</v>
       </c>
       <c r="T50">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U50">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="Z50">
-        <v>3.164625420537356</v>
+        <v>0.4086812495301673</v>
       </c>
       <c r="AA50">
-        <v>2.792919337700115</v>
+        <v>0.05637337831781908</v>
       </c>
       <c r="AB50">
-        <v>2.173088535088133</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>2.02058935013874</v>
+        <v>0</v>
       </c>
       <c r="AD50">
-        <v>1.476611738887138</v>
+        <v>0</v>
       </c>
       <c r="AE50">
-        <v>1.314425380732886</v>
+        <v>0</v>
       </c>
       <c r="AJ50">
-        <v>0.9731983123241179</v>
+        <v>0</v>
       </c>
       <c r="AK50">
-        <v>0.8214332461519878</v>
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>1.978645541863364</v>
+        <v>0</v>
       </c>
       <c r="AM50">
         <v>0</v>
@@ -5775,76 +5775,76 @@
         <v>49</v>
       </c>
       <c r="F51">
-        <v>2.890058328883075</v>
+        <v>2.963069552678817</v>
       </c>
       <c r="G51">
-        <v>2.820395866134594</v>
+        <v>2.847837339024479</v>
       </c>
       <c r="H51">
-        <v>2.110476658613093</v>
+        <v>2.208912124897796</v>
       </c>
       <c r="I51">
-        <v>2.097476420041489</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J51">
-        <v>1.520757878870674</v>
+        <v>1.597736573577838</v>
       </c>
       <c r="K51">
-        <v>1.50844650744426</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="P51">
-        <v>2.827353739882428</v>
+        <v>2.851846639694392</v>
       </c>
       <c r="Q51">
-        <v>2.764623427235852</v>
+        <v>2.813673484228667</v>
       </c>
       <c r="R51">
-        <v>2.104372369695162</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S51">
-        <v>1.995630959553483</v>
+        <v>2.075456827697522</v>
       </c>
       <c r="T51">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U51">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="Z51">
-        <v>3.230161333260436</v>
+        <v>3.523774887771791</v>
       </c>
       <c r="AA51">
-        <v>2.913684795861267</v>
+        <v>2.988503650797307</v>
       </c>
       <c r="AB51">
-        <v>2.285850681031235</v>
+        <v>2.468606814546182</v>
       </c>
       <c r="AC51">
-        <v>2.165058730643766</v>
+        <v>2.287378916911586</v>
       </c>
       <c r="AD51">
-        <v>1.546836951405552</v>
+        <v>1.829626020790871</v>
       </c>
       <c r="AE51">
-        <v>1.525497730676322</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AJ51">
-        <v>2.866450730827672</v>
+        <v>2.973118785825116</v>
       </c>
       <c r="AK51">
-        <v>2.767394720994764</v>
+        <v>2.703912057549134</v>
       </c>
       <c r="AL51">
-        <v>2.108950898152964</v>
+        <v>2.16060537831794</v>
       </c>
       <c r="AM51">
-        <v>1.965738159957354</v>
+        <v>1.998408294959551</v>
       </c>
       <c r="AN51">
-        <v>1.519071277195078</v>
+        <v>1.554230682824822</v>
       </c>
       <c r="AO51">
-        <v>1.506941187875634</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="52" spans="1:41">
@@ -5852,64 +5852,64 @@
         <v>50</v>
       </c>
       <c r="G52">
-        <v>2.820395866134594</v>
+        <v>2.847940162254289</v>
       </c>
       <c r="H52">
-        <v>2.110476658613093</v>
+        <v>2.209447524178953</v>
       </c>
       <c r="I52">
-        <v>2.097476420041489</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J52">
-        <v>1.52066671535492</v>
+        <v>1.587593302948686</v>
       </c>
       <c r="K52">
-        <v>1.508628961560021</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="Q52">
-        <v>2.764324987753401</v>
+        <v>2.817209044322533</v>
       </c>
       <c r="R52">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S52">
-        <v>1.997417897888681</v>
+        <v>2.075759238124851</v>
       </c>
       <c r="T52">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U52">
-        <v>1.502561333385865</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AA52">
-        <v>2.914094803868471</v>
+        <v>2.988521843180011</v>
       </c>
       <c r="AB52">
-        <v>2.282391803697877</v>
+        <v>2.472218416864912</v>
       </c>
       <c r="AC52">
-        <v>2.164901771491326</v>
+        <v>2.287581753828137</v>
       </c>
       <c r="AD52">
-        <v>1.547093760904176</v>
+        <v>1.829851176913856</v>
       </c>
       <c r="AE52">
-        <v>1.525497730676322</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AK52">
-        <v>2.767328972139834</v>
+        <v>2.699899750554612</v>
       </c>
       <c r="AL52">
-        <v>2.10900011947208</v>
+        <v>2.160555303251414</v>
       </c>
       <c r="AM52">
-        <v>1.965632263593799</v>
+        <v>2.005162030711816</v>
       </c>
       <c r="AN52">
-        <v>1.51902569111609</v>
+        <v>1.54634935648883</v>
       </c>
       <c r="AO52">
-        <v>1.506941187875634</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="53" spans="1:41">
@@ -5917,52 +5917,52 @@
         <v>51</v>
       </c>
       <c r="G53">
-        <v>2.801093685995506</v>
+        <v>2.825624365029856</v>
       </c>
       <c r="H53">
-        <v>2.110525873238279</v>
+        <v>2.209100793836884</v>
       </c>
       <c r="I53">
-        <v>2.052613760050299</v>
+        <v>2.098449793286667</v>
       </c>
       <c r="J53">
-        <v>1.520757878870674</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>1.508628961560021</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="Q53">
-        <v>2.767452341020104</v>
+        <v>2.801940556771318</v>
       </c>
       <c r="R53">
-        <v>2.104372369695162</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S53">
-        <v>1.997762348695501</v>
+        <v>2.081482207247062</v>
       </c>
       <c r="T53">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U53">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AA53">
-        <v>2.844429100690561</v>
+        <v>0.9387554547965098</v>
       </c>
       <c r="AB53">
-        <v>2.227266334521391</v>
+        <v>0.618309840859959</v>
       </c>
       <c r="AC53">
-        <v>2.103078966350652</v>
+        <v>0.3665558052086459</v>
       </c>
       <c r="AD53">
-        <v>1.525981732471381</v>
+        <v>0.07882261991902029</v>
       </c>
       <c r="AE53">
-        <v>1.411891886898463</v>
+        <v>0</v>
       </c>
       <c r="AK53">
-        <v>2.670139730819453</v>
+        <v>0</v>
       </c>
       <c r="AL53">
         <v>0</v>
@@ -5982,55 +5982,55 @@
         <v>52</v>
       </c>
       <c r="G54">
-        <v>2.800934866402483</v>
+        <v>2.82343292952801</v>
       </c>
       <c r="H54">
-        <v>2.110575087647683</v>
+        <v>2.209073732919249</v>
       </c>
       <c r="I54">
-        <v>2.062975168047947</v>
+        <v>2.087281386665451</v>
       </c>
       <c r="J54">
-        <v>1.520575551365979</v>
+        <v>1.597587194364429</v>
       </c>
       <c r="K54">
-        <v>1.50849212115275</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="Q54">
-        <v>2.758483761503858</v>
+        <v>2.810911473257531</v>
       </c>
       <c r="R54">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S54">
-        <v>1.997400013582425</v>
+        <v>2.07266352645914</v>
       </c>
       <c r="T54">
-        <v>1.51464887509495</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U54">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AA54">
-        <v>2.844214342018183</v>
+        <v>0.9874345814786036</v>
       </c>
       <c r="AB54">
-        <v>2.271530793300616</v>
+        <v>0.6107749942536886</v>
       </c>
       <c r="AC54">
-        <v>2.084933349137895</v>
+        <v>0.3728750930016962</v>
       </c>
       <c r="AD54">
-        <v>1.550869769282605</v>
+        <v>0.07100601003340956</v>
       </c>
       <c r="AE54">
-        <v>1.411751867967422</v>
+        <v>0</v>
       </c>
       <c r="AK54">
-        <v>2.666510734744771</v>
+        <v>0</v>
       </c>
       <c r="AL54">
-        <v>1.87711241824553</v>
+        <v>0</v>
       </c>
       <c r="AM54">
         <v>0</v>
@@ -6047,64 +6047,64 @@
         <v>53</v>
       </c>
       <c r="G55">
-        <v>2.798500622538076</v>
+        <v>2.816608021935015</v>
       </c>
       <c r="H55">
-        <v>2.106046457530152</v>
+        <v>2.21553904438787</v>
       </c>
       <c r="I55">
-        <v>2.055970383544805</v>
+        <v>2.082238549904594</v>
       </c>
       <c r="J55">
-        <v>1.516518274160015</v>
+        <v>1.553072004487565</v>
       </c>
       <c r="K55">
-        <v>1.504523280119483</v>
+        <v>1.560987769465914</v>
       </c>
       <c r="Q55">
-        <v>2.762860601433685</v>
+        <v>2.820454492522996</v>
       </c>
       <c r="R55">
-        <v>2.104569334216085</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S55">
-        <v>1.98025486479226</v>
+        <v>2.086336100753092</v>
       </c>
       <c r="T55">
-        <v>1.514785667170373</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U55">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="AA55">
-        <v>2.546533092737508</v>
+        <v>0</v>
       </c>
       <c r="AB55">
-        <v>2.078712836274278</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>1.868417644069637</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>1.487754914068279</v>
+        <v>0</v>
       </c>
       <c r="AE55">
-        <v>1.257717989403428</v>
+        <v>0</v>
       </c>
       <c r="AK55">
-        <v>0.798412136745253</v>
+        <v>0</v>
       </c>
       <c r="AL55">
         <v>0</v>
       </c>
       <c r="AM55">
-        <v>1.790026570216626</v>
+        <v>0</v>
       </c>
       <c r="AN55">
         <v>0</v>
       </c>
       <c r="AO55">
-        <v>1.36243511379281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:41">
@@ -6112,52 +6112,52 @@
         <v>54</v>
       </c>
       <c r="G56">
-        <v>2.789811725870186</v>
+        <v>2.800456404582216</v>
       </c>
       <c r="H56">
-        <v>2.110427443772115</v>
+        <v>2.216739863082266</v>
       </c>
       <c r="I56">
-        <v>2.027286763125797</v>
+        <v>2.067974524464589</v>
       </c>
       <c r="J56">
-        <v>1.520757878870674</v>
+        <v>1.597667322705643</v>
       </c>
       <c r="K56">
-        <v>1.50849212115275</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="Q56">
-        <v>2.759521651546519</v>
+        <v>2.813874183834135</v>
       </c>
       <c r="R56">
-        <v>2.104520093411275</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S56">
-        <v>2.0022962518615</v>
+        <v>2.070216543453574</v>
       </c>
       <c r="T56">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U56">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AA56">
-        <v>2.84409752426794</v>
+        <v>0.9195757042135113</v>
       </c>
       <c r="AB56">
-        <v>2.193440283467224</v>
+        <v>0.5568939844401803</v>
       </c>
       <c r="AC56">
-        <v>2.084619571072777</v>
+        <v>0.3178311783522088</v>
       </c>
       <c r="AD56">
-        <v>1.437944525418763</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>1.411798541089573</v>
+        <v>0</v>
       </c>
       <c r="AK56">
-        <v>2.648452274603004</v>
+        <v>0</v>
       </c>
       <c r="AL56">
         <v>0</v>
@@ -6177,64 +6177,64 @@
         <v>55</v>
       </c>
       <c r="G57">
-        <v>2.820447424555885</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H57">
-        <v>2.110575087647683</v>
+        <v>2.185886713330929</v>
       </c>
       <c r="I57">
-        <v>2.097476420041489</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J57">
-        <v>1.52066671535492</v>
+        <v>1.597566106389989</v>
       </c>
       <c r="K57">
-        <v>1.50840089361606</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="Q57">
-        <v>2.764326062260406</v>
+        <v>2.81383171239349</v>
       </c>
       <c r="R57">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S57">
-        <v>1.997434872549148</v>
+        <v>2.078579376468506</v>
       </c>
       <c r="T57">
-        <v>1.51464887509495</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U57">
-        <v>1.502606962580777</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AA57">
-        <v>2.913786223319847</v>
+        <v>2.988554141709608</v>
       </c>
       <c r="AB57">
-        <v>2.282384889236855</v>
+        <v>2.472233993056312</v>
       </c>
       <c r="AC57">
-        <v>2.16473781946322</v>
+        <v>2.288143495565356</v>
       </c>
       <c r="AD57">
-        <v>1.546821022635458</v>
+        <v>1.829668745141221</v>
       </c>
       <c r="AE57">
-        <v>1.525497730676322</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AK57">
-        <v>2.770156182069553</v>
+        <v>2.699579724121981</v>
       </c>
       <c r="AL57">
-        <v>2.10885245486647</v>
+        <v>2.160550368787445</v>
       </c>
       <c r="AM57">
-        <v>1.965527711851541</v>
+        <v>2.002703745235033</v>
       </c>
       <c r="AN57">
-        <v>1.519116863155586</v>
+        <v>1.554198283813079</v>
       </c>
       <c r="AO57">
-        <v>1.506941187875634</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="58" spans="1:41">
@@ -6242,64 +6242,64 @@
         <v>56</v>
       </c>
       <c r="G58">
-        <v>2.813181929964175</v>
+        <v>2.846294859961688</v>
       </c>
       <c r="H58">
-        <v>2.106784946053246</v>
+        <v>2.223156056092446</v>
       </c>
       <c r="I58">
-        <v>2.08307271908636</v>
+        <v>2.128376601420966</v>
       </c>
       <c r="J58">
-        <v>1.517247741565741</v>
+        <v>1.560302386784444</v>
       </c>
       <c r="K58">
-        <v>1.504888268938484</v>
+        <v>1.545354854230487</v>
       </c>
       <c r="Q58">
-        <v>2.762715628200681</v>
+        <v>2.814069343530653</v>
       </c>
       <c r="R58">
-        <v>2.104520093411275</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S58">
-        <v>1.99717459078233</v>
+        <v>2.07852536072909</v>
       </c>
       <c r="T58">
-        <v>1.514831264290892</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U58">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="AA58">
-        <v>2.715873968153891</v>
+        <v>0.8799655113173539</v>
       </c>
       <c r="AB58">
-        <v>2.092519243601651</v>
+        <v>0.4246179104823189</v>
       </c>
       <c r="AC58">
-        <v>2.057618417979273</v>
+        <v>0.1283400989334291</v>
       </c>
       <c r="AD58">
-        <v>1.531088898379327</v>
+        <v>0</v>
       </c>
       <c r="AE58">
-        <v>1.492200380030218</v>
+        <v>0</v>
       </c>
       <c r="AK58">
-        <v>2.765434496086403</v>
+        <v>1.157846382319682</v>
       </c>
       <c r="AL58">
-        <v>2.109049340575119</v>
+        <v>2.198656960950707</v>
       </c>
       <c r="AM58">
-        <v>1.969992250932255</v>
+        <v>1.997583497653887</v>
       </c>
       <c r="AN58">
-        <v>1.519116863155586</v>
+        <v>1.553154705424503</v>
       </c>
       <c r="AO58">
-        <v>1.506986805537321</v>
+        <v>1.547630635902873</v>
       </c>
     </row>
     <row r="59" spans="1:41">
@@ -6307,64 +6307,64 @@
         <v>57</v>
       </c>
       <c r="G59">
-        <v>2.820344307434905</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H59">
-        <v>2.110476658613093</v>
+        <v>2.209552906674876</v>
       </c>
       <c r="I59">
-        <v>2.097476420041489</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J59">
-        <v>1.520757878870674</v>
+        <v>1.597587899135844</v>
       </c>
       <c r="K59">
-        <v>1.50849212115275</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="Q59">
-        <v>2.761258247473848</v>
+        <v>2.817282045237739</v>
       </c>
       <c r="R59">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S59">
-        <v>1.99708193091959</v>
+        <v>2.081694014862094</v>
       </c>
       <c r="T59">
-        <v>1.514740069930878</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U59">
-        <v>1.502561333385865</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AA59">
-        <v>2.913786223319847</v>
+        <v>2.9885971045527</v>
       </c>
       <c r="AB59">
-        <v>2.282218525280169</v>
+        <v>2.472237928537804</v>
       </c>
       <c r="AC59">
-        <v>2.165101218030796</v>
+        <v>2.287728901358296</v>
       </c>
       <c r="AD59">
-        <v>1.547019601813241</v>
+        <v>1.829565220282956</v>
       </c>
       <c r="AE59">
-        <v>1.525543299983518</v>
+        <v>1.600602120715411</v>
       </c>
       <c r="AK59">
-        <v>2.770444002935478</v>
+        <v>2.699929824167221</v>
       </c>
       <c r="AL59">
-        <v>2.108950898152964</v>
+        <v>2.160578579510958</v>
       </c>
       <c r="AM59">
-        <v>1.966172283806107</v>
+        <v>2.005131937488606</v>
       </c>
       <c r="AN59">
-        <v>1.51902569111609</v>
+        <v>1.554048859524223</v>
       </c>
       <c r="AO59">
-        <v>1.506804334171242</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="60" spans="1:41">
@@ -6372,64 +6372,64 @@
         <v>58</v>
       </c>
       <c r="G60">
-        <v>2.820447424555885</v>
+        <v>2.847888750775379</v>
       </c>
       <c r="H60">
-        <v>2.110722729581302</v>
+        <v>2.209281143846979</v>
       </c>
       <c r="I60">
-        <v>2.097427147898701</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J60">
-        <v>1.52066671535492</v>
+        <v>1.597705780008066</v>
       </c>
       <c r="K60">
-        <v>1.50849212115275</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="Q60">
-        <v>2.757986889574406</v>
+        <v>2.814162035775095</v>
       </c>
       <c r="R60">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S60">
-        <v>1.997327419469893</v>
+        <v>2.083414829514735</v>
       </c>
       <c r="T60">
-        <v>1.514603277498504</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U60">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AA60">
-        <v>2.913786223319847</v>
+        <v>2.988483632126294</v>
       </c>
       <c r="AB60">
-        <v>2.28228589561846</v>
+        <v>2.468346987581247</v>
       </c>
       <c r="AC60">
-        <v>2.165046618821038</v>
+        <v>2.287892967245351</v>
       </c>
       <c r="AD60">
-        <v>1.547156502714084</v>
+        <v>1.829294521380383</v>
       </c>
       <c r="AE60">
-        <v>1.525497730676322</v>
+        <v>1.600843707329197</v>
       </c>
       <c r="AK60">
-        <v>2.76747256963123</v>
+        <v>2.70905416475787</v>
       </c>
       <c r="AL60">
-        <v>2.10900011947208</v>
+        <v>2.160247495987685</v>
       </c>
       <c r="AM60">
-        <v>1.965761761269118</v>
+        <v>2.002727926599499</v>
       </c>
       <c r="AN60">
-        <v>1.519071277195078</v>
+        <v>1.554157664585284</v>
       </c>
       <c r="AO60">
-        <v>1.506895570094061</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="61" spans="1:41">
@@ -6437,64 +6437,64 @@
         <v>59</v>
       </c>
       <c r="G61">
-        <v>2.805708111856805</v>
+        <v>2.828713521065421</v>
       </c>
       <c r="H61">
-        <v>2.110525873238279</v>
+        <v>2.20886946511559</v>
       </c>
       <c r="I61">
-        <v>2.052385487418358</v>
+        <v>2.108013131308402</v>
       </c>
       <c r="J61">
-        <v>1.520712297171943</v>
+        <v>1.597720174811204</v>
       </c>
       <c r="K61">
-        <v>1.508537734741536</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="Q61">
-        <v>2.761305358987084</v>
+        <v>2.807984049522225</v>
       </c>
       <c r="R61">
-        <v>2.104520093411275</v>
+        <v>2.136432188584686</v>
       </c>
       <c r="S61">
-        <v>2.002062810957012</v>
+        <v>2.081544828562182</v>
       </c>
       <c r="T61">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U61">
-        <v>1.502652591655297</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AA61">
-        <v>2.830541145820765</v>
+        <v>0.9485263600658433</v>
       </c>
       <c r="AB61">
-        <v>2.232517680042085</v>
+        <v>0.5782440361580008</v>
       </c>
       <c r="AC61">
-        <v>2.08474661830083</v>
+        <v>0.3536488563508648</v>
       </c>
       <c r="AD61">
-        <v>1.516600082955669</v>
+        <v>0.04236070023813476</v>
       </c>
       <c r="AE61">
-        <v>1.411471826186249</v>
+        <v>0</v>
       </c>
       <c r="AK61">
-        <v>2.713291279456292</v>
+        <v>0</v>
       </c>
       <c r="AL61">
-        <v>2.10900011947208</v>
+        <v>0</v>
       </c>
       <c r="AM61">
-        <v>1.82933104774033</v>
+        <v>1.954664975629888</v>
       </c>
       <c r="AN61">
-        <v>1.516969249749867</v>
+        <v>1.5135147345506</v>
       </c>
       <c r="AO61">
-        <v>1.343746670789521</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="62" spans="1:41">
@@ -6502,34 +6502,34 @@
         <v>60</v>
       </c>
       <c r="H62">
-        <v>2.110427443772115</v>
+        <v>2.208966308183105</v>
       </c>
       <c r="I62">
-        <v>1.930829039790851</v>
+        <v>1.964558140512088</v>
       </c>
       <c r="J62">
-        <v>1.520757878870674</v>
+        <v>1.596764465108119</v>
       </c>
       <c r="K62">
-        <v>1.504128614260161</v>
+        <v>1.544617424174475</v>
       </c>
       <c r="R62">
-        <v>2.104470852389523</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S62">
-        <v>2.009622770948226</v>
+        <v>2.081322464391839</v>
       </c>
       <c r="T62">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U62">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AB62">
-        <v>0.3975142546969326</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0.03043221913391103</v>
+        <v>0</v>
       </c>
       <c r="AD62">
         <v>0</v>
@@ -6555,43 +6555,43 @@
         <v>61</v>
       </c>
       <c r="H63">
-        <v>2.110525873238279</v>
+        <v>2.208933512267292</v>
       </c>
       <c r="I63">
-        <v>2.05780219199828</v>
+        <v>2.087660359360417</v>
       </c>
       <c r="J63">
-        <v>1.520757878870674</v>
+        <v>1.59775359781759</v>
       </c>
       <c r="K63">
-        <v>1.50840089361606</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="R63">
-        <v>2.104421611150824</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S63">
-        <v>1.999654056145388</v>
+        <v>2.078943766311441</v>
       </c>
       <c r="T63">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U63">
-        <v>1.502470074634843</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AB63">
-        <v>2.241507723936781</v>
+        <v>0.598668816022619</v>
       </c>
       <c r="AC63">
-        <v>2.084952124945475</v>
+        <v>0.3598857713523533</v>
       </c>
       <c r="AD63">
-        <v>1.53892572563965</v>
+        <v>0.07675776530551071</v>
       </c>
       <c r="AE63">
-        <v>1.411751867967422</v>
+        <v>0</v>
       </c>
       <c r="AL63">
-        <v>0.001454163907148809</v>
+        <v>0</v>
       </c>
       <c r="AM63">
         <v>0</v>
@@ -6608,52 +6608,52 @@
         <v>62</v>
       </c>
       <c r="H64">
-        <v>2.110427443772115</v>
+        <v>2.208925999328756</v>
       </c>
       <c r="I64">
-        <v>2.097377875537593</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J64">
-        <v>1.52066671535492</v>
+        <v>1.59735542741706</v>
       </c>
       <c r="K64">
-        <v>1.508628961560021</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S64">
-        <v>1.999612722988417</v>
+        <v>2.078746815239467</v>
       </c>
       <c r="T64">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U64">
-        <v>1.502515704070555</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AB64">
-        <v>2.282267004407296</v>
+        <v>2.472395366912989</v>
       </c>
       <c r="AC64">
-        <v>2.164614733137075</v>
+        <v>2.287380311764299</v>
       </c>
       <c r="AD64">
-        <v>1.547028781295407</v>
+        <v>1.829765647584332</v>
       </c>
       <c r="AE64">
-        <v>1.525497730676322</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AL64">
-        <v>2.108950898152964</v>
+        <v>2.160648842875307</v>
       </c>
       <c r="AM64">
-        <v>1.973037227417356</v>
+        <v>2.00605498025687</v>
       </c>
       <c r="AN64">
-        <v>1.51902569111609</v>
+        <v>1.54595991454854</v>
       </c>
       <c r="AO64">
-        <v>1.506804334171242</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="65" spans="1:41">
@@ -6661,52 +6661,52 @@
         <v>63</v>
       </c>
       <c r="H65">
-        <v>2.110427443772115</v>
+        <v>2.209336500973288</v>
       </c>
       <c r="I65">
-        <v>2.013868126578851</v>
+        <v>2.108975205462922</v>
       </c>
       <c r="J65">
-        <v>1.520575551365979</v>
+        <v>1.596978491223664</v>
       </c>
       <c r="K65">
-        <v>1.495672077183953</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="R65">
-        <v>2.104372369695162</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S65">
-        <v>1.999703714753396</v>
+        <v>2.075793368625628</v>
       </c>
       <c r="T65">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U65">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AB65">
-        <v>2.226642340610798</v>
+        <v>0.5705740834711244</v>
       </c>
       <c r="AC65">
-        <v>2.084768137217393</v>
+        <v>0.3773115638168421</v>
       </c>
       <c r="AD65">
-        <v>1.522161571938484</v>
+        <v>0.0219923721624502</v>
       </c>
       <c r="AE65">
-        <v>1.411798541089573</v>
+        <v>0</v>
       </c>
       <c r="AL65">
-        <v>2.034750678765395</v>
+        <v>2.142251124937221</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>1.988587078528957</v>
       </c>
       <c r="AN65">
-        <v>1.363552273052185</v>
+        <v>1.510589001146378</v>
       </c>
       <c r="AO65">
-        <v>1.287638671729005</v>
+        <v>1.522309837467717</v>
       </c>
     </row>
     <row r="66" spans="1:41">
@@ -6714,52 +6714,52 @@
         <v>64</v>
       </c>
       <c r="H66">
-        <v>2.110624301841317</v>
+        <v>2.209487016011885</v>
       </c>
       <c r="I66">
-        <v>2.097377875537593</v>
+        <v>2.132405106485074</v>
       </c>
       <c r="J66">
-        <v>1.52066671535492</v>
+        <v>1.597585626966446</v>
       </c>
       <c r="K66">
-        <v>1.508583348210625</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="R66">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S66">
-        <v>1.999519756735406</v>
+        <v>2.081548446351837</v>
       </c>
       <c r="T66">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U66">
-        <v>1.502470074634843</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AB66">
-        <v>2.28222780237921</v>
+        <v>2.495272569222742</v>
       </c>
       <c r="AC66">
-        <v>2.1838072733721</v>
+        <v>2.28738622344461</v>
       </c>
       <c r="AD66">
-        <v>1.546798718648826</v>
+        <v>1.829247496678075</v>
       </c>
       <c r="AE66">
-        <v>1.525452161251381</v>
+        <v>1.600823120483173</v>
       </c>
       <c r="AL66">
-        <v>2.108901676617765</v>
+        <v>2.160113685515289</v>
       </c>
       <c r="AM66">
-        <v>1.965350991217715</v>
+        <v>2.002238354502926</v>
       </c>
       <c r="AN66">
-        <v>1.519116863155586</v>
+        <v>1.546195883480219</v>
       </c>
       <c r="AO66">
-        <v>1.506941187875634</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="67" spans="1:41">
@@ -6767,52 +6767,52 @@
         <v>65</v>
       </c>
       <c r="H67">
-        <v>2.110525873238279</v>
+        <v>2.20912107456196</v>
       </c>
       <c r="I67">
-        <v>2.097377875537593</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J67">
-        <v>1.520757878870674</v>
+        <v>1.597556676036092</v>
       </c>
       <c r="K67">
-        <v>1.508628961560021</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="R67">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S67">
-        <v>1.999761706084014</v>
+        <v>2.075648760407134</v>
       </c>
       <c r="T67">
-        <v>1.514740069930878</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U67">
-        <v>1.502515704070555</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AB67">
-        <v>2.282330263629646</v>
+        <v>2.468437196811461</v>
       </c>
       <c r="AC67">
-        <v>2.164958890025016</v>
+        <v>2.287456877248109</v>
       </c>
       <c r="AD67">
-        <v>1.547098405293291</v>
+        <v>1.829605959173921</v>
       </c>
       <c r="AE67">
-        <v>1.525543299983518</v>
+        <v>1.600774995637184</v>
       </c>
       <c r="AL67">
-        <v>2.108901676617765</v>
+        <v>2.160232531418048</v>
       </c>
       <c r="AM67">
-        <v>1.972258655664676</v>
+        <v>2.002583720680601</v>
       </c>
       <c r="AN67">
-        <v>1.518980104918619</v>
+        <v>1.554245291378799</v>
       </c>
       <c r="AO67">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="68" spans="1:41">
@@ -6820,52 +6820,52 @@
         <v>66</v>
       </c>
       <c r="H68">
-        <v>2.110476658613093</v>
+        <v>2.209214952368711</v>
       </c>
       <c r="I68">
-        <v>2.097427147898701</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J68">
-        <v>1.520712297171943</v>
+        <v>1.597560900283352</v>
       </c>
       <c r="K68">
-        <v>1.508628961560021</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="R68">
-        <v>2.104470852389523</v>
+        <v>2.136284881331725</v>
       </c>
       <c r="S68">
-        <v>1.998510521459317</v>
+        <v>2.081542381137158</v>
       </c>
       <c r="T68">
-        <v>1.514694472572406</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U68">
-        <v>1.502561333385865</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AB68">
-        <v>2.282356712956446</v>
+        <v>2.470612920029822</v>
       </c>
       <c r="AC68">
-        <v>2.165107089775544</v>
+        <v>2.287335336445536</v>
       </c>
       <c r="AD68">
-        <v>1.54705771883989</v>
+        <v>1.82896267752952</v>
       </c>
       <c r="AE68">
-        <v>1.525361022048251</v>
+        <v>1.600777134188337</v>
       </c>
       <c r="AL68">
-        <v>2.108950898152964</v>
+        <v>2.139796461504589</v>
       </c>
       <c r="AM68">
-        <v>1.965168005957044</v>
+        <v>2.002591822397826</v>
       </c>
       <c r="AN68">
-        <v>1.518980104918619</v>
+        <v>1.546241258298626</v>
       </c>
       <c r="AO68">
-        <v>1.506895570094061</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="69" spans="1:41">
@@ -6873,28 +6873,28 @@
         <v>67</v>
       </c>
       <c r="H69">
-        <v>2.109443101621856</v>
+        <v>2.176017284782046</v>
       </c>
       <c r="I69">
-        <v>1.780069644301087</v>
+        <v>1.946653313655111</v>
       </c>
       <c r="J69">
-        <v>1.517931589662944</v>
+        <v>1.592638413747485</v>
       </c>
       <c r="K69">
-        <v>1.467481955327516</v>
+        <v>1.543762756990616</v>
       </c>
       <c r="R69">
-        <v>2.104520093411275</v>
+        <v>2.136383086377916</v>
       </c>
       <c r="S69">
-        <v>2.002182315416963</v>
+        <v>2.081613979785915</v>
       </c>
       <c r="T69">
-        <v>1.514831264290892</v>
+        <v>1.552499841388667</v>
       </c>
       <c r="U69">
-        <v>1.502698220609431</v>
+        <v>1.544398939852563</v>
       </c>
       <c r="AB69">
         <v>0</v>
@@ -6926,52 +6926,52 @@
         <v>68</v>
       </c>
       <c r="H70">
-        <v>2.110476658613093</v>
+        <v>2.208968929698168</v>
       </c>
       <c r="I70">
-        <v>2.097476420041489</v>
+        <v>2.132454225802858</v>
       </c>
       <c r="J70">
-        <v>1.520757878870674</v>
+        <v>1.597557785794343</v>
       </c>
       <c r="K70">
-        <v>1.508537734741536</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="R70">
-        <v>2.104421611150824</v>
+        <v>2.136333983960265</v>
       </c>
       <c r="S70">
-        <v>2.004371369061904</v>
+        <v>2.081610648387068</v>
       </c>
       <c r="T70">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U70">
-        <v>1.502561333385865</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AB70">
-        <v>2.282313860002195</v>
+        <v>2.471963560880203</v>
       </c>
       <c r="AC70">
-        <v>2.184047744363652</v>
+        <v>2.289644971540233</v>
       </c>
       <c r="AD70">
-        <v>1.546970471836886</v>
+        <v>1.830069714915726</v>
       </c>
       <c r="AE70">
-        <v>1.525406591708693</v>
+        <v>1.600594721772856</v>
       </c>
       <c r="AL70">
-        <v>2.10900011947208</v>
+        <v>2.160112985826748</v>
       </c>
       <c r="AM70">
-        <v>1.965605610293088</v>
+        <v>2.003092173825103</v>
       </c>
       <c r="AN70">
-        <v>1.519116863155586</v>
+        <v>1.554189483562115</v>
       </c>
       <c r="AO70">
-        <v>1.506895570094061</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="71" spans="1:41">
@@ -6979,28 +6979,28 @@
         <v>69</v>
       </c>
       <c r="H71">
-        <v>2.094417817234849</v>
+        <v>0.272056557274529</v>
       </c>
       <c r="I71">
-        <v>1.692946878679316</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>1.509039476319275</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>1.341066623809568</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>2.104520093411275</v>
+        <v>2.13623577849229</v>
       </c>
       <c r="S71">
-        <v>2.004241375340093</v>
+        <v>2.069959137337245</v>
       </c>
       <c r="T71">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U71">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AB71">
         <v>0</v>
@@ -7032,40 +7032,40 @@
         <v>70</v>
       </c>
       <c r="I72">
-        <v>1.981368387012337</v>
+        <v>0.2472630456333069</v>
       </c>
       <c r="J72">
-        <v>1.500188449217823</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>1.485852918056124</v>
+        <v>0</v>
       </c>
       <c r="S72">
-        <v>2.005282620169106</v>
+        <v>2.083123070319156</v>
       </c>
       <c r="T72">
-        <v>1.514785667170373</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U72">
-        <v>1.502698220609431</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AC72">
-        <v>1.893257052366984</v>
+        <v>0.086193314845737</v>
       </c>
       <c r="AD72">
-        <v>1.32164705938278</v>
+        <v>0</v>
       </c>
       <c r="AE72">
-        <v>1.321051070761926</v>
+        <v>1.544426383572366</v>
       </c>
       <c r="AM72">
-        <v>1.964409969976363</v>
+        <v>0</v>
       </c>
       <c r="AN72">
-        <v>1.497894325362277</v>
+        <v>0</v>
       </c>
       <c r="AO72">
-        <v>1.531391723013227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:41">
@@ -7073,40 +7073,40 @@
         <v>71</v>
       </c>
       <c r="I73">
-        <v>2.097476420041489</v>
+        <v>2.132257747261938</v>
       </c>
       <c r="J73">
-        <v>1.520757878870674</v>
+        <v>1.597670611330127</v>
       </c>
       <c r="K73">
-        <v>1.508583348210625</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="S73">
-        <v>1.997363792190211</v>
+        <v>2.075657831154731</v>
       </c>
       <c r="T73">
-        <v>1.514694472572406</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U73">
-        <v>1.502470074634843</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AC73">
-        <v>2.184393734570602</v>
+        <v>2.287836159680768</v>
       </c>
       <c r="AD73">
-        <v>1.546956107126871</v>
+        <v>1.825989474230768</v>
       </c>
       <c r="AE73">
-        <v>1.525406591708693</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AM73">
-        <v>1.965813105444254</v>
+        <v>2.002599917957457</v>
       </c>
       <c r="AN73">
-        <v>1.518980104918619</v>
+        <v>1.554145391026008</v>
       </c>
       <c r="AO73">
-        <v>1.506941187875634</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="74" spans="1:41">
@@ -7114,40 +7114,40 @@
         <v>72</v>
       </c>
       <c r="I74">
-        <v>2.097476420041489</v>
+        <v>2.132355986955667</v>
       </c>
       <c r="J74">
-        <v>1.5206211334196</v>
+        <v>1.597657834325909</v>
       </c>
       <c r="K74">
-        <v>1.508537734741536</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="S74">
-        <v>1.997282724554472</v>
+        <v>2.078486501291865</v>
       </c>
       <c r="T74">
-        <v>1.514694472572406</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U74">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AC74">
-        <v>2.184411290310005</v>
+        <v>2.289199745494069</v>
       </c>
       <c r="AD74">
-        <v>1.546883605551177</v>
+        <v>1.829653836626123</v>
       </c>
       <c r="AE74">
-        <v>1.525452161251381</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AM74">
-        <v>1.972430874783901</v>
+        <v>2.00265510903763</v>
       </c>
       <c r="AN74">
-        <v>1.519071277195078</v>
+        <v>1.55423655596228</v>
       </c>
       <c r="AO74">
-        <v>1.506941187875634</v>
+        <v>1.547767173634044</v>
       </c>
     </row>
     <row r="75" spans="1:41">
@@ -7155,25 +7155,25 @@
         <v>73</v>
       </c>
       <c r="I75">
-        <v>1.929058026652742</v>
+        <v>2.000158055176558</v>
       </c>
       <c r="J75">
-        <v>1.5206211334196</v>
+        <v>1.596988896575394</v>
       </c>
       <c r="K75">
-        <v>1.487391249297514</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="S75">
-        <v>1.99968061940654</v>
+        <v>2.075815462258918</v>
       </c>
       <c r="T75">
-        <v>1.51464887509495</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U75">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AC75">
-        <v>0.0792449575596561</v>
+        <v>0</v>
       </c>
       <c r="AD75">
         <v>0</v>
@@ -7196,25 +7196,25 @@
         <v>74</v>
       </c>
       <c r="I76">
-        <v>1.971322498700843</v>
+        <v>2.044747777274151</v>
       </c>
       <c r="J76">
-        <v>1.520575551365979</v>
+        <v>1.5976351170575</v>
       </c>
       <c r="K76">
-        <v>1.491729710091325</v>
+        <v>1.544729271123549</v>
       </c>
       <c r="S76">
-        <v>1.996062878329563</v>
+        <v>2.075444728999228</v>
       </c>
       <c r="T76">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U76">
-        <v>1.502606962580777</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AC76">
-        <v>1.88149271720199</v>
+        <v>0</v>
       </c>
       <c r="AD76">
         <v>0</v>
@@ -7223,7 +7223,7 @@
         <v>0</v>
       </c>
       <c r="AM76">
-        <v>0.07997276153402755</v>
+        <v>0</v>
       </c>
       <c r="AN76">
         <v>0</v>
@@ -7237,34 +7237,34 @@
         <v>75</v>
       </c>
       <c r="I77">
-        <v>2.06500907126222</v>
+        <v>2.085496973880966</v>
       </c>
       <c r="J77">
-        <v>1.52066671535492</v>
+        <v>1.597576217732801</v>
       </c>
       <c r="K77">
-        <v>1.50849212115275</v>
+        <v>1.549132493923784</v>
       </c>
       <c r="S77">
-        <v>1.99574032552707</v>
+        <v>2.072772910160884</v>
       </c>
       <c r="T77">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U77">
-        <v>1.502515704070555</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AC77">
-        <v>2.078179138080392</v>
+        <v>0.3156448389965663</v>
       </c>
       <c r="AD77">
-        <v>1.460279852524802</v>
+        <v>0.005031078494689201</v>
       </c>
       <c r="AE77">
-        <v>1.411705194700126</v>
+        <v>0</v>
       </c>
       <c r="AM77">
-        <v>0.1717933216692531</v>
+        <v>0</v>
       </c>
       <c r="AN77">
         <v>0</v>
@@ -7278,25 +7278,25 @@
         <v>76</v>
       </c>
       <c r="I78">
-        <v>1.89513365708338</v>
+        <v>1.941641296402158</v>
       </c>
       <c r="J78">
-        <v>1.520712297171943</v>
+        <v>1.587801930943113</v>
       </c>
       <c r="K78">
-        <v>1.430166508502815</v>
+        <v>1.474601625197121</v>
       </c>
       <c r="S78">
-        <v>1.999911518973775</v>
+        <v>2.084452886517194</v>
       </c>
       <c r="T78">
-        <v>1.514694472572406</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U78">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AC78">
-        <v>0.06063674545701314</v>
+        <v>0</v>
       </c>
       <c r="AD78">
         <v>0</v>
@@ -7319,31 +7319,31 @@
         <v>77</v>
       </c>
       <c r="I79">
-        <v>1.853854509412582</v>
+        <v>0.03245663220799244</v>
       </c>
       <c r="J79">
-        <v>1.484071551341346</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>1.470911049067075</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>2.00201240041718</v>
+        <v>2.078548860603509</v>
       </c>
       <c r="T79">
-        <v>1.514831264290892</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U79">
-        <v>1.502698220609431</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="AC79">
-        <v>1.745827170975346</v>
+        <v>0</v>
       </c>
       <c r="AD79">
-        <v>1.182433616123133</v>
+        <v>0</v>
       </c>
       <c r="AE79">
-        <v>1.141909067837016</v>
+        <v>0</v>
       </c>
       <c r="AM79">
         <v>0</v>
@@ -7360,40 +7360,40 @@
         <v>78</v>
       </c>
       <c r="I80">
-        <v>2.067292917795719</v>
+        <v>2.105635615729925</v>
       </c>
       <c r="J80">
-        <v>1.5206211334196</v>
+        <v>1.597634608465807</v>
       </c>
       <c r="K80">
-        <v>1.508628961560021</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="S80">
-        <v>1.999651824182261</v>
+        <v>2.067301229450478</v>
       </c>
       <c r="T80">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U80">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AC80">
-        <v>2.084767341917162</v>
+        <v>0.3816501748949095</v>
       </c>
       <c r="AD80">
-        <v>1.550911086393945</v>
+        <v>0.07416222659937288</v>
       </c>
       <c r="AE80">
-        <v>1.411891886898463</v>
+        <v>0</v>
       </c>
       <c r="AM80">
-        <v>1.931856992894718</v>
+        <v>0</v>
       </c>
       <c r="AN80">
         <v>0</v>
       </c>
       <c r="AO80">
-        <v>1.421469681413624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:41">
@@ -7401,40 +7401,40 @@
         <v>79</v>
       </c>
       <c r="I81">
-        <v>2.097377875537593</v>
+        <v>2.132306867214623</v>
       </c>
       <c r="J81">
-        <v>1.520712297171943</v>
+        <v>1.597586888739232</v>
       </c>
       <c r="K81">
-        <v>1.50840089361606</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="S81">
-        <v>1.997490188183791</v>
+        <v>2.083213414005471</v>
       </c>
       <c r="T81">
-        <v>1.514603277498504</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U81">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AC81">
-        <v>2.184506251422345</v>
+        <v>2.287693089460853</v>
       </c>
       <c r="AD81">
-        <v>1.54691950389625</v>
+        <v>1.829436206373036</v>
       </c>
       <c r="AE81">
-        <v>1.525588869172975</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AM81">
-        <v>1.965409756954004</v>
+        <v>2.002697539290907</v>
       </c>
       <c r="AN81">
-        <v>1.518980104918619</v>
+        <v>1.546082163959838</v>
       </c>
       <c r="AO81">
-        <v>1.506895570094061</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="82" spans="1:41">
@@ -7442,28 +7442,28 @@
         <v>80</v>
       </c>
       <c r="J82">
-        <v>1.520712297171943</v>
+        <v>1.597625143080873</v>
       </c>
       <c r="K82">
-        <v>1.508583348210625</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="T82">
-        <v>1.51464887509495</v>
+        <v>1.552408840266605</v>
       </c>
       <c r="U82">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AD82">
-        <v>1.546960447074996</v>
+        <v>1.829716177901527</v>
       </c>
       <c r="AE82">
-        <v>1.525588869172975</v>
+        <v>1.600749270763525</v>
       </c>
       <c r="AN82">
-        <v>1.518980104918619</v>
+        <v>1.554100513817489</v>
       </c>
       <c r="AO82">
-        <v>1.506758716029984</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="83" spans="1:41">
@@ -7471,28 +7471,28 @@
         <v>81</v>
       </c>
       <c r="J83">
-        <v>1.520712297171943</v>
+        <v>1.597582232707522</v>
       </c>
       <c r="K83">
-        <v>1.508537734741536</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="T83">
-        <v>1.514694472572406</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U83">
-        <v>1.502652591655297</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AD83">
-        <v>1.547038137057019</v>
+        <v>1.829643331372947</v>
       </c>
       <c r="AE83">
-        <v>1.525497730676322</v>
+        <v>1.60068485891186</v>
       </c>
       <c r="AN83">
-        <v>1.51902569111609</v>
+        <v>1.546303402998312</v>
       </c>
       <c r="AO83">
-        <v>1.506804334171242</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="84" spans="1:41">
@@ -7500,28 +7500,28 @@
         <v>82</v>
       </c>
       <c r="J84">
-        <v>1.517886000620267</v>
+        <v>1.597554969259772</v>
       </c>
       <c r="K84">
-        <v>1.504797022454586</v>
+        <v>1.548358825152443</v>
       </c>
       <c r="T84">
-        <v>1.514785667170373</v>
+        <v>1.552272337723035</v>
       </c>
       <c r="U84">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="AD84">
-        <v>1.442165401323857</v>
+        <v>0.04450982509160695</v>
       </c>
       <c r="AE84">
-        <v>1.292916836800978</v>
+        <v>0</v>
       </c>
       <c r="AN84">
         <v>0</v>
       </c>
       <c r="AO84">
-        <v>1.244796463605549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:41">
@@ -7529,28 +7529,28 @@
         <v>83</v>
       </c>
       <c r="J85">
-        <v>1.5206211334196</v>
+        <v>1.597616639444168</v>
       </c>
       <c r="K85">
-        <v>1.50849212115275</v>
+        <v>1.549041475795162</v>
       </c>
       <c r="T85">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U85">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AD85">
-        <v>1.546979116624419</v>
+        <v>1.829339986841362</v>
       </c>
       <c r="AE85">
-        <v>1.525497730676322</v>
+        <v>1.600540770340566</v>
       </c>
       <c r="AN85">
-        <v>1.519116863155586</v>
+        <v>1.554092736383158</v>
       </c>
       <c r="AO85">
-        <v>1.5068499521926</v>
+        <v>1.547676148595179</v>
       </c>
     </row>
     <row r="86" spans="1:41">
@@ -7558,28 +7558,28 @@
         <v>84</v>
       </c>
       <c r="J86">
-        <v>1.520712297171943</v>
+        <v>1.594639377319749</v>
       </c>
       <c r="K86">
-        <v>1.50844650744426</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="T86">
-        <v>1.514603277498504</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U86">
-        <v>1.502652591655297</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AD86">
-        <v>1.5435965155889</v>
+        <v>1.82627231516238</v>
       </c>
       <c r="AE86">
-        <v>1.525452161251381</v>
+        <v>1.600622417537469</v>
       </c>
       <c r="AN86">
-        <v>1.51902569111609</v>
+        <v>1.554211031844309</v>
       </c>
       <c r="AO86">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="87" spans="1:41">
@@ -7587,28 +7587,28 @@
         <v>85</v>
       </c>
       <c r="J87">
-        <v>1.520757878870674</v>
+        <v>1.597568606323056</v>
       </c>
       <c r="K87">
-        <v>1.50849212115275</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="T87">
-        <v>1.51464887509495</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U87">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AD87">
-        <v>1.546903858706185</v>
+        <v>1.829621901155022</v>
       </c>
       <c r="AE87">
-        <v>1.525588869172975</v>
+        <v>1.600677852255958</v>
       </c>
       <c r="AN87">
-        <v>1.519116863155586</v>
+        <v>1.554131512266054</v>
       </c>
       <c r="AO87">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="88" spans="1:41">
@@ -7616,28 +7616,28 @@
         <v>86</v>
       </c>
       <c r="J88">
-        <v>1.52066671535492</v>
+        <v>1.597665187799663</v>
       </c>
       <c r="K88">
-        <v>1.50844650744426</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="T88">
-        <v>1.514740069930878</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U88">
-        <v>1.502561333385865</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AD88">
-        <v>1.546919923417883</v>
+        <v>1.822411046644987</v>
       </c>
       <c r="AE88">
-        <v>1.525452161251381</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AN88">
-        <v>1.518980104918619</v>
+        <v>1.554050523423795</v>
       </c>
       <c r="AO88">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="89" spans="1:41">
@@ -7645,16 +7645,16 @@
         <v>87</v>
       </c>
       <c r="J89">
-        <v>1.520575551365979</v>
+        <v>1.597560454805632</v>
       </c>
       <c r="K89">
-        <v>1.49518187366703</v>
+        <v>1.531806235399336</v>
       </c>
       <c r="T89">
-        <v>1.514740069930878</v>
+        <v>1.552317838685629</v>
       </c>
       <c r="U89">
-        <v>1.502470074634843</v>
+        <v>1.544171333677916</v>
       </c>
       <c r="AD89">
         <v>0</v>
@@ -7674,28 +7674,28 @@
         <v>88</v>
       </c>
       <c r="J90">
-        <v>1.520712297171943</v>
+        <v>1.597667072816755</v>
       </c>
       <c r="K90">
-        <v>1.508583348210625</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="T90">
-        <v>1.514603277498504</v>
+        <v>1.552363339533482</v>
       </c>
       <c r="U90">
-        <v>1.502561333385865</v>
+        <v>1.544307897729585</v>
       </c>
       <c r="AD90">
-        <v>1.546958497669592</v>
+        <v>1.824579704964785</v>
       </c>
       <c r="AE90">
-        <v>1.525543299983518</v>
+        <v>1.60072992732623</v>
       </c>
       <c r="AN90">
-        <v>1.518980104918619</v>
+        <v>1.554097429810258</v>
       </c>
       <c r="AO90">
-        <v>1.5068499521926</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="91" spans="1:41">
@@ -7703,28 +7703,28 @@
         <v>89</v>
       </c>
       <c r="J91">
-        <v>1.5206211334196</v>
+        <v>1.597777687370484</v>
       </c>
       <c r="K91">
-        <v>1.508628961560021</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="T91">
-        <v>1.51464887509495</v>
+        <v>1.552454340884998</v>
       </c>
       <c r="U91">
-        <v>1.502606962580777</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AD91">
-        <v>1.546973141397368</v>
+        <v>1.829191317678044</v>
       </c>
       <c r="AE91">
-        <v>1.525543299983518</v>
+        <v>1.60067778992611</v>
       </c>
       <c r="AN91">
-        <v>1.51902569111609</v>
+        <v>1.546119609092075</v>
       </c>
       <c r="AO91">
-        <v>1.506895570094061</v>
+        <v>1.547812685980611</v>
       </c>
     </row>
     <row r="92" spans="1:41">
@@ -7732,16 +7732,16 @@
         <v>90</v>
       </c>
       <c r="K92">
-        <v>1.508537734741536</v>
+        <v>1.548995966558204</v>
       </c>
       <c r="U92">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AE92">
-        <v>1.525452161251381</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AO92">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="93" spans="1:41">
@@ -7749,16 +7749,16 @@
         <v>91</v>
       </c>
       <c r="K93">
-        <v>1.50840089361606</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="U93">
-        <v>1.502515704070555</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AE93">
-        <v>1.50441713941652</v>
+        <v>1.600820063844728</v>
       </c>
       <c r="AO93">
-        <v>1.5068499521926</v>
+        <v>1.535253818462347</v>
       </c>
     </row>
     <row r="94" spans="1:41">
@@ -7766,10 +7766,10 @@
         <v>92</v>
       </c>
       <c r="K94">
-        <v>1.50840089361606</v>
+        <v>1.544618646792346</v>
       </c>
       <c r="U94">
-        <v>1.502561333385865</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AE94">
         <v>0</v>
@@ -7783,13 +7783,13 @@
         <v>93</v>
       </c>
       <c r="K95">
-        <v>1.50849212115275</v>
+        <v>1.548904947738966</v>
       </c>
       <c r="U95">
-        <v>1.502470074634843</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AE95">
-        <v>1.411891886898463</v>
+        <v>0</v>
       </c>
       <c r="AO95">
         <v>0</v>
@@ -7800,10 +7800,10 @@
         <v>94</v>
       </c>
       <c r="K96">
-        <v>1.496756086487362</v>
+        <v>1.540068205393844</v>
       </c>
       <c r="U96">
-        <v>1.502652591655297</v>
+        <v>1.544125812096084</v>
       </c>
       <c r="AE96">
         <v>0</v>
@@ -7817,16 +7817,16 @@
         <v>95</v>
       </c>
       <c r="K97">
-        <v>1.50844650744426</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="U97">
-        <v>1.502561333385865</v>
+        <v>1.544262376494662</v>
       </c>
       <c r="AE97">
-        <v>1.525452161251381</v>
+        <v>1.600639790394071</v>
       </c>
       <c r="AO97">
-        <v>1.506941187875634</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="98" spans="1:41">
@@ -7834,10 +7834,10 @@
         <v>96</v>
       </c>
       <c r="K98">
-        <v>1.467382458892439</v>
+        <v>1.519244529137813</v>
       </c>
       <c r="U98">
-        <v>1.502561333385865</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AE98">
         <v>0</v>
@@ -7851,16 +7851,16 @@
         <v>97</v>
       </c>
       <c r="K99">
-        <v>1.49325045252111</v>
+        <v>0</v>
       </c>
       <c r="U99">
-        <v>1.502652591655297</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AE99">
-        <v>1.471871015580754</v>
+        <v>0</v>
       </c>
       <c r="AO99">
-        <v>1.506758716029984</v>
+        <v>1.547630635902873</v>
       </c>
     </row>
     <row r="100" spans="1:41">
@@ -7868,16 +7868,16 @@
         <v>98</v>
       </c>
       <c r="K100">
-        <v>1.50849212115275</v>
+        <v>1.549086984917021</v>
       </c>
       <c r="U100">
-        <v>1.502606962580777</v>
+        <v>1.544216855144106</v>
       </c>
       <c r="AE100">
-        <v>1.525497730676322</v>
+        <v>1.600600881816592</v>
       </c>
       <c r="AO100">
-        <v>1.506804334171242</v>
+        <v>1.547721661172235</v>
       </c>
     </row>
     <row r="101" spans="1:41">
@@ -7885,13 +7885,13 @@
         <v>99</v>
       </c>
       <c r="K101">
-        <v>1.508583348210625</v>
+        <v>1.548950457206141</v>
       </c>
       <c r="U101">
-        <v>1.502470074634843</v>
+        <v>1.544353418848886</v>
       </c>
       <c r="AE101">
-        <v>1.351446524833064</v>
+        <v>0</v>
       </c>
       <c r="AO101">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -8093,13 +8093,13 @@
         <v>1</v>
       </c>
       <c r="X103">
-        <v>0.8666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Y103">
-        <v>0.7</v>
+        <v>0.525</v>
       </c>
       <c r="Z103">
-        <v>0.64</v>
+        <v>0.46</v>
       </c>
       <c r="AA103">
         <v>0</v>
@@ -8123,10 +8123,10 @@
         <v>1</v>
       </c>
       <c r="AH103">
-        <v>0.9333333333333333</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AI103">
-        <v>0.775</v>
+        <v>0.55</v>
       </c>
       <c r="AJ103">
         <v>0</v>
@@ -8158,7 +8158,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>0.9333333333333333</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>1</v>
       </c>
       <c r="X104">
-        <v>0.8333333333333334</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="Y104">
         <v>0</v>
@@ -8248,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="AH104">
-        <v>0.9</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="AI104">
         <v>0</v>
@@ -8286,19 +8286,19 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.1166666666666667</v>
       </c>
       <c r="H105">
-        <v>0.04285714285714286</v>
+        <v>0.1285714285714286</v>
       </c>
       <c r="I105">
-        <v>0.2875</v>
+        <v>0.25</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="S105">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="T105">
         <v>1</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="X105">
-        <v>0.1333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="Y105">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="Z105">
-        <v>0.3</v>
+        <v>0.54</v>
       </c>
       <c r="AA105">
-        <v>0.25</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AB105">
-        <v>0.3</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="AC105">
-        <v>0.35</v>
+        <v>0.5875</v>
       </c>
       <c r="AD105">
         <v>1</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="AH105">
-        <v>0.03333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="AI105">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="AJ105">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="AK105">
-        <v>0.3166666666666667</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="AL105">
-        <v>0.4571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="AM105">
-        <v>0.9875</v>
+        <v>0.6</v>
       </c>
       <c r="AN105">
         <v>1</v>
